--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/daoyu_shen_uts_edu_au/Documents/UTS/7. Python Space/Legends of Champions Tactics/Legends of Champions Tactics_exe_1.0_A/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_C69A66953D00A357AA870B864A3D54B89CD8BB23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F21F9FD-AD97-495F-B185-4633826EABB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923DD81-86D1-4456-A0FA-C945622A560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Warlock_Destruction</t>
   </si>
   <si>
-    <t>Death Knight_Comprehensiveness</t>
-  </si>
-  <si>
     <t>Fire_resistance_Max</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Avg</t>
+  </si>
+  <si>
+    <t>Death Knight_Frost</t>
   </si>
 </sst>
 </file>
@@ -29912,10 +29912,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29985,7 +29985,7 @@
         <v>33</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>8</v>
@@ -30002,7 +30002,7 @@
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="8">
         <v>30</v>
@@ -30067,7 +30067,7 @@
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8">
         <v>20</v>
@@ -30217,7 +30217,7 @@
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8">
         <v>30</v>
@@ -30282,7 +30282,7 @@
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8">
         <v>20</v>
@@ -30345,7 +30345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -30432,7 +30432,7 @@
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8">
         <v>30</v>
@@ -30497,7 +30497,7 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8">
         <v>20</v>
@@ -30560,7 +30560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -30647,7 +30647,7 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="8">
         <v>30</v>
@@ -30710,9 +30710,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="8">
         <v>20</v>
@@ -30775,7 +30775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
@@ -30862,7 +30862,7 @@
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8">
         <v>30</v>
@@ -30925,9 +30925,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8">
         <v>20</v>
@@ -30990,7 +30990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
@@ -31077,7 +31077,7 @@
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8">
         <v>30</v>
@@ -31140,9 +31140,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="8">
         <v>20</v>
@@ -31205,7 +31205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
@@ -31292,7 +31292,7 @@
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8">
         <v>30</v>
@@ -31355,9 +31355,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="8">
         <v>20</v>
@@ -31420,7 +31420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
@@ -31505,7 +31505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -31525,9 +31525,9 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" ref="B24:U24" si="7">B4+B7+B10+B13+B16+B19+B22</f>
@@ -31610,9 +31610,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="16">
         <f t="shared" ref="B25:U25" si="8">B24/7</f>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8923DD81-86D1-4456-A0FA-C945622A560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CC1E6-A301-4820-A31F-0CE028F634EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Warrior</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Death Knight_Frost</t>
+  </si>
+  <si>
+    <t>Death Knight_Plague</t>
   </si>
 </sst>
 </file>
@@ -1949,19 +1952,19 @@
         <v>25</v>
       </c>
       <c r="J2" s="5">
-        <f>'Resistance List'!R4</f>
+        <f>'Resistance List'!S4</f>
         <v>35</v>
       </c>
       <c r="K2" s="5">
-        <f>'Resistance List'!S4</f>
+        <f>'Resistance List'!T4</f>
         <v>50</v>
       </c>
       <c r="L2" s="5">
-        <f>'Resistance List'!T4</f>
+        <f>'Resistance List'!U4</f>
         <v>35</v>
       </c>
       <c r="M2" s="5">
-        <f>'Resistance List'!U4</f>
+        <f>'Resistance List'!V4</f>
         <v>35</v>
       </c>
       <c r="N2" s="4"/>
@@ -2015,19 +2018,19 @@
         <v>35</v>
       </c>
       <c r="J3" s="5">
-        <f>'Resistance List'!R7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="5">
         <f>'Resistance List'!S7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="5">
+        <f>'Resistance List'!T7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="5">
-        <f>'Resistance List'!T7</f>
+        <f>'Resistance List'!U7</f>
         <v>50</v>
       </c>
       <c r="M3" s="5">
-        <f>'Resistance List'!U7</f>
+        <f>'Resistance List'!V7</f>
         <v>35</v>
       </c>
       <c r="N3" s="4"/>
@@ -2081,19 +2084,19 @@
         <v>20</v>
       </c>
       <c r="J4" s="5">
-        <f>'Resistance List'!R10</f>
+        <f>'Resistance List'!S10</f>
         <v>50</v>
       </c>
       <c r="K4" s="5">
-        <f>'Resistance List'!S10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="5">
         <f>'Resistance List'!T10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="5">
+        <f>'Resistance List'!U10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="5">
-        <f>'Resistance List'!U10</f>
+        <f>'Resistance List'!V10</f>
         <v>25</v>
       </c>
       <c r="N4" s="4"/>
@@ -2147,19 +2150,19 @@
         <v>35</v>
       </c>
       <c r="J5" s="5">
-        <f>'Resistance List'!R13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="5">
         <f>'Resistance List'!S13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
         <f>'Resistance List'!T13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="5">
+        <f>'Resistance List'!U13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="5">
-        <f>'Resistance List'!U13</f>
+        <f>'Resistance List'!V13</f>
         <v>35</v>
       </c>
       <c r="N5" s="4"/>
@@ -2213,19 +2216,19 @@
         <v>35</v>
       </c>
       <c r="J6" s="5">
-        <f>'Resistance List'!R16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="5">
         <f>'Resistance List'!S16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
         <f>'Resistance List'!T16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="5">
+        <f>'Resistance List'!U16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="5">
-        <f>'Resistance List'!U16</f>
+        <f>'Resistance List'!V16</f>
         <v>30</v>
       </c>
       <c r="N6" s="4"/>
@@ -2279,19 +2282,19 @@
         <v>35</v>
       </c>
       <c r="J7" s="5">
-        <f>'Resistance List'!R19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="5">
         <f>'Resistance List'!S19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
         <f>'Resistance List'!T19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="5">
+        <f>'Resistance List'!U19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="5">
-        <f>'Resistance List'!U19</f>
+        <f>'Resistance List'!V19</f>
         <v>25</v>
       </c>
       <c r="N7" s="4"/>
@@ -2345,19 +2348,19 @@
         <v>35</v>
       </c>
       <c r="J8" s="5">
-        <f>'Resistance List'!R22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="5">
         <f>'Resistance List'!S22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <f>'Resistance List'!T22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="5">
+        <f>'Resistance List'!U22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="5">
-        <f>'Resistance List'!U22</f>
+        <f>'Resistance List'!V22</f>
         <v>50</v>
       </c>
       <c r="N8" s="4"/>
@@ -29909,13 +29912,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29932,12 +29935,12 @@
     <col min="14" max="14" width="25.88671875" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="17" width="30.109375" customWidth="1"/>
-    <col min="18" max="18" width="15.88671875" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
     <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
@@ -29988,19 +29991,22 @@
         <v>50</v>
       </c>
       <c r="R1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -30053,19 +30059,22 @@
         <v>30</v>
       </c>
       <c r="R2" s="8">
+        <v>30</v>
+      </c>
+      <c r="S2" s="8">
         <v>40</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>55</v>
-      </c>
-      <c r="T2" s="8">
-        <v>40</v>
       </c>
       <c r="U2" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
@@ -30118,24 +30127,27 @@
         <v>20</v>
       </c>
       <c r="R3" s="8">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8">
         <v>30</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>45</v>
-      </c>
-      <c r="T3" s="8">
-        <v>30</v>
       </c>
       <c r="U3" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11">
-        <f t="shared" ref="B4:U4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:V4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="11">
@@ -30199,23 +30211,27 @@
         <v>25</v>
       </c>
       <c r="R4" s="11">
+        <f t="shared" ref="R4" si="1">(R2+R3)/2</f>
+        <v>25</v>
+      </c>
+      <c r="S4" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="S4" s="11">
+      <c r="T4" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
-      </c>
-      <c r="T4" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
       <c r="U4" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -30274,13 +30290,16 @@
         <v>40</v>
       </c>
       <c r="T5" s="8">
+        <v>40</v>
+      </c>
+      <c r="U5" s="8">
         <v>55</v>
       </c>
-      <c r="U5" s="8">
+      <c r="V5" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
@@ -30339,98 +30358,104 @@
         <v>30</v>
       </c>
       <c r="T6" s="8">
+        <v>30</v>
+      </c>
+      <c r="U6" s="8">
         <v>45</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
-        <f t="shared" ref="B7:U7" si="1">(B5+B6)/2</f>
+        <f t="shared" ref="B7:V7" si="2">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="P7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S7" s="14">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="S7" s="14">
-        <f t="shared" si="1"/>
+      <c r="T7" s="14">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="T7" s="14">
-        <f t="shared" si="1"/>
+      <c r="U7" s="14">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="U7" s="14">
-        <f t="shared" si="1"/>
+      <c r="V7" s="14">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -30483,19 +30508,22 @@
         <v>25</v>
       </c>
       <c r="R8" s="8">
+        <v>25</v>
+      </c>
+      <c r="S8" s="8">
         <v>55</v>
-      </c>
-      <c r="S8" s="8">
-        <v>40</v>
       </c>
       <c r="T8" s="8">
         <v>40</v>
       </c>
       <c r="U8" s="8">
+        <v>40</v>
+      </c>
+      <c r="V8" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
@@ -30548,104 +30576,111 @@
         <v>15</v>
       </c>
       <c r="R9" s="8">
+        <v>15</v>
+      </c>
+      <c r="S9" s="8">
         <v>45</v>
-      </c>
-      <c r="S9" s="8">
-        <v>30</v>
       </c>
       <c r="T9" s="8">
         <v>30</v>
       </c>
       <c r="U9" s="8">
+        <v>30</v>
+      </c>
+      <c r="V9" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="14">
-        <f t="shared" ref="B10:U10" si="2">(B8+B9)/2</f>
+        <f t="shared" ref="B10:V10" si="3">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="R10" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="R10" si="4">(R8+R9)/2</f>
+        <v>20</v>
+      </c>
+      <c r="S10" s="14">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="S10" s="14">
-        <f t="shared" si="2"/>
+      <c r="T10" s="14">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="T10" s="14">
-        <f t="shared" si="2"/>
+      <c r="U10" s="14">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="U10" s="14">
-        <f t="shared" si="2"/>
+      <c r="V10" s="14">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -30709,8 +30744,11 @@
       <c r="U11" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V11" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -30774,93 +30812,99 @@
       <c r="U12" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:U13" si="3">(B11+B12)/2</f>
+        <f t="shared" ref="B13:V13" si="5">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="Q13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="R13" s="14">
-        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="S13" s="14">
-        <f t="shared" si="3"/>
+      <c r="T13" s="14">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="T13" s="14">
-        <f t="shared" si="3"/>
+      <c r="U13" s="14">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="U13" s="14">
-        <f t="shared" si="3"/>
+      <c r="V13" s="14">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -30913,7 +30957,7 @@
         <v>40</v>
       </c>
       <c r="R14" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S14" s="8">
         <v>35</v>
@@ -30924,8 +30968,11 @@
       <c r="U14" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V14" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -30978,7 +31025,7 @@
         <v>30</v>
       </c>
       <c r="R15" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S15" s="8">
         <v>25</v>
@@ -30989,93 +31036,99 @@
       <c r="U15" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V15" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="14">
-        <f t="shared" ref="B16:U16" si="4">(B14+B15)/2</f>
+        <f t="shared" ref="B16:V16" si="6">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="H16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="O16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="Q16" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="S16" s="14">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="S16" s="14">
-        <f t="shared" si="4"/>
+      <c r="T16" s="14">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="T16" s="14">
-        <f t="shared" si="4"/>
+      <c r="U16" s="14">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="U16" s="14">
-        <f t="shared" si="4"/>
+      <c r="V16" s="14">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
@@ -31128,7 +31181,7 @@
         <v>40</v>
       </c>
       <c r="R17" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S17" s="8">
         <v>30</v>
@@ -31139,8 +31192,11 @@
       <c r="U17" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V17" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
@@ -31193,7 +31249,7 @@
         <v>30</v>
       </c>
       <c r="R18" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S18" s="8">
         <v>20</v>
@@ -31204,93 +31260,99 @@
       <c r="U18" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="V18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="14">
-        <f t="shared" ref="B19:U19" si="5">(B17+B18)/2</f>
+        <f t="shared" ref="B19:V19" si="7">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="K19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="O19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="P19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="Q19" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="S19" s="14">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="S19" s="14">
-        <f t="shared" si="5"/>
+      <c r="T19" s="14">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="T19" s="14">
-        <f t="shared" si="5"/>
+      <c r="U19" s="14">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="U19" s="14">
-        <f t="shared" si="5"/>
+      <c r="V19" s="14">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -31343,7 +31405,7 @@
         <v>40</v>
       </c>
       <c r="R20" s="8">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S20" s="8">
         <v>30</v>
@@ -31352,10 +31414,13 @@
         <v>30</v>
       </c>
       <c r="U20" s="8">
+        <v>30</v>
+      </c>
+      <c r="V20" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -31408,7 +31473,7 @@
         <v>30</v>
       </c>
       <c r="R21" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S21" s="8">
         <v>20</v>
@@ -31417,95 +31482,101 @@
         <v>20</v>
       </c>
       <c r="U21" s="8">
+        <v>20</v>
+      </c>
+      <c r="V21" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="14">
-        <f t="shared" ref="B22:U22" si="6">(B20+B21)/2</f>
+        <f t="shared" ref="B22:V22" si="8">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="L22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="O22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="Q22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="T22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="V22" s="14">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -31524,174 +31595,183 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:U24" si="7">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:V24" si="9">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>216</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>256</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>240</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>220</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R24" si="10">R4+R7+R10+R13+R16+R19+R22</f>
+        <v>220</v>
+      </c>
+      <c r="S24" s="8">
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
-      <c r="S24" s="8">
-        <f t="shared" si="7"/>
+      <c r="T24" s="8">
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
-      <c r="T24" s="8">
-        <f t="shared" si="7"/>
+      <c r="U24" s="8">
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
-      <c r="U24" s="8">
-        <f t="shared" si="7"/>
+      <c r="V24" s="8">
+        <f t="shared" si="9"/>
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" ref="B25:U25" si="8">B24/7</f>
+        <f t="shared" ref="B25:V25" si="11">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28.571428571428573</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28.571428571428573</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>30.857142857142858</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24.285714285714285</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>33.571428571428569</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.571428571428569</v>
       </c>
       <c r="I25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.571428571428569</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.571428571428569</v>
       </c>
       <c r="K25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.571428571428569</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>36.571428571428569</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
       <c r="N25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>34.285714285714285</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>31.428571428571427</v>
       </c>
       <c r="R25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="R25" si="12">R24/7</f>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="11"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="S25" s="17">
-        <f t="shared" si="8"/>
+      <c r="T25" s="17">
+        <f t="shared" si="11"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="T25" s="17">
-        <f t="shared" si="8"/>
+      <c r="U25" s="17">
+        <f t="shared" si="11"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="U25" s="17">
-        <f t="shared" si="8"/>
+      <c r="V25" s="17">
+        <f t="shared" si="11"/>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5CC1E6-A301-4820-A31F-0CE028F634EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C821C-7542-4AAC-AF03-0C9BE15F5601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,22 +1065,22 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="I3" s="5">
         <f>'Resistance List'!Q7</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J3" s="5">
         <f>'Resistance List'!S7</f>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="I5" s="5">
         <f>'Resistance List'!Q13</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J5" s="5">
         <f>'Resistance List'!S13</f>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I6" s="5">
         <f>'Resistance List'!Q16</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J6" s="5">
         <f>'Resistance List'!S16</f>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="I7" s="5">
         <f>'Resistance List'!Q19</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J7" s="5">
         <f>'Resistance List'!S19</f>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="I8" s="5">
         <f>'Resistance List'!Q22</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J8" s="5">
         <f>'Resistance List'!S22</f>
@@ -29918,7 +29918,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11:R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30281,10 +30281,10 @@
         <v>25</v>
       </c>
       <c r="Q5" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R5" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S5" s="8">
         <v>40</v>
@@ -30349,10 +30349,10 @@
         <v>15</v>
       </c>
       <c r="Q6" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R6" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S6" s="8">
         <v>30</v>
@@ -30433,9 +30433,10 @@
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R7" s="14">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="S7" s="14">
@@ -30730,10 +30731,10 @@
         <v>50</v>
       </c>
       <c r="Q11" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R11" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S11" s="8">
         <v>40</v>
@@ -30798,10 +30799,10 @@
         <v>40</v>
       </c>
       <c r="Q12" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R12" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S12" s="8">
         <v>30</v>
@@ -30882,9 +30883,10 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R13" s="14">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="S13" s="14">
@@ -30954,10 +30956,10 @@
         <v>40</v>
       </c>
       <c r="Q14" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="R14" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S14" s="8">
         <v>35</v>
@@ -31022,10 +31024,10 @@
         <v>30</v>
       </c>
       <c r="Q15" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R15" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S15" s="8">
         <v>25</v>
@@ -31106,9 +31108,10 @@
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R16" s="14">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="S16" s="14">
@@ -31178,10 +31181,10 @@
         <v>45</v>
       </c>
       <c r="Q17" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R17" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S17" s="8">
         <v>30</v>
@@ -31246,10 +31249,10 @@
         <v>35</v>
       </c>
       <c r="Q18" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R18" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S18" s="8">
         <v>20</v>
@@ -31330,9 +31333,10 @@
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R19" s="14">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="S19" s="14">
@@ -31402,10 +31406,10 @@
         <v>35</v>
       </c>
       <c r="Q20" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R20" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S20" s="8">
         <v>30</v>
@@ -31470,10 +31474,10 @@
         <v>25</v>
       </c>
       <c r="Q21" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R21" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S21" s="8">
         <v>20</v>
@@ -31554,9 +31558,10 @@
       </c>
       <c r="Q22" s="14">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R22" s="14">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="S22" s="14">

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C821C-7542-4AAC-AF03-0C9BE15F5601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B0A1B-A0D2-4F64-AF37-B5BC5B435061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Warrior</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Death Knight_Plague</t>
+  </si>
+  <si>
+    <t>Death Knight_Blood</t>
   </si>
 </sst>
 </file>
@@ -1068,10 +1071,10 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40</c:v>
@@ -1952,19 +1955,19 @@
         <v>25</v>
       </c>
       <c r="J2" s="5">
-        <f>'Resistance List'!S4</f>
+        <f>'Resistance List'!T4</f>
         <v>35</v>
       </c>
       <c r="K2" s="5">
-        <f>'Resistance List'!T4</f>
+        <f>'Resistance List'!U4</f>
         <v>50</v>
       </c>
       <c r="L2" s="5">
-        <f>'Resistance List'!U4</f>
+        <f>'Resistance List'!V4</f>
         <v>35</v>
       </c>
       <c r="M2" s="5">
-        <f>'Resistance List'!V4</f>
+        <f>'Resistance List'!W4</f>
         <v>35</v>
       </c>
       <c r="N2" s="4"/>
@@ -2018,19 +2021,19 @@
         <v>40</v>
       </c>
       <c r="J3" s="5">
-        <f>'Resistance List'!S7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="5">
         <f>'Resistance List'!T7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="5">
+        <f>'Resistance List'!U7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="5">
-        <f>'Resistance List'!U7</f>
+        <f>'Resistance List'!V7</f>
         <v>50</v>
       </c>
       <c r="M3" s="5">
-        <f>'Resistance List'!V7</f>
+        <f>'Resistance List'!W7</f>
         <v>35</v>
       </c>
       <c r="N3" s="4"/>
@@ -2081,22 +2084,22 @@
       </c>
       <c r="I4" s="5">
         <f>'Resistance List'!Q10</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J4" s="5">
-        <f>'Resistance List'!S10</f>
+        <f>'Resistance List'!T10</f>
         <v>50</v>
       </c>
       <c r="K4" s="5">
-        <f>'Resistance List'!T10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="5">
         <f>'Resistance List'!U10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="5">
+        <f>'Resistance List'!V10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="5">
-        <f>'Resistance List'!V10</f>
+        <f>'Resistance List'!W10</f>
         <v>25</v>
       </c>
       <c r="N4" s="4"/>
@@ -2147,22 +2150,22 @@
       </c>
       <c r="I5" s="5">
         <f>'Resistance List'!Q13</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J5" s="5">
-        <f>'Resistance List'!S13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="5">
         <f>'Resistance List'!T13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="5">
+      <c r="K5" s="5">
         <f>'Resistance List'!U13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="5">
+        <f>'Resistance List'!V13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="5">
-        <f>'Resistance List'!V13</f>
+        <f>'Resistance List'!W13</f>
         <v>35</v>
       </c>
       <c r="N5" s="4"/>
@@ -2216,19 +2219,19 @@
         <v>40</v>
       </c>
       <c r="J6" s="5">
-        <f>'Resistance List'!S16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="5">
         <f>'Resistance List'!T16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="5">
+      <c r="K6" s="5">
         <f>'Resistance List'!U16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="5">
+        <f>'Resistance List'!V16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="5">
-        <f>'Resistance List'!V16</f>
+        <f>'Resistance List'!W16</f>
         <v>30</v>
       </c>
       <c r="N6" s="4"/>
@@ -2282,19 +2285,19 @@
         <v>30</v>
       </c>
       <c r="J7" s="5">
-        <f>'Resistance List'!S19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="5">
         <f>'Resistance List'!T19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="5">
+      <c r="K7" s="5">
         <f>'Resistance List'!U19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="5">
+        <f>'Resistance List'!V19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="5">
-        <f>'Resistance List'!V19</f>
+        <f>'Resistance List'!W19</f>
         <v>25</v>
       </c>
       <c r="N7" s="4"/>
@@ -2348,19 +2351,19 @@
         <v>25</v>
       </c>
       <c r="J8" s="5">
-        <f>'Resistance List'!S22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="5">
         <f>'Resistance List'!T22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="5">
+      <c r="K8" s="5">
         <f>'Resistance List'!U22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="5">
+        <f>'Resistance List'!V22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="5">
-        <f>'Resistance List'!V22</f>
+        <f>'Resistance List'!W22</f>
         <v>50</v>
       </c>
       <c r="N8" s="4"/>
@@ -29912,13 +29915,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11:R16"/>
+      <selection pane="bottomRight" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29935,12 +29938,11 @@
     <col min="14" max="14" width="25.88671875" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="17" width="30.109375" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="18" max="19" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>19</v>
@@ -29994,19 +29996,22 @@
         <v>51</v>
       </c>
       <c r="S1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
@@ -30059,22 +30064,25 @@
         <v>30</v>
       </c>
       <c r="R2" s="8">
+        <v>35</v>
+      </c>
+      <c r="S2" s="8">
         <v>30</v>
       </c>
-      <c r="S2" s="8">
+      <c r="T2" s="8">
         <v>40</v>
       </c>
-      <c r="T2" s="8">
+      <c r="U2" s="8">
         <v>55</v>
-      </c>
-      <c r="U2" s="8">
-        <v>40</v>
       </c>
       <c r="V2" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
@@ -30127,27 +30135,30 @@
         <v>20</v>
       </c>
       <c r="R3" s="8">
+        <v>25</v>
+      </c>
+      <c r="S3" s="8">
         <v>20</v>
       </c>
-      <c r="S3" s="8">
+      <c r="T3" s="8">
         <v>30</v>
       </c>
-      <c r="T3" s="8">
+      <c r="U3" s="8">
         <v>45</v>
-      </c>
-      <c r="U3" s="8">
-        <v>30</v>
       </c>
       <c r="V3" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W3" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="11">
-        <f t="shared" ref="B4:V4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:W4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="11">
@@ -30211,27 +30222,31 @@
         <v>25</v>
       </c>
       <c r="R4" s="11">
-        <f t="shared" ref="R4" si="1">(R2+R3)/2</f>
+        <f t="shared" ref="R4:S4" si="1">(R2+R3)/2</f>
+        <v>30</v>
+      </c>
+      <c r="S4" s="11">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="S4" s="11">
+      <c r="T4" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="T4" s="11">
+      <c r="U4" s="11">
         <f t="shared" si="0"/>
         <v>50</v>
-      </c>
-      <c r="U4" s="11">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
       <c r="V4" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="11">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -30287,19 +30302,22 @@
         <v>35</v>
       </c>
       <c r="S5" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T5" s="8">
         <v>40</v>
       </c>
       <c r="U5" s="8">
+        <v>40</v>
+      </c>
+      <c r="V5" s="8">
         <v>55</v>
       </c>
-      <c r="V5" s="8">
+      <c r="W5" s="8">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
@@ -30355,24 +30373,27 @@
         <v>25</v>
       </c>
       <c r="S6" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T6" s="8">
         <v>30</v>
       </c>
       <c r="U6" s="8">
+        <v>30</v>
+      </c>
+      <c r="V6" s="8">
         <v>45</v>
       </c>
-      <c r="V6" s="8">
+      <c r="W6" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14">
-        <f t="shared" ref="B7:V7" si="2">(B5+B6)/2</f>
+        <f t="shared" ref="B7:W7" si="2">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="14">
@@ -30440,8 +30461,8 @@
         <v>30</v>
       </c>
       <c r="S7" s="14">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" ref="S7" si="3">(S5+S6)/2</f>
+        <v>30</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="2"/>
@@ -30449,14 +30470,18 @@
       </c>
       <c r="U7" s="14">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="W7" s="14">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -30506,25 +30531,28 @@
         <v>30</v>
       </c>
       <c r="Q8" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R8" s="8">
         <v>25</v>
       </c>
       <c r="S8" s="8">
+        <v>35</v>
+      </c>
+      <c r="T8" s="8">
         <v>55</v>
-      </c>
-      <c r="T8" s="8">
-        <v>40</v>
       </c>
       <c r="U8" s="8">
         <v>40</v>
       </c>
       <c r="V8" s="8">
+        <v>40</v>
+      </c>
+      <c r="W8" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
@@ -30574,114 +30602,121 @@
         <v>20</v>
       </c>
       <c r="Q9" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="R9" s="8">
         <v>15</v>
       </c>
       <c r="S9" s="8">
+        <v>25</v>
+      </c>
+      <c r="T9" s="8">
         <v>45</v>
-      </c>
-      <c r="T9" s="8">
-        <v>30</v>
       </c>
       <c r="U9" s="8">
         <v>30</v>
       </c>
       <c r="V9" s="8">
+        <v>30</v>
+      </c>
+      <c r="W9" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="14">
-        <f t="shared" ref="B10:V10" si="3">(B8+B9)/2</f>
+        <f t="shared" ref="B10:W10" si="4">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="N10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="O10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="P10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="Q10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="R10" s="14">
+        <f t="shared" ref="R10:S10" si="5">(R8+R9)/2</f>
         <v>20</v>
       </c>
-      <c r="R10" s="14">
-        <f t="shared" ref="R10" si="4">(R8+R9)/2</f>
-        <v>20</v>
-      </c>
       <c r="S10" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="T10" s="14">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="T10" s="14">
-        <f t="shared" si="3"/>
+      <c r="U10" s="14">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="U10" s="14">
-        <f t="shared" si="3"/>
+      <c r="V10" s="14">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="V10" s="14">
-        <f t="shared" si="3"/>
+      <c r="W10" s="14">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -30731,13 +30766,13 @@
         <v>50</v>
       </c>
       <c r="Q11" s="8">
+        <v>40</v>
+      </c>
+      <c r="R11" s="8">
+        <v>40</v>
+      </c>
+      <c r="S11" s="8">
         <v>45</v>
-      </c>
-      <c r="R11" s="8">
-        <v>45</v>
-      </c>
-      <c r="S11" s="8">
-        <v>40</v>
       </c>
       <c r="T11" s="8">
         <v>40</v>
@@ -30748,8 +30783,11 @@
       <c r="V11" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W11" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
@@ -30799,13 +30837,13 @@
         <v>40</v>
       </c>
       <c r="Q12" s="8">
+        <v>30</v>
+      </c>
+      <c r="R12" s="8">
+        <v>30</v>
+      </c>
+      <c r="S12" s="8">
         <v>35</v>
-      </c>
-      <c r="R12" s="8">
-        <v>35</v>
-      </c>
-      <c r="S12" s="8">
-        <v>30</v>
       </c>
       <c r="T12" s="8">
         <v>30</v>
@@ -30816,97 +30854,104 @@
       <c r="V12" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W12" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14">
-        <f t="shared" ref="B13:V13" si="5">(B11+B12)/2</f>
+        <f t="shared" ref="B13:W13" si="6">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="D13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="N13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="O13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="P13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="Q13" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="R13" s="14">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="S13" s="14">
+        <f t="shared" ref="S13" si="7">(S11+S12)/2</f>
         <v>40</v>
       </c>
-      <c r="R13" s="14">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="S13" s="14">
-        <f t="shared" si="5"/>
+      <c r="T13" s="14">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="T13" s="14">
-        <f t="shared" si="5"/>
+      <c r="U13" s="14">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U13" s="14">
-        <f t="shared" si="5"/>
+      <c r="V13" s="14">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="V13" s="14">
-        <f t="shared" si="5"/>
+      <c r="W13" s="14">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
@@ -30962,7 +31007,7 @@
         <v>45</v>
       </c>
       <c r="S14" s="8">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="T14" s="8">
         <v>35</v>
@@ -30973,8 +31018,11 @@
       <c r="V14" s="8">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W14" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -31030,7 +31078,7 @@
         <v>35</v>
       </c>
       <c r="S15" s="8">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="T15" s="8">
         <v>25</v>
@@ -31041,97 +31089,104 @@
       <c r="V15" s="8">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W15" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="14">
-        <f t="shared" ref="B16:V16" si="6">(B14+B15)/2</f>
+        <f t="shared" ref="B16:W16" si="8">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="N16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="O16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="P16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="Q16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="R16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="S16" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="S16" si="9">(S14+S15)/2</f>
+        <v>40</v>
+      </c>
+      <c r="T16" s="14">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T16" s="14">
-        <f t="shared" si="6"/>
+      <c r="U16" s="14">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="U16" s="14">
-        <f t="shared" si="6"/>
+      <c r="V16" s="14">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="V16" s="14">
-        <f t="shared" si="6"/>
+      <c r="W16" s="14">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>44</v>
       </c>
@@ -31187,7 +31242,7 @@
         <v>45</v>
       </c>
       <c r="S17" s="8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="T17" s="8">
         <v>30</v>
@@ -31198,8 +31253,11 @@
       <c r="V17" s="8">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W17" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>45</v>
       </c>
@@ -31255,7 +31313,7 @@
         <v>35</v>
       </c>
       <c r="S18" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T18" s="8">
         <v>20</v>
@@ -31266,97 +31324,104 @@
       <c r="V18" s="8">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="W18" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="14">
-        <f t="shared" ref="B19:V19" si="7">(B17+B18)/2</f>
+        <f t="shared" ref="B19:W19" si="10">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="K19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="O19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="P19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="Q19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="R19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="S19" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="S19" si="11">(S17+S18)/2</f>
+        <v>30</v>
+      </c>
+      <c r="T19" s="14">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="T19" s="14">
-        <f t="shared" si="7"/>
+      <c r="U19" s="14">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="U19" s="14">
-        <f t="shared" si="7"/>
+      <c r="V19" s="14">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="V19" s="14">
-        <f t="shared" si="7"/>
+      <c r="W19" s="14">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -31421,10 +31486,13 @@
         <v>30</v>
       </c>
       <c r="V20" s="8">
+        <v>30</v>
+      </c>
+      <c r="W20" s="8">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>47</v>
       </c>
@@ -31489,99 +31557,106 @@
         <v>20</v>
       </c>
       <c r="V21" s="8">
+        <v>20</v>
+      </c>
+      <c r="W21" s="8">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="14">
-        <f t="shared" ref="B22:V22" si="8">(B20+B21)/2</f>
+        <f t="shared" ref="B22:W22" si="12">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="D22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="L22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="M22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="N22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="O22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="P22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Q22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="R22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="S22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="S22" si="13">(S20+S21)/2</f>
         <v>25</v>
       </c>
       <c r="T22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="U22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="V22" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -31601,182 +31676,191 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-    </row>
-    <row r="24" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="8">
-        <f t="shared" ref="B24:V24" si="9">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:W24" si="14">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>216</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>170</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>220</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" ref="R24" si="10">R4+R7+R10+R13+R16+R19+R22</f>
+        <f t="shared" ref="R24:S24" si="15">R4+R7+R10+R13+R16+R19+R22</f>
         <v>220</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
+        <v>220</v>
+      </c>
+      <c r="T24" s="8">
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="T24" s="8">
-        <f t="shared" si="9"/>
+      <c r="U24" s="8">
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="U24" s="8">
-        <f t="shared" si="9"/>
+      <c r="V24" s="8">
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
-      <c r="V24" s="8">
-        <f t="shared" si="9"/>
+      <c r="W24" s="8">
+        <f t="shared" si="14"/>
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="16">
-        <f t="shared" ref="B25:V25" si="11">B24/7</f>
+        <f t="shared" ref="B25:W25" si="16">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>28.571428571428573</v>
       </c>
       <c r="D25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>28.571428571428573</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>30.857142857142858</v>
       </c>
       <c r="F25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>24.285714285714285</v>
       </c>
       <c r="G25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.571428571428569</v>
       </c>
       <c r="I25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.571428571428569</v>
       </c>
       <c r="J25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.571428571428569</v>
       </c>
       <c r="K25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.571428571428569</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>36.571428571428569</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>34.285714285714285</v>
       </c>
       <c r="N25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>34.285714285714285</v>
       </c>
       <c r="O25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>34.285714285714285</v>
       </c>
       <c r="Q25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>31.428571428571427</v>
       </c>
       <c r="R25" s="17">
-        <f t="shared" ref="R25" si="12">R24/7</f>
+        <f t="shared" ref="R25:S25" si="17">R24/7</f>
         <v>31.428571428571427</v>
       </c>
       <c r="S25" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="T25" s="17">
-        <f t="shared" si="11"/>
+      <c r="U25" s="17">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="U25" s="17">
-        <f t="shared" si="11"/>
+      <c r="V25" s="17">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="V25" s="17">
-        <f t="shared" si="11"/>
+      <c r="W25" s="17">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Warrior</t>
   </si>
@@ -80,10 +80,13 @@
     <t>Warrior_Void_Rambler</t>
   </si>
   <si>
-    <t>Paladin_Comprehensiveness</t>
+    <t>Paladin_Retribution</t>
   </si>
   <si>
     <t>Paladin_Protection</t>
+  </si>
+  <si>
+    <t>Paladin_Holy</t>
   </si>
   <si>
     <t>Rogue_Comprehensiveness</t>
@@ -183,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -202,12 +205,12 @@
     <font>
       <sz val="11"/>
       <color indexed="11"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Roboto"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -217,11 +220,6 @@
     <font>
       <sz val="18"/>
       <color indexed="24"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -496,34 +494,34 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -532,40 +530,40 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -4926,43 +4924,43 @@
         <v>32</v>
       </c>
       <c r="D2" s="10">
-        <f>'Resistance List'!G4</f>
+        <f>'Resistance List'!H4</f>
         <v>20</v>
       </c>
       <c r="E2" s="10">
-        <f>'Resistance List'!H4</f>
+        <f>'Resistance List'!I4</f>
         <v>40</v>
       </c>
       <c r="F2" s="10">
-        <f>'Resistance List'!I4</f>
+        <f>'Resistance List'!J4</f>
         <v>37</v>
       </c>
       <c r="G2" s="10">
-        <f>'Resistance List'!N4</f>
+        <f>'Resistance List'!O4</f>
         <v>30</v>
       </c>
       <c r="H2" s="10">
-        <f>'Resistance List'!O4</f>
+        <f>'Resistance List'!P4</f>
         <v>45</v>
       </c>
       <c r="I2" s="10">
-        <f>'Resistance List'!R4</f>
+        <f>'Resistance List'!S4</f>
         <v>25</v>
       </c>
       <c r="J2" s="10">
-        <f>'Resistance List'!U4</f>
+        <f>'Resistance List'!V4</f>
         <v>35</v>
       </c>
       <c r="K2" s="10">
-        <f>'Resistance List'!V4</f>
+        <f>'Resistance List'!W4</f>
         <v>50</v>
       </c>
       <c r="L2" s="10">
-        <f>'Resistance List'!W4</f>
+        <f>'Resistance List'!X4</f>
         <v>35</v>
       </c>
       <c r="M2" s="10">
-        <f>'Resistance List'!X4</f>
+        <f>'Resistance List'!Y4</f>
         <v>35</v>
       </c>
       <c r="N2" s="11"/>
@@ -4992,43 +4990,43 @@
         <v>32</v>
       </c>
       <c r="D3" s="10">
-        <f>'Resistance List'!G7</f>
+        <f>'Resistance List'!H7</f>
         <v>20</v>
       </c>
       <c r="E3" s="10">
-        <f>'Resistance List'!H7</f>
+        <f>'Resistance List'!I7</f>
         <v>40</v>
       </c>
       <c r="F3" s="10">
-        <f>'Resistance List'!I7</f>
+        <f>'Resistance List'!J7</f>
         <v>37</v>
       </c>
       <c r="G3" s="10">
-        <f>'Resistance List'!N7</f>
+        <f>'Resistance List'!O7</f>
         <v>30</v>
       </c>
       <c r="H3" s="10">
-        <f>'Resistance List'!O7</f>
+        <f>'Resistance List'!P7</f>
         <v>20</v>
       </c>
       <c r="I3" s="10">
-        <f>'Resistance List'!R7</f>
+        <f>'Resistance List'!S7</f>
         <v>40</v>
       </c>
       <c r="J3" s="10">
-        <f>'Resistance List'!U7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="10">
         <f>'Resistance List'!V7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="10">
+        <f>'Resistance List'!W7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="10">
-        <f>'Resistance List'!W7</f>
+        <f>'Resistance List'!X7</f>
         <v>50</v>
       </c>
       <c r="M3" s="10">
-        <f>'Resistance List'!X7</f>
+        <f>'Resistance List'!Y7</f>
         <v>35</v>
       </c>
       <c r="N3" s="11"/>
@@ -5058,43 +5056,43 @@
         <v>32</v>
       </c>
       <c r="D4" s="10">
-        <f>'Resistance List'!G10</f>
+        <f>'Resistance List'!H10</f>
         <v>20</v>
       </c>
       <c r="E4" s="10">
-        <f>'Resistance List'!H10</f>
+        <f>'Resistance List'!I10</f>
         <v>40</v>
       </c>
       <c r="F4" s="10">
-        <f>'Resistance List'!I10</f>
+        <f>'Resistance List'!J10</f>
         <v>37</v>
       </c>
       <c r="G4" s="10">
-        <f>'Resistance List'!N10</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="10">
         <f>'Resistance List'!O10</f>
         <v>25</v>
       </c>
+      <c r="H4" s="10">
+        <f>'Resistance List'!P10</f>
+        <v>25</v>
+      </c>
       <c r="I4" s="10">
-        <f>'Resistance List'!R10</f>
+        <f>'Resistance List'!S10</f>
         <v>25</v>
       </c>
       <c r="J4" s="10">
-        <f>'Resistance List'!U10</f>
+        <f>'Resistance List'!V10</f>
         <v>50</v>
       </c>
       <c r="K4" s="10">
-        <f>'Resistance List'!V10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="10">
         <f>'Resistance List'!W10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="10">
+        <f>'Resistance List'!X10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="10">
-        <f>'Resistance List'!X10</f>
+        <f>'Resistance List'!Y10</f>
         <v>25</v>
       </c>
       <c r="N4" s="11"/>
@@ -5124,43 +5122,43 @@
         <v>35</v>
       </c>
       <c r="D5" s="10">
-        <f>'Resistance List'!G13</f>
+        <f>'Resistance List'!H13</f>
         <v>20</v>
       </c>
       <c r="E5" s="10">
-        <f>'Resistance List'!H13</f>
+        <f>'Resistance List'!I13</f>
         <v>35</v>
       </c>
       <c r="F5" s="10">
-        <f>'Resistance List'!I13</f>
+        <f>'Resistance List'!J13</f>
         <v>45</v>
       </c>
       <c r="G5" s="10">
-        <f>'Resistance List'!N13</f>
+        <f>'Resistance List'!O13</f>
         <v>40</v>
       </c>
       <c r="H5" s="10">
-        <f>'Resistance List'!O13</f>
+        <f>'Resistance List'!P13</f>
         <v>45</v>
       </c>
       <c r="I5" s="10">
-        <f>'Resistance List'!R13</f>
+        <f>'Resistance List'!S13</f>
         <v>35</v>
       </c>
       <c r="J5" s="10">
-        <f>'Resistance List'!U13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="10">
         <f>'Resistance List'!V13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="10">
         <f>'Resistance List'!W13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="10">
+        <f>'Resistance List'!X13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="10">
-        <f>'Resistance List'!X13</f>
+        <f>'Resistance List'!Y13</f>
         <v>35</v>
       </c>
       <c r="N5" s="11"/>
@@ -5190,43 +5188,43 @@
         <v>35</v>
       </c>
       <c r="D6" s="10">
-        <f>'Resistance List'!G16</f>
+        <f>'Resistance List'!H16</f>
         <v>20</v>
       </c>
       <c r="E6" s="10">
-        <f>'Resistance List'!H16</f>
+        <f>'Resistance List'!I16</f>
         <v>30</v>
       </c>
       <c r="F6" s="10">
-        <f>'Resistance List'!I16</f>
+        <f>'Resistance List'!J16</f>
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <f>'Resistance List'!N16</f>
+        <f>'Resistance List'!O16</f>
         <v>50</v>
       </c>
       <c r="H6" s="10">
-        <f>'Resistance List'!O16</f>
+        <f>'Resistance List'!P16</f>
         <v>35</v>
       </c>
       <c r="I6" s="10">
-        <f>'Resistance List'!R16</f>
+        <f>'Resistance List'!S16</f>
         <v>40</v>
       </c>
       <c r="J6" s="10">
-        <f>'Resistance List'!U16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="10">
         <f>'Resistance List'!V16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="10">
         <f>'Resistance List'!W16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="10">
+        <f>'Resistance List'!X16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="10">
-        <f>'Resistance List'!X16</f>
+        <f>'Resistance List'!Y16</f>
         <v>30</v>
       </c>
       <c r="N6" s="11"/>
@@ -5256,43 +5254,43 @@
         <v>25</v>
       </c>
       <c r="D7" s="10">
-        <f>'Resistance List'!G19</f>
+        <f>'Resistance List'!H19</f>
         <v>45</v>
       </c>
       <c r="E7" s="10">
-        <f>'Resistance List'!H19</f>
-        <v>25</v>
-      </c>
-      <c r="F7" s="10">
         <f>'Resistance List'!I19</f>
         <v>25</v>
       </c>
+      <c r="F7" s="10">
+        <f>'Resistance List'!J19</f>
+        <v>25</v>
+      </c>
       <c r="G7" s="10">
-        <f>'Resistance List'!N19</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="10">
         <f>'Resistance List'!O19</f>
         <v>40</v>
       </c>
+      <c r="H7" s="10">
+        <f>'Resistance List'!P19</f>
+        <v>40</v>
+      </c>
       <c r="I7" s="10">
-        <f>'Resistance List'!R19</f>
+        <f>'Resistance List'!S19</f>
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <f>'Resistance List'!U19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="10">
         <f>'Resistance List'!V19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
         <f>'Resistance List'!W19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="10">
+        <f>'Resistance List'!X19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="10">
-        <f>'Resistance List'!X19</f>
+        <f>'Resistance List'!Y19</f>
         <v>25</v>
       </c>
       <c r="N7" s="11"/>
@@ -5322,43 +5320,43 @@
         <v>25</v>
       </c>
       <c r="D8" s="10">
-        <f>'Resistance List'!G22</f>
-        <v>25</v>
-      </c>
-      <c r="E8" s="10">
         <f>'Resistance List'!H22</f>
         <v>25</v>
       </c>
+      <c r="E8" s="10">
+        <f>'Resistance List'!I22</f>
+        <v>25</v>
+      </c>
       <c r="F8" s="10">
-        <f>'Resistance List'!I22</f>
+        <f>'Resistance List'!J22</f>
         <v>30</v>
       </c>
       <c r="G8" s="10">
-        <f>'Resistance List'!N22</f>
+        <f>'Resistance List'!O22</f>
         <v>25</v>
       </c>
       <c r="H8" s="10">
-        <f>'Resistance List'!O22</f>
+        <f>'Resistance List'!P22</f>
         <v>30</v>
       </c>
       <c r="I8" s="10">
-        <f>'Resistance List'!R22</f>
+        <f>'Resistance List'!S22</f>
         <v>25</v>
       </c>
       <c r="J8" s="10">
-        <f>'Resistance List'!U22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="10">
         <f>'Resistance List'!V22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
         <f>'Resistance List'!W22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="10">
+        <f>'Resistance List'!X22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="10">
-        <f>'Resistance List'!X22</f>
+        <f>'Resistance List'!Y22</f>
         <v>50</v>
       </c>
       <c r="N8" s="11"/>
@@ -32911,7 +32909,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -32922,17 +32920,17 @@
     <col min="3" max="3" width="16.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="19.8516" style="19" customWidth="1"/>
     <col min="5" max="5" width="29.1719" style="19" customWidth="1"/>
-    <col min="6" max="7" width="25.1719" style="19" customWidth="1"/>
-    <col min="8" max="8" width="23.3516" style="19" customWidth="1"/>
-    <col min="9" max="9" width="28.3516" style="19" customWidth="1"/>
-    <col min="10" max="14" width="32.8516" style="19" customWidth="1"/>
-    <col min="15" max="15" width="25.8516" style="19" customWidth="1"/>
-    <col min="16" max="16" width="17" style="19" customWidth="1"/>
-    <col min="17" max="18" width="30.1719" style="19" customWidth="1"/>
-    <col min="19" max="20" width="19.6719" style="19" customWidth="1"/>
-    <col min="21" max="21" width="14.1719" style="19" customWidth="1"/>
-    <col min="22" max="24" width="12.6719" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="12.6719" style="19" customWidth="1"/>
+    <col min="6" max="8" width="25.1719" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.3516" style="19" customWidth="1"/>
+    <col min="10" max="10" width="28.3516" style="19" customWidth="1"/>
+    <col min="11" max="15" width="32.8516" style="19" customWidth="1"/>
+    <col min="16" max="16" width="25.8516" style="19" customWidth="1"/>
+    <col min="17" max="17" width="17" style="19" customWidth="1"/>
+    <col min="18" max="19" width="30.1719" style="19" customWidth="1"/>
+    <col min="20" max="21" width="19.6719" style="19" customWidth="1"/>
+    <col min="22" max="22" width="14.1719" style="19" customWidth="1"/>
+    <col min="23" max="25" width="12.6719" style="19" customWidth="1"/>
+    <col min="26" max="16384" width="12.6719" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -32973,10 +32971,10 @@
       <c r="M1" t="s" s="20">
         <v>30</v>
       </c>
-      <c r="N1" t="s" s="21">
+      <c r="N1" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="O1" t="s" s="22">
+      <c r="O1" t="s" s="21">
         <v>32</v>
       </c>
       <c r="P1" t="s" s="22">
@@ -32995,21 +32993,24 @@
         <v>37</v>
       </c>
       <c r="U1" t="s" s="22">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="V1" t="s" s="22">
+      <c r="W1" t="s" s="22">
         <v>9</v>
       </c>
-      <c r="W1" t="s" s="22">
+      <c r="X1" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="X1" t="s" s="22">
+      <c r="Y1" t="s" s="22">
         <v>11</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" t="s" s="23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="24">
         <v>30</v>
@@ -33023,17 +33024,17 @@
       <c r="E2" s="25">
         <v>35</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>35</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="26">
+        <v>35</v>
+      </c>
+      <c r="H2" s="10">
         <v>25</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>45</v>
-      </c>
-      <c r="I2" s="27">
-        <v>40</v>
       </c>
       <c r="J2" s="27">
         <v>40</v>
@@ -33047,11 +33048,11 @@
       <c r="M2" s="27">
         <v>40</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="27">
+        <v>40</v>
+      </c>
+      <c r="O2" s="28">
         <v>35</v>
-      </c>
-      <c r="O2" s="29">
-        <v>50</v>
       </c>
       <c r="P2" s="29">
         <v>50</v>
@@ -33060,30 +33061,33 @@
         <v>50</v>
       </c>
       <c r="R2" s="29">
+        <v>50</v>
+      </c>
+      <c r="S2" s="29">
         <v>30</v>
       </c>
-      <c r="S2" s="29">
+      <c r="T2" s="29">
         <v>35</v>
       </c>
-      <c r="T2" s="29">
+      <c r="U2" s="29">
         <v>30</v>
       </c>
-      <c r="U2" s="29">
+      <c r="V2" s="29">
         <v>40</v>
       </c>
-      <c r="V2" s="29">
+      <c r="W2" s="29">
         <v>55</v>
-      </c>
-      <c r="W2" s="29">
-        <v>40</v>
       </c>
       <c r="X2" s="29">
         <v>40</v>
       </c>
+      <c r="Y2" s="29">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" t="s" s="30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="31">
         <v>20</v>
@@ -33097,17 +33101,17 @@
       <c r="E3" s="32">
         <v>29</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>29</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="33">
+        <v>29</v>
+      </c>
+      <c r="H3" s="10">
         <v>15</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>35</v>
-      </c>
-      <c r="I3" s="27">
-        <v>34</v>
       </c>
       <c r="J3" s="27">
         <v>34</v>
@@ -33121,11 +33125,11 @@
       <c r="M3" s="27">
         <v>34</v>
       </c>
-      <c r="N3" s="31">
+      <c r="N3" s="27">
+        <v>34</v>
+      </c>
+      <c r="O3" s="31">
         <v>25</v>
-      </c>
-      <c r="O3" s="32">
-        <v>40</v>
       </c>
       <c r="P3" s="32">
         <v>40</v>
@@ -33134,24 +33138,27 @@
         <v>40</v>
       </c>
       <c r="R3" s="32">
+        <v>40</v>
+      </c>
+      <c r="S3" s="32">
         <v>20</v>
       </c>
-      <c r="S3" s="32">
+      <c r="T3" s="32">
         <v>25</v>
       </c>
-      <c r="T3" s="32">
+      <c r="U3" s="32">
         <v>20</v>
       </c>
-      <c r="U3" s="32">
+      <c r="V3" s="32">
         <v>30</v>
       </c>
-      <c r="V3" s="32">
+      <c r="W3" s="32">
         <v>45</v>
       </c>
-      <c r="W3" s="32">
+      <c r="X3" s="32">
         <v>30</v>
       </c>
-      <c r="X3" s="32">
+      <c r="Y3" s="32">
         <v>30</v>
       </c>
     </row>
@@ -33181,15 +33188,15 @@
       </c>
       <c r="G4" s="34">
         <f>(G2+G3)/2</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H4" s="34">
         <f>(H2+H3)/2</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I4" s="34">
         <f>(I2+I3)/2</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J4" s="34">
         <f>(J2+J3)/2</f>
@@ -33209,11 +33216,11 @@
       </c>
       <c r="N4" s="34">
         <f>(N2+N3)/2</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O4" s="34">
         <f>(O2+O3)/2</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P4" s="34">
         <f>(P2+P3)/2</f>
@@ -33225,36 +33232,40 @@
       </c>
       <c r="R4" s="34">
         <f>(R2+R3)/2</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="S4" s="34">
         <f>(S2+S3)/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T4" s="34">
         <f>(T2+T3)/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U4" s="34">
         <f>(U2+U3)/2</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="V4" s="34">
         <f>(V2+V3)/2</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="W4" s="34">
         <f>(W2+W3)/2</f>
-        <v>35</v>
-      </c>
-      <c r="X4" s="35">
+        <v>50</v>
+      </c>
+      <c r="X4" s="34">
         <f>(X2+X3)/2</f>
         <v>35</v>
       </c>
+      <c r="Y4" s="35">
+        <f>(Y2+Y3)/2</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="24">
         <v>30</v>
@@ -33268,17 +33279,17 @@
       <c r="E5" s="25">
         <v>35</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>35</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="26">
+        <v>35</v>
+      </c>
+      <c r="H5" s="10">
         <v>25</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="10">
         <v>45</v>
-      </c>
-      <c r="I5" s="27">
-        <v>40</v>
       </c>
       <c r="J5" s="27">
         <v>40</v>
@@ -33292,11 +33303,11 @@
       <c r="M5" s="27">
         <v>40</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="27">
+        <v>40</v>
+      </c>
+      <c r="O5" s="24">
         <v>35</v>
-      </c>
-      <c r="O5" s="25">
-        <v>25</v>
       </c>
       <c r="P5" s="25">
         <v>25</v>
@@ -33305,30 +33316,33 @@
         <v>25</v>
       </c>
       <c r="R5" s="25">
+        <v>25</v>
+      </c>
+      <c r="S5" s="25">
         <v>45</v>
-      </c>
-      <c r="S5" s="25">
-        <v>35</v>
       </c>
       <c r="T5" s="25">
         <v>35</v>
       </c>
       <c r="U5" s="25">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V5" s="25">
         <v>40</v>
       </c>
       <c r="W5" s="25">
+        <v>40</v>
+      </c>
+      <c r="X5" s="25">
         <v>55</v>
       </c>
-      <c r="X5" s="25">
+      <c r="Y5" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="s" s="36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="32">
         <v>20</v>
@@ -33345,14 +33359,14 @@
       <c r="F6" s="32">
         <v>29</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="32">
+        <v>29</v>
+      </c>
+      <c r="H6" s="37">
         <v>15</v>
       </c>
-      <c r="H6" s="38">
+      <c r="I6" s="38">
         <v>35</v>
-      </c>
-      <c r="I6" s="27">
-        <v>34</v>
       </c>
       <c r="J6" s="27">
         <v>34</v>
@@ -33366,11 +33380,11 @@
       <c r="M6" s="27">
         <v>34</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="27">
+        <v>34</v>
+      </c>
+      <c r="O6" s="31">
         <v>25</v>
-      </c>
-      <c r="O6" s="32">
-        <v>15</v>
       </c>
       <c r="P6" s="32">
         <v>15</v>
@@ -33379,24 +33393,27 @@
         <v>15</v>
       </c>
       <c r="R6" s="32">
+        <v>15</v>
+      </c>
+      <c r="S6" s="32">
         <v>35</v>
-      </c>
-      <c r="S6" s="32">
-        <v>25</v>
       </c>
       <c r="T6" s="32">
         <v>25</v>
       </c>
       <c r="U6" s="32">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V6" s="32">
         <v>30</v>
       </c>
       <c r="W6" s="32">
+        <v>30</v>
+      </c>
+      <c r="X6" s="32">
         <v>45</v>
       </c>
-      <c r="X6" s="32">
+      <c r="Y6" s="32">
         <v>30</v>
       </c>
     </row>
@@ -33426,15 +33443,15 @@
       </c>
       <c r="G7" s="40">
         <f>(G5+G6)/2</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H7" s="40">
         <f>(H5+H6)/2</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I7" s="40">
         <f>(I5+I6)/2</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J7" s="40">
         <f>(J5+J6)/2</f>
@@ -33454,11 +33471,11 @@
       </c>
       <c r="N7" s="40">
         <f>(N5+N6)/2</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="O7" s="40">
         <f>(O5+O6)/2</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P7" s="40">
         <f>(P5+P6)/2</f>
@@ -33470,11 +33487,11 @@
       </c>
       <c r="R7" s="40">
         <f>(R5+R6)/2</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="S7" s="40">
         <f>(S5+S6)/2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="T7" s="40">
         <f>(T5+T6)/2</f>
@@ -33482,7 +33499,7 @@
       </c>
       <c r="U7" s="40">
         <f>(U5+U6)/2</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V7" s="40">
         <f>(V5+V6)/2</f>
@@ -33490,16 +33507,20 @@
       </c>
       <c r="W7" s="40">
         <f>(W5+W6)/2</f>
+        <v>35</v>
+      </c>
+      <c r="X7" s="40">
+        <f>(X5+X6)/2</f>
         <v>50</v>
       </c>
-      <c r="X7" s="41">
-        <f>(X5+X6)/2</f>
+      <c r="Y7" s="41">
+        <f>(Y5+Y6)/2</f>
         <v>35</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s" s="23">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="24">
         <v>30</v>
@@ -33517,13 +33538,13 @@
         <v>35</v>
       </c>
       <c r="G8" s="25">
+        <v>35</v>
+      </c>
+      <c r="H8" s="25">
         <v>25</v>
       </c>
-      <c r="H8" s="26">
+      <c r="I8" s="26">
         <v>45</v>
-      </c>
-      <c r="I8" s="27">
-        <v>40</v>
       </c>
       <c r="J8" s="27">
         <v>40</v>
@@ -33537,10 +33558,10 @@
       <c r="M8" s="27">
         <v>40</v>
       </c>
-      <c r="N8" s="24">
-        <v>30</v>
-      </c>
-      <c r="O8" s="25">
+      <c r="N8" s="27">
+        <v>40</v>
+      </c>
+      <c r="O8" s="24">
         <v>30</v>
       </c>
       <c r="P8" s="25">
@@ -33553,27 +33574,30 @@
         <v>30</v>
       </c>
       <c r="S8" s="25">
+        <v>30</v>
+      </c>
+      <c r="T8" s="25">
         <v>25</v>
       </c>
-      <c r="T8" s="25">
+      <c r="U8" s="25">
         <v>35</v>
       </c>
-      <c r="U8" s="25">
+      <c r="V8" s="25">
         <v>55</v>
-      </c>
-      <c r="V8" s="25">
-        <v>40</v>
       </c>
       <c r="W8" s="25">
         <v>40</v>
       </c>
       <c r="X8" s="25">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="25">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="s" s="30">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="31">
         <v>20</v>
@@ -33591,13 +33615,13 @@
         <v>29</v>
       </c>
       <c r="G9" s="32">
+        <v>29</v>
+      </c>
+      <c r="H9" s="32">
         <v>15</v>
       </c>
-      <c r="H9" s="33">
+      <c r="I9" s="33">
         <v>35</v>
-      </c>
-      <c r="I9" s="27">
-        <v>34</v>
       </c>
       <c r="J9" s="27">
         <v>34</v>
@@ -33611,10 +33635,10 @@
       <c r="M9" s="27">
         <v>34</v>
       </c>
-      <c r="N9" s="31">
-        <v>20</v>
-      </c>
-      <c r="O9" s="32">
+      <c r="N9" s="27">
+        <v>34</v>
+      </c>
+      <c r="O9" s="31">
         <v>20</v>
       </c>
       <c r="P9" s="32">
@@ -33627,21 +33651,24 @@
         <v>20</v>
       </c>
       <c r="S9" s="32">
+        <v>20</v>
+      </c>
+      <c r="T9" s="32">
         <v>15</v>
       </c>
-      <c r="T9" s="32">
+      <c r="U9" s="32">
         <v>25</v>
       </c>
-      <c r="U9" s="32">
+      <c r="V9" s="32">
         <v>45</v>
-      </c>
-      <c r="V9" s="32">
-        <v>30</v>
       </c>
       <c r="W9" s="32">
         <v>30</v>
       </c>
       <c r="X9" s="32">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="32">
         <v>20</v>
       </c>
     </row>
@@ -33671,15 +33698,15 @@
       </c>
       <c r="G10" s="40">
         <f>(G8+G9)/2</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H10" s="40">
         <f>(H8+H9)/2</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I10" s="40">
         <f>(I8+I9)/2</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J10" s="40">
         <f>(J8+J9)/2</f>
@@ -33699,7 +33726,7 @@
       </c>
       <c r="N10" s="40">
         <f>(N8+N9)/2</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="O10" s="40">
         <f>(O8+O9)/2</f>
@@ -33719,32 +33746,36 @@
       </c>
       <c r="S10" s="40">
         <f>(S8+S9)/2</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T10" s="40">
         <f>(T8+T9)/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U10" s="40">
         <f>(U8+U9)/2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="V10" s="40">
         <f>(V8+V9)/2</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="W10" s="40">
         <f>(W8+W9)/2</f>
         <v>35</v>
       </c>
-      <c r="X10" s="41">
+      <c r="X10" s="40">
         <f>(X8+X9)/2</f>
+        <v>35</v>
+      </c>
+      <c r="Y10" s="41">
+        <f>(Y8+Y9)/2</f>
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="s" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="24">
         <v>30</v>
@@ -33762,13 +33793,13 @@
         <v>40</v>
       </c>
       <c r="G11" s="25">
+        <v>40</v>
+      </c>
+      <c r="H11" s="25">
         <v>25</v>
       </c>
-      <c r="H11" s="25">
+      <c r="I11" s="25">
         <v>40</v>
-      </c>
-      <c r="I11" s="25">
-        <v>50</v>
       </c>
       <c r="J11" s="25">
         <v>50</v>
@@ -33783,10 +33814,10 @@
         <v>50</v>
       </c>
       <c r="N11" s="25">
+        <v>50</v>
+      </c>
+      <c r="O11" s="25">
         <v>45</v>
-      </c>
-      <c r="O11" s="25">
-        <v>50</v>
       </c>
       <c r="P11" s="25">
         <v>50</v>
@@ -33795,16 +33826,16 @@
         <v>50</v>
       </c>
       <c r="R11" s="25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S11" s="25">
         <v>40</v>
       </c>
       <c r="T11" s="25">
+        <v>40</v>
+      </c>
+      <c r="U11" s="25">
         <v>45</v>
-      </c>
-      <c r="U11" s="25">
-        <v>40</v>
       </c>
       <c r="V11" s="25">
         <v>40</v>
@@ -33815,10 +33846,13 @@
       <c r="X11" s="25">
         <v>40</v>
       </c>
+      <c r="Y11" s="25">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" ht="13.8" customHeight="1">
       <c r="A12" t="s" s="36">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="32">
         <v>20</v>
@@ -33836,13 +33870,13 @@
         <v>30</v>
       </c>
       <c r="G12" s="32">
+        <v>30</v>
+      </c>
+      <c r="H12" s="32">
         <v>15</v>
       </c>
-      <c r="H12" s="32">
+      <c r="I12" s="32">
         <v>30</v>
-      </c>
-      <c r="I12" s="32">
-        <v>40</v>
       </c>
       <c r="J12" s="32">
         <v>40</v>
@@ -33857,10 +33891,10 @@
         <v>40</v>
       </c>
       <c r="N12" s="32">
+        <v>40</v>
+      </c>
+      <c r="O12" s="32">
         <v>35</v>
-      </c>
-      <c r="O12" s="32">
-        <v>40</v>
       </c>
       <c r="P12" s="32">
         <v>40</v>
@@ -33869,16 +33903,16 @@
         <v>40</v>
       </c>
       <c r="R12" s="32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S12" s="32">
         <v>30</v>
       </c>
       <c r="T12" s="32">
+        <v>30</v>
+      </c>
+      <c r="U12" s="32">
         <v>35</v>
-      </c>
-      <c r="U12" s="32">
-        <v>30</v>
       </c>
       <c r="V12" s="32">
         <v>30</v>
@@ -33887,6 +33921,9 @@
         <v>30</v>
       </c>
       <c r="X12" s="32">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="32">
         <v>30</v>
       </c>
     </row>
@@ -33916,15 +33953,15 @@
       </c>
       <c r="G13" s="40">
         <f>(G11+G12)/2</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H13" s="40">
         <f>(H11+H12)/2</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I13" s="40">
         <f>(I11+I12)/2</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J13" s="40">
         <f>(J11+J12)/2</f>
@@ -33944,11 +33981,11 @@
       </c>
       <c r="N13" s="40">
         <f>(N11+N12)/2</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O13" s="40">
         <f>(O11+O12)/2</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P13" s="40">
         <f>(P11+P12)/2</f>
@@ -33960,7 +33997,7 @@
       </c>
       <c r="R13" s="40">
         <f>(R11+R12)/2</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="S13" s="40">
         <f>(S11+S12)/2</f>
@@ -33968,11 +34005,11 @@
       </c>
       <c r="T13" s="40">
         <f>(T11+T12)/2</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="U13" s="40">
         <f>(U11+U12)/2</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V13" s="40">
         <f>(V11+V12)/2</f>
@@ -33982,14 +34019,18 @@
         <f>(W11+W12)/2</f>
         <v>35</v>
       </c>
-      <c r="X13" s="41">
+      <c r="X13" s="40">
         <f>(X11+X12)/2</f>
         <v>35</v>
       </c>
+      <c r="Y13" s="41">
+        <f>(Y11+Y12)/2</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="s" s="23">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="24">
         <v>30</v>
@@ -34007,13 +34048,13 @@
         <v>40</v>
       </c>
       <c r="G14" s="25">
+        <v>40</v>
+      </c>
+      <c r="H14" s="25">
         <v>25</v>
       </c>
-      <c r="H14" s="25">
+      <c r="I14" s="25">
         <v>35</v>
-      </c>
-      <c r="I14" s="25">
-        <v>50</v>
       </c>
       <c r="J14" s="25">
         <v>50</v>
@@ -34028,10 +34069,10 @@
         <v>50</v>
       </c>
       <c r="N14" s="25">
+        <v>50</v>
+      </c>
+      <c r="O14" s="25">
         <v>55</v>
-      </c>
-      <c r="O14" s="25">
-        <v>40</v>
       </c>
       <c r="P14" s="25">
         <v>40</v>
@@ -34040,7 +34081,7 @@
         <v>40</v>
       </c>
       <c r="R14" s="25">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="S14" s="25">
         <v>45</v>
@@ -34049,7 +34090,7 @@
         <v>45</v>
       </c>
       <c r="U14" s="25">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="V14" s="25">
         <v>35</v>
@@ -34060,10 +34101,13 @@
       <c r="X14" s="25">
         <v>35</v>
       </c>
+      <c r="Y14" s="25">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" ht="13.8" customHeight="1">
       <c r="A15" t="s" s="30">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="31">
         <v>20</v>
@@ -34081,13 +34125,13 @@
         <v>30</v>
       </c>
       <c r="G15" s="32">
+        <v>30</v>
+      </c>
+      <c r="H15" s="32">
         <v>15</v>
       </c>
-      <c r="H15" s="32">
+      <c r="I15" s="32">
         <v>25</v>
-      </c>
-      <c r="I15" s="32">
-        <v>40</v>
       </c>
       <c r="J15" s="32">
         <v>40</v>
@@ -34102,10 +34146,10 @@
         <v>40</v>
       </c>
       <c r="N15" s="32">
+        <v>40</v>
+      </c>
+      <c r="O15" s="32">
         <v>45</v>
-      </c>
-      <c r="O15" s="32">
-        <v>30</v>
       </c>
       <c r="P15" s="32">
         <v>30</v>
@@ -34114,7 +34158,7 @@
         <v>30</v>
       </c>
       <c r="R15" s="32">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="S15" s="32">
         <v>35</v>
@@ -34123,7 +34167,7 @@
         <v>35</v>
       </c>
       <c r="U15" s="32">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="V15" s="32">
         <v>25</v>
@@ -34132,6 +34176,9 @@
         <v>25</v>
       </c>
       <c r="X15" s="32">
+        <v>25</v>
+      </c>
+      <c r="Y15" s="32">
         <v>25</v>
       </c>
     </row>
@@ -34161,15 +34208,15 @@
       </c>
       <c r="G16" s="40">
         <f>(G14+G15)/2</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H16" s="40">
         <f>(H14+H15)/2</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I16" s="40">
         <f>(I14+I15)/2</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J16" s="40">
         <f>(J14+J15)/2</f>
@@ -34189,11 +34236,11 @@
       </c>
       <c r="N16" s="40">
         <f>(N14+N15)/2</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O16" s="40">
         <f>(O14+O15)/2</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P16" s="40">
         <f>(P14+P15)/2</f>
@@ -34205,7 +34252,7 @@
       </c>
       <c r="R16" s="40">
         <f>(R14+R15)/2</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S16" s="40">
         <f>(S14+S15)/2</f>
@@ -34217,7 +34264,7 @@
       </c>
       <c r="U16" s="40">
         <f>(U14+U15)/2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V16" s="40">
         <f>(V14+V15)/2</f>
@@ -34227,14 +34274,18 @@
         <f>(W14+W15)/2</f>
         <v>30</v>
       </c>
-      <c r="X16" s="41">
+      <c r="X16" s="40">
         <f>(X14+X15)/2</f>
         <v>30</v>
       </c>
+      <c r="Y16" s="41">
+        <f>(Y14+Y15)/2</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="s" s="23">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="24">
         <v>30</v>
@@ -34252,10 +34303,10 @@
         <v>30</v>
       </c>
       <c r="G17" s="25">
+        <v>30</v>
+      </c>
+      <c r="H17" s="25">
         <v>50</v>
-      </c>
-      <c r="H17" s="25">
-        <v>30</v>
       </c>
       <c r="I17" s="25">
         <v>30</v>
@@ -34273,7 +34324,7 @@
         <v>30</v>
       </c>
       <c r="N17" s="25">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="O17" s="25">
         <v>45</v>
@@ -34285,16 +34336,16 @@
         <v>45</v>
       </c>
       <c r="R17" s="25">
+        <v>45</v>
+      </c>
+      <c r="S17" s="25">
         <v>35</v>
       </c>
-      <c r="S17" s="25">
+      <c r="T17" s="25">
         <v>45</v>
       </c>
-      <c r="T17" s="25">
+      <c r="U17" s="25">
         <v>35</v>
-      </c>
-      <c r="U17" s="25">
-        <v>30</v>
       </c>
       <c r="V17" s="25">
         <v>30</v>
@@ -34305,10 +34356,13 @@
       <c r="X17" s="25">
         <v>30</v>
       </c>
+      <c r="Y17" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" ht="13.8" customHeight="1">
       <c r="A18" t="s" s="30">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="31">
         <v>20</v>
@@ -34326,10 +34380,10 @@
         <v>20</v>
       </c>
       <c r="G18" s="32">
+        <v>20</v>
+      </c>
+      <c r="H18" s="32">
         <v>40</v>
-      </c>
-      <c r="H18" s="32">
-        <v>20</v>
       </c>
       <c r="I18" s="32">
         <v>20</v>
@@ -34347,7 +34401,7 @@
         <v>20</v>
       </c>
       <c r="N18" s="32">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="O18" s="32">
         <v>35</v>
@@ -34359,16 +34413,16 @@
         <v>35</v>
       </c>
       <c r="R18" s="32">
+        <v>35</v>
+      </c>
+      <c r="S18" s="32">
         <v>25</v>
       </c>
-      <c r="S18" s="32">
+      <c r="T18" s="32">
         <v>35</v>
       </c>
-      <c r="T18" s="32">
+      <c r="U18" s="32">
         <v>25</v>
-      </c>
-      <c r="U18" s="32">
-        <v>20</v>
       </c>
       <c r="V18" s="32">
         <v>20</v>
@@ -34377,6 +34431,9 @@
         <v>20</v>
       </c>
       <c r="X18" s="32">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="32">
         <v>20</v>
       </c>
     </row>
@@ -34406,11 +34463,11 @@
       </c>
       <c r="G19" s="40">
         <f>(G17+G18)/2</f>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H19" s="40">
         <f>(H17+H18)/2</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I19" s="40">
         <f>(I17+I18)/2</f>
@@ -34434,7 +34491,7 @@
       </c>
       <c r="N19" s="40">
         <f>(N17+N18)/2</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="O19" s="40">
         <f>(O17+O18)/2</f>
@@ -34450,19 +34507,19 @@
       </c>
       <c r="R19" s="40">
         <f>(R17+R18)/2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S19" s="40">
         <f>(S17+S18)/2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T19" s="40">
         <f>(T17+T18)/2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U19" s="40">
         <f>(U17+U18)/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="V19" s="40">
         <f>(V17+V18)/2</f>
@@ -34472,14 +34529,18 @@
         <f>(W17+W18)/2</f>
         <v>25</v>
       </c>
-      <c r="X19" s="41">
+      <c r="X19" s="40">
         <f>(X17+X18)/2</f>
         <v>25</v>
       </c>
+      <c r="Y19" s="41">
+        <f>(Y17+Y18)/2</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="s" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="24">
         <v>30</v>
@@ -34503,7 +34564,7 @@
         <v>30</v>
       </c>
       <c r="I20" s="25">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J20" s="25">
         <v>35</v>
@@ -34518,10 +34579,10 @@
         <v>35</v>
       </c>
       <c r="N20" s="25">
+        <v>35</v>
+      </c>
+      <c r="O20" s="25">
         <v>30</v>
-      </c>
-      <c r="O20" s="25">
-        <v>35</v>
       </c>
       <c r="P20" s="25">
         <v>35</v>
@@ -34530,7 +34591,7 @@
         <v>35</v>
       </c>
       <c r="R20" s="25">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="S20" s="25">
         <v>30</v>
@@ -34548,12 +34609,15 @@
         <v>30</v>
       </c>
       <c r="X20" s="25">
+        <v>30</v>
+      </c>
+      <c r="Y20" s="25">
         <v>55</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1">
       <c r="A21" t="s" s="36">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="32">
         <v>20</v>
@@ -34577,7 +34641,7 @@
         <v>20</v>
       </c>
       <c r="I21" s="32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J21" s="32">
         <v>25</v>
@@ -34592,10 +34656,10 @@
         <v>25</v>
       </c>
       <c r="N21" s="32">
+        <v>25</v>
+      </c>
+      <c r="O21" s="32">
         <v>20</v>
-      </c>
-      <c r="O21" s="32">
-        <v>25</v>
       </c>
       <c r="P21" s="32">
         <v>25</v>
@@ -34604,7 +34668,7 @@
         <v>25</v>
       </c>
       <c r="R21" s="32">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S21" s="32">
         <v>20</v>
@@ -34622,6 +34686,9 @@
         <v>20</v>
       </c>
       <c r="X21" s="32">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="32">
         <v>45</v>
       </c>
     </row>
@@ -34659,7 +34726,7 @@
       </c>
       <c r="I22" s="40">
         <f>(I20+I21)/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J22" s="40">
         <f>(J20+J21)/2</f>
@@ -34679,11 +34746,11 @@
       </c>
       <c r="N22" s="40">
         <f>(N20+N21)/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O22" s="40">
         <f>(O20+O21)/2</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P22" s="40">
         <f>(P20+P21)/2</f>
@@ -34695,7 +34762,7 @@
       </c>
       <c r="R22" s="40">
         <f>(R20+R21)/2</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S22" s="40">
         <f>(S20+S21)/2</f>
@@ -34717,8 +34784,12 @@
         <f>(W20+W21)/2</f>
         <v>25</v>
       </c>
-      <c r="X22" s="41">
+      <c r="X22" s="40">
         <f>(X20+X21)/2</f>
+        <v>25</v>
+      </c>
+      <c r="Y22" s="41">
+        <f>(Y20+Y21)/2</f>
         <v>50</v>
       </c>
     </row>
@@ -34744,13 +34815,14 @@
       <c r="S23" s="43"/>
       <c r="T23" s="43"/>
       <c r="U23" s="43"/>
-      <c r="V23" s="44"/>
+      <c r="V23" s="43"/>
       <c r="W23" s="44"/>
       <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
     </row>
     <row r="24" ht="13.8" customHeight="1">
       <c r="A24" t="s" s="45">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" s="29">
         <f>B4+B7+B10+B13+B16+B19+B22</f>
@@ -34774,15 +34846,15 @@
       </c>
       <c r="G24" s="29">
         <f>G4+G7+G10+G13+G16+G19+G22</f>
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="H24" s="29">
         <f>H4+H7+H10+H13+H16+H19+H22</f>
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="I24" s="29">
         <f>I4+I7+I10+I13+I16+I19+I22</f>
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="J24" s="29">
         <f>J4+J7+J10+J13+J16+J19+J22</f>
@@ -34802,7 +34874,7 @@
       </c>
       <c r="N24" s="29">
         <f>N4+N7+N10+N13+N16+N19+N22</f>
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="O24" s="29">
         <f>O4+O7+O10+O13+O16+O19+O22</f>
@@ -34818,7 +34890,7 @@
       </c>
       <c r="R24" s="29">
         <f>R4+R7+R10+R13+R16+R19+R22</f>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="S24" s="29">
         <f>S4+S7+S10+S13+S16+S19+S22</f>
@@ -34830,7 +34902,7 @@
       </c>
       <c r="U24" s="29">
         <f>U4+U7+U10+U13+U16+U19+U22</f>
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="V24" s="29">
         <f>V4+V7+V10+V13+V16+V19+V22</f>
@@ -34844,10 +34916,14 @@
         <f>X4+X7+X10+X13+X16+X19+X22</f>
         <v>235</v>
       </c>
+      <c r="Y24" s="29">
+        <f>Y4+Y7+Y10+Y13+Y16+Y19+Y22</f>
+        <v>235</v>
+      </c>
     </row>
     <row r="25" ht="13.8" customHeight="1">
       <c r="A25" t="s" s="46">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B25" s="29">
         <f>B24/7</f>
@@ -34871,15 +34947,15 @@
       </c>
       <c r="G25" s="47">
         <f>G24/7</f>
-        <v>24.2857142857143</v>
+        <v>30.8571428571429</v>
       </c>
       <c r="H25" s="47">
         <f>H24/7</f>
-        <v>33.5714285714286</v>
+        <v>24.2857142857143</v>
       </c>
       <c r="I25" s="47">
         <f>I24/7</f>
-        <v>36.5714285714286</v>
+        <v>33.5714285714286</v>
       </c>
       <c r="J25" s="47">
         <f>J24/7</f>
@@ -34899,7 +34975,7 @@
       </c>
       <c r="N25" s="47">
         <f>N24/7</f>
-        <v>34.2857142857143</v>
+        <v>36.5714285714286</v>
       </c>
       <c r="O25" s="47">
         <f>O24/7</f>
@@ -34915,7 +34991,7 @@
       </c>
       <c r="R25" s="47">
         <f>R24/7</f>
-        <v>31.4285714285714</v>
+        <v>34.2857142857143</v>
       </c>
       <c r="S25" s="47">
         <f>S24/7</f>
@@ -34927,7 +35003,7 @@
       </c>
       <c r="U25" s="47">
         <f>U24/7</f>
-        <v>33.5714285714286</v>
+        <v>31.4285714285714</v>
       </c>
       <c r="V25" s="47">
         <f>V24/7</f>
@@ -34939,6 +35015,10 @@
       </c>
       <c r="X25" s="47">
         <f>X24/7</f>
+        <v>33.5714285714286</v>
+      </c>
+      <c r="Y25" s="47">
+        <f>Y24/7</f>
         <v>33.5714285714286</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8966BBA-BF81-45E6-8D50-B42DC3FD4706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE942E5-42D6-4817-A646-4B117D4B3E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>Rogue_Comprehensiveness</t>
   </si>
   <si>
-    <t>Mage_Comprehensiveness</t>
-  </si>
-  <si>
     <t>Priest_Comprehensiveness</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Rogue_Assassination</t>
+  </si>
+  <si>
+    <t>Rogue_Toxicology</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -489,9 +489,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1000,22 +997,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>25</c:v>
@@ -3116,7 +3113,7 @@
       </c>
       <c r="E2" s="10">
         <f>'Resistance List'!J4</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10">
         <f>'Resistance List'!K4</f>
@@ -3182,7 +3179,7 @@
       </c>
       <c r="E3" s="10">
         <f>'Resistance List'!J7</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10">
         <f>'Resistance List'!K7</f>
@@ -3248,7 +3245,7 @@
       </c>
       <c r="E4" s="10">
         <f>'Resistance List'!J10</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F4" s="10">
         <f>'Resistance List'!K10</f>
@@ -3314,7 +3311,7 @@
       </c>
       <c r="E5" s="10">
         <f>'Resistance List'!J13</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10">
         <f>'Resistance List'!K13</f>
@@ -3380,7 +3377,7 @@
       </c>
       <c r="E6" s="10">
         <f>'Resistance List'!J16</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10">
         <f>'Resistance List'!K16</f>
@@ -3446,7 +3443,7 @@
       </c>
       <c r="E7" s="10">
         <f>'Resistance List'!J19</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10">
         <f>'Resistance List'!K19</f>
@@ -31099,7 +31096,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31110,8 +31107,7 @@
     <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
     <col min="6" max="7" width="25.21875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="30.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="32.5546875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="30.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
     <col min="12" max="16" width="32.88671875" style="1" customWidth="1"/>
     <col min="17" max="17" width="25.88671875" style="1" customWidth="1"/>
@@ -31147,46 +31143,46 @@
         <v>25</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>38</v>
       </c>
       <c r="W1" s="21" t="s">
         <v>8</v>
@@ -31203,7 +31199,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="23">
         <v>30</v>
@@ -31230,7 +31226,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K2" s="26">
         <v>40</v>
@@ -31283,7 +31279,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="30">
         <v>20</v>
@@ -31310,7 +31306,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K3" s="26">
         <v>34</v>
@@ -31398,8 +31394,8 @@
         <v>20</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" ref="J4" si="1">(J2+J3)/2</f>
+        <v>20</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="0"/>
@@ -31468,7 +31464,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
@@ -31495,7 +31491,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K5" s="26">
         <v>40</v>
@@ -31548,7 +31544,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="31">
         <v>20</v>
@@ -31574,8 +31570,8 @@
       <c r="I6" s="36">
         <v>15</v>
       </c>
-      <c r="J6" s="37">
-        <v>35</v>
+      <c r="J6" s="36">
+        <v>15</v>
       </c>
       <c r="K6" s="26">
         <v>34</v>
@@ -31627,113 +31623,113 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="39">
-        <f t="shared" ref="B7:Z7" si="1">(B5+B6)/2</f>
+      <c r="B7" s="38">
+        <f t="shared" ref="B7:Z7" si="2">(B5+B6)/2</f>
         <v>25</v>
       </c>
-      <c r="C7" s="39">
-        <f t="shared" si="1"/>
+      <c r="C7" s="38">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="D7" s="39">
-        <f t="shared" si="1"/>
+      <c r="D7" s="38">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E7" s="39">
-        <f t="shared" si="1"/>
+      <c r="E7" s="38">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="F7" s="39">
-        <f t="shared" si="1"/>
+      <c r="F7" s="38">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G7" s="39">
-        <f t="shared" si="1"/>
+      <c r="G7" s="38">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H7" s="39">
-        <f t="shared" si="1"/>
+      <c r="H7" s="38">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I7" s="39">
-        <f t="shared" si="1"/>
+      <c r="I7" s="38">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J7" s="39">
-        <f t="shared" si="1"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="3">(J5+J6)/2</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="L7" s="38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N7" s="38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O7" s="38">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="P7" s="38">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="38">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R7" s="38">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="S7" s="38">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="T7" s="38">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K7" s="39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L7" s="39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M7" s="39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="N7" s="39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="O7" s="39">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="P7" s="39">
-        <f t="shared" si="1"/>
+      <c r="U7" s="38">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q7" s="39">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="R7" s="39">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="S7" s="39">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T7" s="39">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="U7" s="39">
-        <f t="shared" si="1"/>
+      <c r="V7" s="38">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="V7" s="39">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="W7" s="39">
-        <f t="shared" si="1"/>
+      <c r="W7" s="38">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="X7" s="39">
-        <f t="shared" si="1"/>
+      <c r="X7" s="38">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="Y7" s="39">
-        <f t="shared" si="1"/>
+      <c r="Y7" s="38">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Z7" s="40">
-        <f t="shared" si="1"/>
+      <c r="Z7" s="39">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="23">
         <v>30</v>
@@ -31759,8 +31755,8 @@
       <c r="I8" s="24">
         <v>25</v>
       </c>
-      <c r="J8" s="25">
-        <v>45</v>
+      <c r="J8" s="24">
+        <v>25</v>
       </c>
       <c r="K8" s="26">
         <v>40</v>
@@ -31813,7 +31809,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="30">
         <v>20</v>
@@ -31839,8 +31835,8 @@
       <c r="I9" s="31">
         <v>15</v>
       </c>
-      <c r="J9" s="32">
-        <v>35</v>
+      <c r="J9" s="31">
+        <v>15</v>
       </c>
       <c r="K9" s="26">
         <v>34</v>
@@ -31895,110 +31891,110 @@
       <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="39">
-        <f t="shared" ref="B10:Z10" si="2">(B8+B9)/2</f>
+      <c r="B10" s="38">
+        <f t="shared" ref="B10:Z10" si="4">(B8+B9)/2</f>
         <v>25</v>
       </c>
-      <c r="C10" s="39">
-        <f t="shared" si="2"/>
+      <c r="C10" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="D10" s="39">
-        <f t="shared" si="2"/>
+      <c r="D10" s="38">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="E10" s="39">
-        <f t="shared" si="2"/>
+      <c r="E10" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="F10" s="39">
-        <f t="shared" si="2"/>
+      <c r="F10" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="G10" s="39">
-        <f t="shared" si="2"/>
+      <c r="G10" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H10" s="39">
-        <f t="shared" si="2"/>
+      <c r="H10" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I10" s="39">
-        <f t="shared" si="2"/>
+      <c r="I10" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="J10" s="39">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K10" s="39">
-        <f t="shared" si="2"/>
+      <c r="J10" s="38">
+        <f t="shared" ref="J10" si="5">(J8+J9)/2</f>
+        <v>20</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="L10" s="39">
-        <f t="shared" si="2"/>
+      <c r="L10" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="M10" s="39">
-        <f t="shared" si="2"/>
+      <c r="M10" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="N10" s="39">
-        <f t="shared" si="2"/>
+      <c r="N10" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="O10" s="39">
-        <f t="shared" si="2"/>
+      <c r="O10" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="P10" s="39">
-        <f t="shared" si="2"/>
+      <c r="P10" s="38">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="Q10" s="39">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="38">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="R10" s="39">
-        <f t="shared" si="2"/>
+      <c r="R10" s="38">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="S10" s="39">
-        <f t="shared" si="2"/>
+      <c r="S10" s="38">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="T10" s="39">
-        <f t="shared" si="2"/>
+      <c r="T10" s="38">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="U10" s="39">
-        <f t="shared" si="2"/>
+      <c r="U10" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="V10" s="39">
-        <f t="shared" si="2"/>
+      <c r="V10" s="38">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="W10" s="39">
-        <f t="shared" si="2"/>
+      <c r="W10" s="38">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="X10" s="39">
-        <f t="shared" si="2"/>
+      <c r="X10" s="38">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="Y10" s="39">
-        <f t="shared" si="2"/>
+      <c r="Y10" s="38">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="Z10" s="40">
-        <f t="shared" si="2"/>
+      <c r="Z10" s="39">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="23">
         <v>30</v>
@@ -32025,7 +32021,7 @@
         <v>25</v>
       </c>
       <c r="J11" s="24">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K11" s="24">
         <v>50</v>
@@ -32078,7 +32074,7 @@
     </row>
     <row r="12" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="31">
         <v>20</v>
@@ -32105,7 +32101,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="31">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K12" s="31">
         <v>40</v>
@@ -32157,113 +32153,113 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="39">
-        <f t="shared" ref="B13:Z13" si="3">(B11+B12)/2</f>
+      <c r="B13" s="38">
+        <f t="shared" ref="B13:Z13" si="6">(B11+B12)/2</f>
         <v>25</v>
       </c>
-      <c r="C13" s="39">
-        <f t="shared" si="3"/>
+      <c r="C13" s="38">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="D13" s="39">
-        <f t="shared" si="3"/>
+      <c r="D13" s="38">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="E13" s="39">
-        <f t="shared" si="3"/>
+      <c r="E13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="F13" s="39">
-        <f t="shared" si="3"/>
+      <c r="F13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="G13" s="39">
-        <f t="shared" si="3"/>
+      <c r="G13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="H13" s="39">
-        <f t="shared" si="3"/>
+      <c r="H13" s="38">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I13" s="39">
-        <f t="shared" si="3"/>
+      <c r="I13" s="38">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J13" s="39">
-        <f t="shared" si="3"/>
+      <c r="J13" s="38">
+        <f t="shared" ref="J13" si="7">(J11+J12)/2</f>
+        <v>20</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="L13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="M13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="N13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="O13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="R13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="S13" s="38">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="T13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="K13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="L13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="M13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="N13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="O13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="P13" s="39">
-        <f t="shared" si="3"/>
+      <c r="U13" s="38">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="V13" s="38">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="Q13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="R13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="S13" s="39">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="T13" s="39">
-        <f t="shared" si="3"/>
+      <c r="W13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="U13" s="39">
-        <f t="shared" si="3"/>
+      <c r="X13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="V13" s="39">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="W13" s="39">
-        <f t="shared" si="3"/>
+      <c r="Y13" s="38">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="X13" s="39">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="Y13" s="39">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="Z13" s="40">
-        <f t="shared" si="3"/>
+      <c r="Z13" s="39">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="23">
         <v>30</v>
@@ -32290,7 +32286,7 @@
         <v>25</v>
       </c>
       <c r="J14" s="24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K14" s="24">
         <v>50</v>
@@ -32343,7 +32339,7 @@
     </row>
     <row r="15" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="30">
         <v>20</v>
@@ -32370,7 +32366,7 @@
         <v>15</v>
       </c>
       <c r="J15" s="31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K15" s="31">
         <v>40</v>
@@ -32425,110 +32421,110 @@
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="39">
-        <f t="shared" ref="B16:Z16" si="4">(B14+B15)/2</f>
+      <c r="B16" s="38">
+        <f t="shared" ref="B16:Z16" si="8">(B14+B15)/2</f>
         <v>25</v>
       </c>
-      <c r="C16" s="39">
-        <f t="shared" si="4"/>
+      <c r="C16" s="38">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="D16" s="39">
-        <f t="shared" si="4"/>
+      <c r="D16" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="E16" s="39">
-        <f t="shared" si="4"/>
+      <c r="E16" s="38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="F16" s="39">
-        <f t="shared" si="4"/>
+      <c r="F16" s="38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="G16" s="39">
-        <f t="shared" si="4"/>
+      <c r="G16" s="38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="H16" s="39">
-        <f t="shared" si="4"/>
+      <c r="H16" s="38">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="I16" s="39">
-        <f t="shared" si="4"/>
+      <c r="I16" s="38">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J16" s="39">
-        <f t="shared" si="4"/>
+      <c r="J16" s="38">
+        <f t="shared" ref="J16" si="9">(J14+J15)/2</f>
+        <v>20</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="L16" s="38">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="M16" s="38">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="O16" s="38">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="P16" s="38">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="Q16" s="38">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="R16" s="38">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="S16" s="38">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="T16" s="38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="U16" s="38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="V16" s="38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="W16" s="38">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="K16" s="39">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="L16" s="39">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="M16" s="39">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="N16" s="39">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="O16" s="39">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="P16" s="39">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="Q16" s="39">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="R16" s="39">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="S16" s="39">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="T16" s="39">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="U16" s="39">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="V16" s="39">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="W16" s="39">
-        <f t="shared" si="4"/>
+      <c r="X16" s="38">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="X16" s="39">
-        <f t="shared" si="4"/>
+      <c r="Y16" s="38">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="Y16" s="39">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="Z16" s="40">
-        <f t="shared" si="4"/>
+      <c r="Z16" s="39">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="23">
         <v>30</v>
@@ -32555,7 +32551,7 @@
         <v>50</v>
       </c>
       <c r="J17" s="24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K17" s="24">
         <v>30</v>
@@ -32608,7 +32604,7 @@
     </row>
     <row r="18" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="30">
         <v>20</v>
@@ -32635,7 +32631,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K18" s="31">
         <v>20</v>
@@ -32690,110 +32686,110 @@
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="39">
-        <f t="shared" ref="B19:Z19" si="5">(B17+B18)/2</f>
+      <c r="B19" s="38">
+        <f t="shared" ref="B19:Z19" si="10">(B17+B18)/2</f>
         <v>25</v>
       </c>
-      <c r="C19" s="39">
-        <f t="shared" si="5"/>
+      <c r="C19" s="38">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="D19" s="39">
-        <f t="shared" si="5"/>
+      <c r="D19" s="38">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="E19" s="39">
-        <f t="shared" si="5"/>
+      <c r="E19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="F19" s="39">
-        <f t="shared" si="5"/>
+      <c r="F19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="G19" s="39">
-        <f t="shared" si="5"/>
+      <c r="G19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="H19" s="39">
-        <f t="shared" si="5"/>
+      <c r="H19" s="38">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="I19" s="39">
-        <f t="shared" si="5"/>
+      <c r="I19" s="38">
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="J19" s="39">
-        <f t="shared" si="5"/>
+      <c r="J19" s="38">
+        <f t="shared" ref="J19" si="11">(J17+J18)/2</f>
+        <v>45</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="K19" s="39">
-        <f t="shared" si="5"/>
+      <c r="L19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="L19" s="39">
-        <f t="shared" si="5"/>
+      <c r="M19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M19" s="39">
-        <f t="shared" si="5"/>
+      <c r="N19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="N19" s="39">
-        <f t="shared" si="5"/>
+      <c r="O19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="O19" s="39">
-        <f t="shared" si="5"/>
+      <c r="P19" s="38">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="Q19" s="38">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="R19" s="38">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="S19" s="38">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="T19" s="38">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="U19" s="38">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="V19" s="38">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="W19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="P19" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="Q19" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="R19" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="S19" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="T19" s="39">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="U19" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="V19" s="39">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="W19" s="39">
-        <f t="shared" si="5"/>
+      <c r="X19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="X19" s="39">
-        <f t="shared" si="5"/>
+      <c r="Y19" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="Y19" s="39">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="Z19" s="40">
-        <f t="shared" si="5"/>
+      <c r="Z19" s="39">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="23">
         <v>30</v>
@@ -32873,7 +32869,7 @@
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="31">
         <v>20</v>
@@ -32952,345 +32948,345 @@
       </c>
     </row>
     <row r="22" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="39">
-        <f t="shared" ref="B22:Z22" si="6">(B20+B21)/2</f>
+      <c r="B22" s="38">
+        <f t="shared" ref="B22:Z22" si="12">(B20+B21)/2</f>
         <v>25</v>
       </c>
-      <c r="C22" s="39">
-        <f t="shared" si="6"/>
+      <c r="C22" s="38">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="D22" s="39">
-        <f t="shared" si="6"/>
+      <c r="D22" s="38">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="E22" s="39">
-        <f t="shared" si="6"/>
+      <c r="E22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="F22" s="39">
-        <f t="shared" si="6"/>
+      <c r="F22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="G22" s="39">
-        <f t="shared" si="6"/>
+      <c r="G22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="H22" s="39">
-        <f t="shared" si="6"/>
+      <c r="H22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="I22" s="39">
-        <f t="shared" si="6"/>
+      <c r="I22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="J22" s="39">
-        <f t="shared" si="6"/>
+      <c r="J22" s="38">
+        <f t="shared" ref="J22" si="13">(J20+J21)/2</f>
         <v>25</v>
       </c>
-      <c r="K22" s="39">
-        <f t="shared" si="6"/>
+      <c r="K22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="L22" s="39">
-        <f t="shared" si="6"/>
+      <c r="L22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="M22" s="39">
-        <f t="shared" si="6"/>
+      <c r="M22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="N22" s="39">
-        <f t="shared" si="6"/>
+      <c r="N22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="O22" s="39">
-        <f t="shared" si="6"/>
+      <c r="O22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="P22" s="39">
-        <f t="shared" si="6"/>
+      <c r="P22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="Q22" s="39">
-        <f t="shared" si="6"/>
+      <c r="Q22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="R22" s="39">
-        <f t="shared" si="6"/>
+      <c r="R22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="S22" s="39">
-        <f t="shared" si="6"/>
+      <c r="S22" s="38">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="T22" s="39">
-        <f t="shared" si="6"/>
+      <c r="T22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="U22" s="39">
-        <f t="shared" si="6"/>
+      <c r="U22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="V22" s="39">
-        <f t="shared" si="6"/>
+      <c r="V22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="W22" s="39">
-        <f t="shared" si="6"/>
+      <c r="W22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="X22" s="39">
-        <f t="shared" si="6"/>
+      <c r="X22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="Y22" s="39">
-        <f t="shared" si="6"/>
+      <c r="Y22" s="38">
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="Z22" s="40">
-        <f t="shared" si="6"/>
+      <c r="Z22" s="39">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="28">
+        <f t="shared" ref="B24:Z24" si="14">B4+B7+B10+B13+B16+B19+B22</f>
+        <v>175</v>
+      </c>
+      <c r="C24" s="28">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="D24" s="28">
+        <f t="shared" si="14"/>
+        <v>200</v>
+      </c>
+      <c r="E24" s="28">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="14"/>
+        <v>216</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="14"/>
+        <v>170</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" ref="I24:J24" si="15">I4+I7+I10+I13+I16+I19+I22</f>
+        <v>170</v>
+      </c>
+      <c r="J24" s="28">
+        <f t="shared" si="15"/>
+        <v>170</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="L24" s="28">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="M24" s="28">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="O24" s="28">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="P24" s="28">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="Q24" s="28">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="R24" s="28">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="S24" s="28">
+        <f t="shared" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="T24" s="28">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="U24" s="28">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" si="14"/>
+        <v>220</v>
+      </c>
+      <c r="W24" s="28">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="X24" s="28">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="Y24" s="28">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+      <c r="Z24" s="28">
+        <f t="shared" si="14"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="28">
-        <f t="shared" ref="B24:Z24" si="7">B4+B7+B10+B13+B16+B19+B22</f>
-        <v>175</v>
-      </c>
-      <c r="C24" s="28">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="D24" s="28">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="E24" s="28">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="F24" s="28">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="G24" s="28">
-        <f t="shared" si="7"/>
-        <v>216</v>
-      </c>
-      <c r="H24" s="28">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" ref="I24" si="8">I4+I7+I10+I13+I16+I19+I22</f>
-        <v>170</v>
-      </c>
-      <c r="J24" s="28">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="K24" s="28">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="L24" s="28">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="M24" s="28">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="N24" s="28">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="O24" s="28">
-        <f t="shared" si="7"/>
-        <v>256</v>
-      </c>
-      <c r="P24" s="28">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="Q24" s="28">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="R24" s="28">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="S24" s="28">
-        <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="T24" s="28">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="U24" s="28">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="V24" s="28">
-        <f t="shared" si="7"/>
-        <v>220</v>
-      </c>
-      <c r="W24" s="28">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="X24" s="28">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="Y24" s="28">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="Z24" s="28">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
-        <v>54</v>
-      </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:Z25" si="9">B24/7</f>
+        <f t="shared" ref="B25:Z25" si="16">B24/7</f>
         <v>25</v>
       </c>
-      <c r="C25" s="46">
-        <f t="shared" si="9"/>
+      <c r="C25" s="45">
+        <f t="shared" si="16"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="D25" s="46">
-        <f t="shared" si="9"/>
+      <c r="D25" s="45">
+        <f t="shared" si="16"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="E25" s="46">
-        <f t="shared" si="9"/>
+      <c r="E25" s="45">
+        <f t="shared" si="16"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="F25" s="46">
-        <f t="shared" si="9"/>
+      <c r="F25" s="45">
+        <f t="shared" si="16"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="G25" s="46">
-        <f t="shared" si="9"/>
+      <c r="G25" s="45">
+        <f t="shared" si="16"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="H25" s="46">
-        <f t="shared" si="9"/>
+      <c r="H25" s="45">
+        <f t="shared" si="16"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="I25" s="46">
-        <f t="shared" si="9"/>
+      <c r="I25" s="45">
+        <f t="shared" si="16"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="J25" s="46">
-        <f t="shared" si="9"/>
+      <c r="J25" s="45">
+        <f t="shared" ref="J25" si="17">J24/7</f>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="K25" s="45">
+        <f t="shared" si="16"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="L25" s="45">
+        <f t="shared" si="16"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="M25" s="45">
+        <f t="shared" si="16"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="N25" s="45">
+        <f t="shared" si="16"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="O25" s="45">
+        <f t="shared" si="16"/>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="P25" s="45">
+        <f t="shared" si="16"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="Q25" s="45">
+        <f t="shared" si="16"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="R25" s="45">
+        <f t="shared" si="16"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="S25" s="45">
+        <f t="shared" si="16"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="T25" s="45">
+        <f t="shared" si="16"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="U25" s="45">
+        <f t="shared" si="16"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="V25" s="45">
+        <f t="shared" si="16"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="W25" s="45">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="K25" s="46">
-        <f t="shared" si="9"/>
-        <v>36.571428571428569</v>
-      </c>
-      <c r="L25" s="46">
-        <f t="shared" si="9"/>
-        <v>36.571428571428569</v>
-      </c>
-      <c r="M25" s="46">
-        <f t="shared" si="9"/>
-        <v>36.571428571428569</v>
-      </c>
-      <c r="N25" s="46">
-        <f t="shared" si="9"/>
-        <v>36.571428571428569</v>
-      </c>
-      <c r="O25" s="46">
-        <f t="shared" si="9"/>
-        <v>36.571428571428569</v>
-      </c>
-      <c r="P25" s="46">
-        <f t="shared" si="9"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="Q25" s="46">
-        <f t="shared" si="9"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="R25" s="46">
-        <f t="shared" si="9"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="S25" s="46">
-        <f t="shared" si="9"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="T25" s="46">
-        <f t="shared" si="9"/>
-        <v>31.428571428571427</v>
-      </c>
-      <c r="U25" s="46">
-        <f t="shared" si="9"/>
-        <v>31.428571428571427</v>
-      </c>
-      <c r="V25" s="46">
-        <f t="shared" si="9"/>
-        <v>31.428571428571427</v>
-      </c>
-      <c r="W25" s="46">
-        <f t="shared" si="9"/>
+      <c r="X25" s="45">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="X25" s="46">
-        <f t="shared" si="9"/>
+      <c r="Y25" s="45">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="Y25" s="46">
-        <f t="shared" si="9"/>
-        <v>33.571428571428569</v>
-      </c>
-      <c r="Z25" s="46">
-        <f t="shared" si="9"/>
+      <c r="Z25" s="45">
+        <f t="shared" si="16"/>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE942E5-42D6-4817-A646-4B117D4B3E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538EBEF9-59AF-4A85-8510-65676E18D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Warrior</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>Rogue_Toxicology</t>
+  </si>
+  <si>
+    <t>Mage_Comprehensiveness</t>
   </si>
 </sst>
 </file>
@@ -31093,10 +31096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31115,11 +31118,12 @@
     <col min="19" max="20" width="30.21875" style="1" customWidth="1"/>
     <col min="21" max="22" width="19.6640625" style="1" customWidth="1"/>
     <col min="23" max="23" width="14.21875" style="1" customWidth="1"/>
-    <col min="24" max="27" width="12.6640625" style="1" customWidth="1"/>
+    <col min="24" max="26" width="12.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
         <v>19</v>
@@ -31196,8 +31200,11 @@
       <c r="Z1" s="21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
@@ -31276,8 +31283,11 @@
       <c r="Z2" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA2" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>39</v>
       </c>
@@ -31356,8 +31366,11 @@
       <c r="Z3" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA3" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
@@ -31461,8 +31474,12 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA4" s="34">
+        <f t="shared" ref="AA4" si="2">(AA2+AA3)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -31541,8 +31558,11 @@
       <c r="Z5" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>41</v>
       </c>
@@ -31621,113 +31641,120 @@
       <c r="Z6" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="38">
-        <f t="shared" ref="B7:Z7" si="2">(B5+B6)/2</f>
+        <f t="shared" ref="B7:Z7" si="3">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="F7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="G7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="H7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="J7" s="38">
-        <f t="shared" ref="J7" si="3">(J5+J6)/2</f>
+        <f t="shared" ref="J7" si="4">(J5+J6)/2</f>
         <v>20</v>
       </c>
       <c r="K7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="L7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="M7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="N7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="O7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="P7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="Q7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="R7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="S7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="T7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="U7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="V7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="W7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="X7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="Y7" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="Z7" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7" s="39">
+        <f t="shared" ref="AA7" si="5">(AA5+AA6)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
@@ -31806,8 +31833,11 @@
       <c r="Z8" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
@@ -31886,113 +31916,120 @@
       <c r="Z9" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="38">
-        <f t="shared" ref="B10:Z10" si="4">(B8+B9)/2</f>
+        <f t="shared" ref="B10:Z10" si="6">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="F10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="G10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="H10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="I10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J10" s="38">
-        <f t="shared" ref="J10" si="5">(J8+J9)/2</f>
+        <f t="shared" ref="J10" si="7">(J8+J9)/2</f>
         <v>20</v>
       </c>
       <c r="K10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="L10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="M10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="N10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="O10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="P10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="Q10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="R10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="S10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="T10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="U10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="V10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="W10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="X10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="Y10" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="Z10" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10" s="39">
+        <f t="shared" ref="AA10" si="8">(AA8+AA9)/2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -32071,8 +32108,11 @@
       <c r="Z11" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>45</v>
       </c>
@@ -32151,113 +32191,120 @@
       <c r="Z12" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="38">
-        <f t="shared" ref="B13:Z13" si="6">(B11+B12)/2</f>
+        <f t="shared" ref="B13:Z13" si="9">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="E13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="F13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="G13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="H13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J13" s="38">
-        <f t="shared" ref="J13" si="7">(J11+J12)/2</f>
+        <f t="shared" ref="J13" si="10">(J11+J12)/2</f>
         <v>20</v>
       </c>
       <c r="K13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="L13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="M13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="N13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="O13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="P13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="Q13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="R13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="S13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="T13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="U13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="V13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="W13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="X13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="Y13" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="Z13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13" s="39">
+        <f t="shared" ref="AA13" si="11">(AA11+AA12)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
@@ -32336,8 +32383,11 @@
       <c r="Z14" s="24">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
@@ -32416,113 +32466,120 @@
       <c r="Z15" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" ref="B16:Z16" si="8">(B14+B15)/2</f>
+        <f t="shared" ref="B16:Z16" si="12">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="D16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="F16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="G16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="H16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="I16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J16" s="38">
-        <f t="shared" ref="J16" si="9">(J14+J15)/2</f>
+        <f t="shared" ref="J16" si="13">(J14+J15)/2</f>
         <v>20</v>
       </c>
       <c r="K16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="L16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="M16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="N16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="O16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="P16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="Q16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="R16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="S16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="T16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="U16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="V16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="W16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="X16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Y16" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Z16" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16" s="39">
+        <f t="shared" ref="AA16" si="14">(AA14+AA15)/2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>48</v>
       </c>
@@ -32601,8 +32658,11 @@
       <c r="Z17" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -32681,113 +32741,120 @@
       <c r="Z18" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" ref="B19:Z19" si="10">(B17+B18)/2</f>
+        <f t="shared" ref="B19:Z19" si="15">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="F19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="G19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="H19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="I19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="J19" s="38">
-        <f t="shared" ref="J19" si="11">(J17+J18)/2</f>
+        <f t="shared" ref="J19" si="16">(J17+J18)/2</f>
         <v>45</v>
       </c>
       <c r="K19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="L19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="M19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="N19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="O19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="P19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="Q19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="R19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="T19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="U19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="V19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
       <c r="W19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="X19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="Y19" s="38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="Z19" s="39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19" s="39">
+        <f t="shared" ref="AA19" si="17">(AA17+AA18)/2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -32866,8 +32933,11 @@
       <c r="Z20" s="24">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>51</v>
       </c>
@@ -32946,113 +33016,120 @@
       <c r="Z21" s="31">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="38">
-        <f t="shared" ref="B22:Z22" si="12">(B20+B21)/2</f>
+        <f t="shared" ref="B22:Z22" si="18">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="D22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="F22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="G22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="H22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="I22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J22" s="38">
-        <f t="shared" ref="J22" si="13">(J20+J21)/2</f>
+        <f t="shared" ref="J22" si="19">(J20+J21)/2</f>
         <v>25</v>
       </c>
       <c r="K22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="L22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="M22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="N22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="O22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="P22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="Q22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="R22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="S22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="T22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="U22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="V22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="W22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="X22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="Y22" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="Z22" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22" s="39">
+        <f t="shared" ref="AA22" si="20">(AA20+AA21)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -33079,214 +33156,223 @@
       <c r="X23" s="42"/>
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
-    </row>
-    <row r="24" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23" s="42"/>
+    </row>
+    <row r="24" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:Z24" si="14">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:Z24" si="21">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="G24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="H24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="I24" s="28">
-        <f t="shared" ref="I24:J24" si="15">I4+I7+I10+I13+I16+I19+I22</f>
+        <f t="shared" ref="I24:J24" si="22">I4+I7+I10+I13+I16+I19+I22</f>
         <v>170</v>
       </c>
       <c r="J24" s="28">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>170</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="L24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="M24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="N24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="O24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="Q24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="R24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="S24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="T24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
       <c r="U24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
       <c r="V24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
       <c r="W24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
       <c r="X24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
       <c r="Y24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
       <c r="Z24" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24" s="28">
+        <f t="shared" ref="AA24" si="23">AA4+AA7+AA10+AA13+AA16+AA19+AA22</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:Z25" si="16">B24/7</f>
+        <f t="shared" ref="B25:Z25" si="24">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28.571428571428573</v>
       </c>
       <c r="D25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28.571428571428573</v>
       </c>
       <c r="E25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="F25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="G25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="H25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.285714285714285</v>
       </c>
       <c r="I25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.285714285714285</v>
       </c>
       <c r="J25" s="45">
-        <f t="shared" ref="J25" si="17">J24/7</f>
+        <f t="shared" ref="J25" si="25">J24/7</f>
         <v>24.285714285714285</v>
       </c>
       <c r="K25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="M25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="N25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="O25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="P25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="Q25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="R25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="S25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="T25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
       <c r="U25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
       <c r="V25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
       <c r="W25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
       <c r="X25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
       <c r="Y25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
       <c r="Z25" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
+        <v>33.571428571428569</v>
+      </c>
+      <c r="AA25" s="45">
+        <f t="shared" ref="AA25" si="26">AA24/7</f>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538EBEF9-59AF-4A85-8510-65676E18D03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33C371-02C0-4965-8AA8-E5A45BB9D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14625" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Warrior</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Mage_Comprehensiveness</t>
+  </si>
+  <si>
+    <t>Warrior_Water_Elemental</t>
   </si>
 </sst>
 </file>
@@ -3107,47 +3110,47 @@
         <v>25</v>
       </c>
       <c r="C2" s="10">
-        <f>'Resistance List'!E4</f>
+        <f>'Resistance List'!F4</f>
         <v>32</v>
       </c>
       <c r="D2" s="10">
-        <f>'Resistance List'!H4</f>
+        <f>'Resistance List'!I4</f>
         <v>20</v>
       </c>
       <c r="E2" s="10">
-        <f>'Resistance List'!J4</f>
+        <f>'Resistance List'!K4</f>
         <v>20</v>
       </c>
       <c r="F2" s="10">
-        <f>'Resistance List'!K4</f>
+        <f>'Resistance List'!L4</f>
         <v>37</v>
       </c>
       <c r="G2" s="10">
-        <f>'Resistance List'!P4</f>
+        <f>'Resistance List'!Q4</f>
         <v>30</v>
       </c>
       <c r="H2" s="10">
-        <f>'Resistance List'!Q4</f>
+        <f>'Resistance List'!R4</f>
         <v>45</v>
       </c>
       <c r="I2" s="10">
-        <f>'Resistance List'!T4</f>
+        <f>'Resistance List'!U4</f>
         <v>25</v>
       </c>
       <c r="J2" s="10">
-        <f>'Resistance List'!W4</f>
+        <f>'Resistance List'!X4</f>
         <v>35</v>
       </c>
       <c r="K2" s="10">
-        <f>'Resistance List'!X4</f>
+        <f>'Resistance List'!Y4</f>
         <v>50</v>
       </c>
       <c r="L2" s="10">
-        <f>'Resistance List'!Y4</f>
+        <f>'Resistance List'!Z4</f>
         <v>35</v>
       </c>
       <c r="M2" s="10">
-        <f>'Resistance List'!Z4</f>
+        <f>'Resistance List'!AA4</f>
         <v>35</v>
       </c>
       <c r="N2" s="11"/>
@@ -3173,47 +3176,47 @@
         <v>25</v>
       </c>
       <c r="C3" s="10">
-        <f>'Resistance List'!E7</f>
+        <f>'Resistance List'!F7</f>
         <v>32</v>
       </c>
       <c r="D3" s="10">
-        <f>'Resistance List'!H7</f>
+        <f>'Resistance List'!I7</f>
         <v>20</v>
       </c>
       <c r="E3" s="10">
-        <f>'Resistance List'!J7</f>
+        <f>'Resistance List'!K7</f>
         <v>20</v>
       </c>
       <c r="F3" s="10">
-        <f>'Resistance List'!K7</f>
+        <f>'Resistance List'!L7</f>
         <v>37</v>
       </c>
       <c r="G3" s="10">
-        <f>'Resistance List'!P7</f>
+        <f>'Resistance List'!Q7</f>
         <v>30</v>
       </c>
       <c r="H3" s="10">
-        <f>'Resistance List'!Q7</f>
+        <f>'Resistance List'!R7</f>
         <v>20</v>
       </c>
       <c r="I3" s="10">
-        <f>'Resistance List'!T7</f>
+        <f>'Resistance List'!U7</f>
         <v>40</v>
       </c>
       <c r="J3" s="10">
-        <f>'Resistance List'!W7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="10">
         <f>'Resistance List'!X7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="10">
+        <f>'Resistance List'!Y7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="10">
-        <f>'Resistance List'!Y7</f>
+        <f>'Resistance List'!Z7</f>
         <v>50</v>
       </c>
       <c r="M3" s="10">
-        <f>'Resistance List'!Z7</f>
+        <f>'Resistance List'!AA7</f>
         <v>35</v>
       </c>
       <c r="N3" s="11"/>
@@ -3239,47 +3242,47 @@
         <v>25</v>
       </c>
       <c r="C4" s="10">
-        <f>'Resistance List'!E10</f>
+        <f>'Resistance List'!F10</f>
         <v>32</v>
       </c>
       <c r="D4" s="10">
-        <f>'Resistance List'!H10</f>
+        <f>'Resistance List'!I10</f>
         <v>20</v>
       </c>
       <c r="E4" s="10">
-        <f>'Resistance List'!J10</f>
+        <f>'Resistance List'!K10</f>
         <v>20</v>
       </c>
       <c r="F4" s="10">
-        <f>'Resistance List'!K10</f>
+        <f>'Resistance List'!L10</f>
         <v>37</v>
       </c>
       <c r="G4" s="10">
-        <f>'Resistance List'!P10</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="10">
         <f>'Resistance List'!Q10</f>
         <v>25</v>
       </c>
+      <c r="H4" s="10">
+        <f>'Resistance List'!R10</f>
+        <v>25</v>
+      </c>
       <c r="I4" s="10">
-        <f>'Resistance List'!T10</f>
+        <f>'Resistance List'!U10</f>
         <v>25</v>
       </c>
       <c r="J4" s="10">
-        <f>'Resistance List'!W10</f>
+        <f>'Resistance List'!X10</f>
         <v>50</v>
       </c>
       <c r="K4" s="10">
-        <f>'Resistance List'!X10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="10">
         <f>'Resistance List'!Y10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="10">
+        <f>'Resistance List'!Z10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="10">
-        <f>'Resistance List'!Z10</f>
+        <f>'Resistance List'!AA10</f>
         <v>25</v>
       </c>
       <c r="N4" s="11"/>
@@ -3305,47 +3308,47 @@
         <v>25</v>
       </c>
       <c r="C5" s="10">
-        <f>'Resistance List'!E13</f>
+        <f>'Resistance List'!F13</f>
         <v>35</v>
       </c>
       <c r="D5" s="10">
-        <f>'Resistance List'!H13</f>
+        <f>'Resistance List'!I13</f>
         <v>20</v>
       </c>
       <c r="E5" s="10">
-        <f>'Resistance List'!J13</f>
+        <f>'Resistance List'!K13</f>
         <v>20</v>
       </c>
       <c r="F5" s="10">
-        <f>'Resistance List'!K13</f>
+        <f>'Resistance List'!L13</f>
         <v>45</v>
       </c>
       <c r="G5" s="10">
-        <f>'Resistance List'!P13</f>
+        <f>'Resistance List'!Q13</f>
         <v>40</v>
       </c>
       <c r="H5" s="10">
-        <f>'Resistance List'!Q13</f>
+        <f>'Resistance List'!R13</f>
         <v>45</v>
       </c>
       <c r="I5" s="10">
-        <f>'Resistance List'!T13</f>
+        <f>'Resistance List'!U13</f>
         <v>35</v>
       </c>
       <c r="J5" s="10">
-        <f>'Resistance List'!W13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="10">
         <f>'Resistance List'!X13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="10">
         <f>'Resistance List'!Y13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="10">
+        <f>'Resistance List'!Z13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="10">
-        <f>'Resistance List'!Z13</f>
+        <f>'Resistance List'!AA13</f>
         <v>35</v>
       </c>
       <c r="N5" s="11"/>
@@ -3371,47 +3374,47 @@
         <v>25</v>
       </c>
       <c r="C6" s="10">
-        <f>'Resistance List'!E16</f>
+        <f>'Resistance List'!F16</f>
         <v>35</v>
       </c>
       <c r="D6" s="10">
-        <f>'Resistance List'!H16</f>
+        <f>'Resistance List'!I16</f>
         <v>20</v>
       </c>
       <c r="E6" s="10">
-        <f>'Resistance List'!J16</f>
+        <f>'Resistance List'!K16</f>
         <v>20</v>
       </c>
       <c r="F6" s="10">
-        <f>'Resistance List'!K16</f>
+        <f>'Resistance List'!L16</f>
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <f>'Resistance List'!P16</f>
+        <f>'Resistance List'!Q16</f>
         <v>50</v>
       </c>
       <c r="H6" s="10">
-        <f>'Resistance List'!Q16</f>
+        <f>'Resistance List'!R16</f>
         <v>35</v>
       </c>
       <c r="I6" s="10">
-        <f>'Resistance List'!T16</f>
+        <f>'Resistance List'!U16</f>
         <v>40</v>
       </c>
       <c r="J6" s="10">
-        <f>'Resistance List'!W16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="10">
         <f>'Resistance List'!X16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="10">
         <f>'Resistance List'!Y16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="10">
+        <f>'Resistance List'!Z16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="10">
-        <f>'Resistance List'!Z16</f>
+        <f>'Resistance List'!AA16</f>
         <v>30</v>
       </c>
       <c r="N6" s="11"/>
@@ -3437,47 +3440,47 @@
         <v>25</v>
       </c>
       <c r="C7" s="10">
-        <f>'Resistance List'!E19</f>
+        <f>'Resistance List'!F19</f>
         <v>25</v>
       </c>
       <c r="D7" s="10">
-        <f>'Resistance List'!H19</f>
+        <f>'Resistance List'!I19</f>
         <v>45</v>
       </c>
       <c r="E7" s="10">
-        <f>'Resistance List'!J19</f>
+        <f>'Resistance List'!K19</f>
         <v>45</v>
       </c>
       <c r="F7" s="10">
-        <f>'Resistance List'!K19</f>
+        <f>'Resistance List'!L19</f>
         <v>25</v>
       </c>
       <c r="G7" s="10">
-        <f>'Resistance List'!P19</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="10">
         <f>'Resistance List'!Q19</f>
         <v>40</v>
       </c>
+      <c r="H7" s="10">
+        <f>'Resistance List'!R19</f>
+        <v>40</v>
+      </c>
       <c r="I7" s="10">
-        <f>'Resistance List'!T19</f>
+        <f>'Resistance List'!U19</f>
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <f>'Resistance List'!W19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="10">
         <f>'Resistance List'!X19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
         <f>'Resistance List'!Y19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="10">
+        <f>'Resistance List'!Z19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="10">
-        <f>'Resistance List'!Z19</f>
+        <f>'Resistance List'!AA19</f>
         <v>25</v>
       </c>
       <c r="N7" s="11"/>
@@ -3503,47 +3506,47 @@
         <v>25</v>
       </c>
       <c r="C8" s="10">
-        <f>'Resistance List'!E22</f>
+        <f>'Resistance List'!F22</f>
         <v>25</v>
       </c>
       <c r="D8" s="10">
-        <f>'Resistance List'!H22</f>
+        <f>'Resistance List'!I22</f>
         <v>25</v>
       </c>
       <c r="E8" s="10">
-        <f>'Resistance List'!J22</f>
+        <f>'Resistance List'!K22</f>
         <v>25</v>
       </c>
       <c r="F8" s="10">
-        <f>'Resistance List'!K22</f>
+        <f>'Resistance List'!L22</f>
         <v>30</v>
       </c>
       <c r="G8" s="10">
-        <f>'Resistance List'!P22</f>
+        <f>'Resistance List'!Q22</f>
         <v>25</v>
       </c>
       <c r="H8" s="10">
-        <f>'Resistance List'!Q22</f>
+        <f>'Resistance List'!R22</f>
         <v>30</v>
       </c>
       <c r="I8" s="10">
-        <f>'Resistance List'!T22</f>
+        <f>'Resistance List'!U22</f>
         <v>25</v>
       </c>
       <c r="J8" s="10">
-        <f>'Resistance List'!W22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="10">
         <f>'Resistance List'!X22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
         <f>'Resistance List'!Y22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="10">
+        <f>'Resistance List'!Z22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="10">
-        <f>'Resistance List'!Z22</f>
+        <f>'Resistance List'!AA22</f>
         <v>50</v>
       </c>
       <c r="N8" s="11"/>
@@ -31096,10 +31099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31107,23 +31110,24 @@
     <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="27" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="25.21875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="30.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16" width="32.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="25.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="1" customWidth="1"/>
-    <col min="19" max="20" width="30.21875" style="1" customWidth="1"/>
-    <col min="21" max="22" width="19.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.21875" style="1" customWidth="1"/>
-    <col min="24" max="26" width="12.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="12.6640625" style="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="25.21875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="30.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" style="1" customWidth="1"/>
+    <col min="13" max="17" width="32.88671875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17" style="1" customWidth="1"/>
+    <col min="20" max="21" width="30.21875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="19.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.21875" style="1" customWidth="1"/>
+    <col min="25" max="27" width="12.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
         <v>19</v>
@@ -31135,76 +31139,79 @@
         <v>21</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
@@ -31218,16 +31225,16 @@
         <v>45</v>
       </c>
       <c r="E2" s="24">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F2" s="24">
         <v>35</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>35</v>
       </c>
-      <c r="H2" s="10">
-        <v>25</v>
+      <c r="H2" s="25">
+        <v>35</v>
       </c>
       <c r="I2" s="10">
         <v>25</v>
@@ -31235,8 +31242,8 @@
       <c r="J2" s="10">
         <v>25</v>
       </c>
-      <c r="K2" s="26">
-        <v>40</v>
+      <c r="K2" s="10">
+        <v>25</v>
       </c>
       <c r="L2" s="26">
         <v>40</v>
@@ -31250,11 +31257,11 @@
       <c r="O2" s="26">
         <v>40</v>
       </c>
-      <c r="P2" s="27">
+      <c r="P2" s="26">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="27">
         <v>35</v>
-      </c>
-      <c r="Q2" s="28">
-        <v>50</v>
       </c>
       <c r="R2" s="28">
         <v>50</v>
@@ -31263,22 +31270,22 @@
         <v>50</v>
       </c>
       <c r="T2" s="28">
+        <v>50</v>
+      </c>
+      <c r="U2" s="28">
         <v>30</v>
       </c>
-      <c r="U2" s="28">
+      <c r="V2" s="28">
         <v>35</v>
       </c>
-      <c r="V2" s="28">
+      <c r="W2" s="28">
         <v>30</v>
       </c>
-      <c r="W2" s="28">
+      <c r="X2" s="28">
         <v>40</v>
       </c>
-      <c r="X2" s="28">
+      <c r="Y2" s="28">
         <v>55</v>
-      </c>
-      <c r="Y2" s="28">
-        <v>40</v>
       </c>
       <c r="Z2" s="28">
         <v>40</v>
@@ -31286,8 +31293,11 @@
       <c r="AA2" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB2" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>39</v>
       </c>
@@ -31301,16 +31311,16 @@
         <v>35</v>
       </c>
       <c r="E3" s="31">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F3" s="31">
         <v>29</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="31">
         <v>29</v>
       </c>
-      <c r="H3" s="10">
-        <v>15</v>
+      <c r="H3" s="32">
+        <v>29</v>
       </c>
       <c r="I3" s="10">
         <v>15</v>
@@ -31318,8 +31328,8 @@
       <c r="J3" s="10">
         <v>15</v>
       </c>
-      <c r="K3" s="26">
-        <v>34</v>
+      <c r="K3" s="10">
+        <v>15</v>
       </c>
       <c r="L3" s="26">
         <v>34</v>
@@ -31333,11 +31343,11 @@
       <c r="O3" s="26">
         <v>34</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="26">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="30">
         <v>25</v>
-      </c>
-      <c r="Q3" s="31">
-        <v>40</v>
       </c>
       <c r="R3" s="31">
         <v>40</v>
@@ -31346,22 +31356,22 @@
         <v>40</v>
       </c>
       <c r="T3" s="31">
+        <v>40</v>
+      </c>
+      <c r="U3" s="31">
         <v>20</v>
       </c>
-      <c r="U3" s="31">
+      <c r="V3" s="31">
         <v>25</v>
       </c>
-      <c r="V3" s="31">
+      <c r="W3" s="31">
         <v>20</v>
       </c>
-      <c r="W3" s="31">
+      <c r="X3" s="31">
         <v>30</v>
       </c>
-      <c r="X3" s="31">
+      <c r="Y3" s="31">
         <v>45</v>
-      </c>
-      <c r="Y3" s="31">
-        <v>30</v>
       </c>
       <c r="Z3" s="31">
         <v>30</v>
@@ -31369,13 +31379,16 @@
       <c r="AA3" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB3" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="33">
-        <f t="shared" ref="B4:Z4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:AA4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="33">
@@ -31387,8 +31400,8 @@
         <v>40</v>
       </c>
       <c r="E4" s="33">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" ref="E4" si="1">(E2+E3)/2</f>
+        <v>45</v>
       </c>
       <c r="F4" s="33">
         <f t="shared" si="0"/>
@@ -31400,19 +31413,19 @@
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="I4" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="J4" s="33">
-        <f t="shared" ref="J4" si="1">(J2+J3)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K4" s="33">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" ref="K4" si="2">(K2+K3)/2</f>
+        <v>20</v>
       </c>
       <c r="L4" s="33">
         <f t="shared" si="0"/>
@@ -31432,11 +31445,11 @@
       </c>
       <c r="P4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="33">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" si="0"/>
@@ -31448,38 +31461,42 @@
       </c>
       <c r="T4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="U4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="X4" s="33">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Y4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="Z4" s="34">
+        <v>50</v>
+      </c>
+      <c r="Z4" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AA4" s="34">
-        <f t="shared" ref="AA4" si="2">(AA2+AA3)/2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB4" s="34">
+        <f t="shared" ref="AB4" si="3">(AB2+AB3)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
@@ -31493,16 +31510,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="24">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F5" s="24">
         <v>35</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>35</v>
       </c>
-      <c r="H5" s="10">
-        <v>25</v>
+      <c r="H5" s="25">
+        <v>35</v>
       </c>
       <c r="I5" s="10">
         <v>25</v>
@@ -31510,8 +31527,8 @@
       <c r="J5" s="10">
         <v>25</v>
       </c>
-      <c r="K5" s="26">
-        <v>40</v>
+      <c r="K5" s="10">
+        <v>25</v>
       </c>
       <c r="L5" s="26">
         <v>40</v>
@@ -31525,11 +31542,11 @@
       <c r="O5" s="26">
         <v>40</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="26">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="23">
         <v>35</v>
-      </c>
-      <c r="Q5" s="24">
-        <v>25</v>
       </c>
       <c r="R5" s="24">
         <v>25</v>
@@ -31538,31 +31555,34 @@
         <v>25</v>
       </c>
       <c r="T5" s="24">
+        <v>25</v>
+      </c>
+      <c r="U5" s="24">
         <v>45</v>
-      </c>
-      <c r="U5" s="24">
-        <v>35</v>
       </c>
       <c r="V5" s="24">
         <v>35</v>
       </c>
       <c r="W5" s="24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X5" s="24">
         <v>40</v>
       </c>
       <c r="Y5" s="24">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="24">
         <v>55</v>
-      </c>
-      <c r="Z5" s="24">
-        <v>40</v>
       </c>
       <c r="AA5" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>41</v>
       </c>
@@ -31576,7 +31596,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="31">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F6" s="31">
         <v>29</v>
@@ -31584,8 +31604,8 @@
       <c r="G6" s="31">
         <v>29</v>
       </c>
-      <c r="H6" s="36">
-        <v>15</v>
+      <c r="H6" s="31">
+        <v>29</v>
       </c>
       <c r="I6" s="36">
         <v>15</v>
@@ -31593,8 +31613,8 @@
       <c r="J6" s="36">
         <v>15</v>
       </c>
-      <c r="K6" s="26">
-        <v>34</v>
+      <c r="K6" s="36">
+        <v>15</v>
       </c>
       <c r="L6" s="26">
         <v>34</v>
@@ -31608,11 +31628,11 @@
       <c r="O6" s="26">
         <v>34</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="26">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="30">
         <v>25</v>
-      </c>
-      <c r="Q6" s="31">
-        <v>15</v>
       </c>
       <c r="R6" s="31">
         <v>15</v>
@@ -31621,140 +31641,147 @@
         <v>15</v>
       </c>
       <c r="T6" s="31">
+        <v>15</v>
+      </c>
+      <c r="U6" s="31">
         <v>35</v>
-      </c>
-      <c r="U6" s="31">
-        <v>25</v>
       </c>
       <c r="V6" s="31">
         <v>25</v>
       </c>
       <c r="W6" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X6" s="31">
         <v>30</v>
       </c>
       <c r="Y6" s="31">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="31">
         <v>45</v>
-      </c>
-      <c r="Z6" s="31">
-        <v>30</v>
       </c>
       <c r="AA6" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="38">
-        <f t="shared" ref="B7:Z7" si="3">(B5+B6)/2</f>
+        <f t="shared" ref="B7:AA7" si="4">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D7" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="E7" s="38">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E7" si="5">(E5+E6)/2</f>
+        <v>15</v>
+      </c>
+      <c r="F7" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="F7" s="38">
-        <f t="shared" si="3"/>
+      <c r="G7" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="G7" s="38">
-        <f t="shared" si="3"/>
+      <c r="H7" s="38">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H7" s="38">
-        <f t="shared" si="3"/>
+      <c r="I7" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="I7" s="38">
-        <f t="shared" si="3"/>
+      <c r="J7" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="J7" s="38">
-        <f t="shared" ref="J7" si="4">(J5+J6)/2</f>
+      <c r="K7" s="38">
+        <f t="shared" ref="K7" si="6">(K5+K6)/2</f>
         <v>20</v>
       </c>
-      <c r="K7" s="38">
-        <f t="shared" si="3"/>
+      <c r="L7" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="L7" s="38">
-        <f t="shared" si="3"/>
+      <c r="M7" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="M7" s="38">
-        <f t="shared" si="3"/>
+      <c r="N7" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="N7" s="38">
-        <f t="shared" si="3"/>
+      <c r="O7" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="O7" s="38">
-        <f t="shared" si="3"/>
+      <c r="P7" s="38">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="P7" s="38">
-        <f t="shared" si="3"/>
+      <c r="Q7" s="38">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="Q7" s="38">
-        <f t="shared" si="3"/>
+      <c r="R7" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="R7" s="38">
-        <f t="shared" si="3"/>
+      <c r="S7" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="S7" s="38">
-        <f t="shared" si="3"/>
+      <c r="T7" s="38">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="T7" s="38">
-        <f t="shared" si="3"/>
+      <c r="U7" s="38">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="U7" s="38">
-        <f t="shared" si="3"/>
+      <c r="V7" s="38">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="V7" s="38">
-        <f t="shared" si="3"/>
+      <c r="W7" s="38">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="W7" s="38">
-        <f t="shared" si="3"/>
+      <c r="X7" s="38">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="X7" s="38">
-        <f t="shared" si="3"/>
+      <c r="Y7" s="38">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="Y7" s="38">
-        <f t="shared" si="3"/>
+      <c r="Z7" s="38">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="Z7" s="39">
-        <f t="shared" si="3"/>
+      <c r="AA7" s="39">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AA7" s="39">
-        <f t="shared" ref="AA7" si="5">(AA5+AA6)/2</f>
+      <c r="AB7" s="39">
+        <f t="shared" ref="AB7" si="7">(AB5+AB6)/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
@@ -31777,7 +31804,7 @@
         <v>35</v>
       </c>
       <c r="H8" s="24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I8" s="24">
         <v>25</v>
@@ -31785,8 +31812,8 @@
       <c r="J8" s="24">
         <v>25</v>
       </c>
-      <c r="K8" s="26">
-        <v>40</v>
+      <c r="K8" s="24">
+        <v>25</v>
       </c>
       <c r="L8" s="26">
         <v>40</v>
@@ -31800,10 +31827,10 @@
       <c r="O8" s="26">
         <v>40</v>
       </c>
-      <c r="P8" s="23">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="24">
+      <c r="P8" s="26">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="23">
         <v>30</v>
       </c>
       <c r="R8" s="24">
@@ -31816,28 +31843,31 @@
         <v>30</v>
       </c>
       <c r="U8" s="24">
+        <v>30</v>
+      </c>
+      <c r="V8" s="24">
         <v>25</v>
       </c>
-      <c r="V8" s="24">
+      <c r="W8" s="24">
         <v>35</v>
       </c>
-      <c r="W8" s="24">
+      <c r="X8" s="24">
         <v>55</v>
-      </c>
-      <c r="X8" s="24">
-        <v>40</v>
       </c>
       <c r="Y8" s="24">
         <v>40</v>
       </c>
       <c r="Z8" s="24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AA8" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
@@ -31851,7 +31881,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="31">
         <v>29</v>
@@ -31860,7 +31890,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="31">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="I9" s="31">
         <v>15</v>
@@ -31868,8 +31898,8 @@
       <c r="J9" s="31">
         <v>15</v>
       </c>
-      <c r="K9" s="26">
-        <v>34</v>
+      <c r="K9" s="31">
+        <v>15</v>
       </c>
       <c r="L9" s="26">
         <v>34</v>
@@ -31883,10 +31913,10 @@
       <c r="O9" s="26">
         <v>34</v>
       </c>
-      <c r="P9" s="30">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="31">
+      <c r="P9" s="26">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="30">
         <v>20</v>
       </c>
       <c r="R9" s="31">
@@ -31899,137 +31929,144 @@
         <v>20</v>
       </c>
       <c r="U9" s="31">
+        <v>20</v>
+      </c>
+      <c r="V9" s="31">
         <v>15</v>
       </c>
-      <c r="V9" s="31">
+      <c r="W9" s="31">
         <v>25</v>
       </c>
-      <c r="W9" s="31">
+      <c r="X9" s="31">
         <v>45</v>
-      </c>
-      <c r="X9" s="31">
-        <v>30</v>
       </c>
       <c r="Y9" s="31">
         <v>30</v>
       </c>
       <c r="Z9" s="31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AA9" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="38">
-        <f t="shared" ref="B10:Z10" si="6">(B8+B9)/2</f>
+        <f t="shared" ref="B10:AA10" si="8">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="D10" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E10" s="38">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E10" si="9">(E8+E9)/2</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="38">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="F10" s="38">
-        <f t="shared" si="6"/>
+      <c r="G10" s="38">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="G10" s="38">
-        <f t="shared" si="6"/>
+      <c r="H10" s="38">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="H10" s="38">
-        <f t="shared" si="6"/>
+      <c r="I10" s="38">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="I10" s="38">
-        <f t="shared" si="6"/>
+      <c r="J10" s="38">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="J10" s="38">
-        <f t="shared" ref="J10" si="7">(J8+J9)/2</f>
+      <c r="K10" s="38">
+        <f t="shared" ref="K10" si="10">(K8+K9)/2</f>
         <v>20</v>
       </c>
-      <c r="K10" s="38">
-        <f t="shared" si="6"/>
+      <c r="L10" s="38">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="L10" s="38">
-        <f t="shared" si="6"/>
+      <c r="M10" s="38">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="M10" s="38">
-        <f t="shared" si="6"/>
+      <c r="N10" s="38">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="N10" s="38">
-        <f t="shared" si="6"/>
+      <c r="O10" s="38">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="O10" s="38">
-        <f t="shared" si="6"/>
+      <c r="P10" s="38">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="P10" s="38">
-        <f t="shared" si="6"/>
+      <c r="Q10" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="Q10" s="38">
-        <f t="shared" si="6"/>
+      <c r="R10" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="R10" s="38">
-        <f t="shared" si="6"/>
+      <c r="S10" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="S10" s="38">
-        <f t="shared" si="6"/>
+      <c r="T10" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="T10" s="38">
-        <f t="shared" si="6"/>
+      <c r="U10" s="38">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="U10" s="38">
-        <f t="shared" si="6"/>
+      <c r="V10" s="38">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="V10" s="38">
-        <f t="shared" si="6"/>
+      <c r="W10" s="38">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="W10" s="38">
-        <f t="shared" si="6"/>
+      <c r="X10" s="38">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="X10" s="38">
-        <f t="shared" si="6"/>
+      <c r="Y10" s="38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="Y10" s="38">
-        <f t="shared" si="6"/>
+      <c r="Z10" s="38">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="Z10" s="39">
-        <f t="shared" si="6"/>
+      <c r="AA10" s="39">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AA10" s="39">
-        <f t="shared" ref="AA10" si="8">(AA8+AA9)/2</f>
+      <c r="AB10" s="39">
+        <f t="shared" ref="AB10" si="11">(AB8+AB9)/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -32043,7 +32080,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F11" s="24">
         <v>40</v>
@@ -32052,7 +32089,7 @@
         <v>40</v>
       </c>
       <c r="H11" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I11" s="24">
         <v>25</v>
@@ -32061,7 +32098,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L11" s="24">
         <v>50</v>
@@ -32076,10 +32113,10 @@
         <v>50</v>
       </c>
       <c r="P11" s="24">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="24">
         <v>45</v>
-      </c>
-      <c r="Q11" s="24">
-        <v>50</v>
       </c>
       <c r="R11" s="24">
         <v>50</v>
@@ -32088,16 +32125,16 @@
         <v>50</v>
       </c>
       <c r="T11" s="24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U11" s="24">
         <v>40</v>
       </c>
       <c r="V11" s="24">
+        <v>40</v>
+      </c>
+      <c r="W11" s="24">
         <v>45</v>
-      </c>
-      <c r="W11" s="24">
-        <v>40</v>
       </c>
       <c r="X11" s="24">
         <v>40</v>
@@ -32111,8 +32148,11 @@
       <c r="AA11" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>45</v>
       </c>
@@ -32126,7 +32166,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" s="31">
         <v>30</v>
@@ -32135,7 +32175,7 @@
         <v>30</v>
       </c>
       <c r="H12" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I12" s="31">
         <v>15</v>
@@ -32144,7 +32184,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L12" s="31">
         <v>40</v>
@@ -32159,10 +32199,10 @@
         <v>40</v>
       </c>
       <c r="P12" s="31">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="31">
         <v>35</v>
-      </c>
-      <c r="Q12" s="31">
-        <v>40</v>
       </c>
       <c r="R12" s="31">
         <v>40</v>
@@ -32171,16 +32211,16 @@
         <v>40</v>
       </c>
       <c r="T12" s="31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U12" s="31">
         <v>30</v>
       </c>
       <c r="V12" s="31">
+        <v>30</v>
+      </c>
+      <c r="W12" s="31">
         <v>35</v>
-      </c>
-      <c r="W12" s="31">
-        <v>30</v>
       </c>
       <c r="X12" s="31">
         <v>30</v>
@@ -32194,117 +32234,124 @@
       <c r="AA12" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="38">
-        <f t="shared" ref="B13:Z13" si="9">(B11+B12)/2</f>
+        <f t="shared" ref="B13:AA13" si="12">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="D13" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="E13" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E13" si="13">(E11+E12)/2</f>
+        <v>30</v>
+      </c>
+      <c r="F13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="F13" s="38">
-        <f t="shared" si="9"/>
+      <c r="G13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="G13" s="38">
-        <f t="shared" si="9"/>
+      <c r="H13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="H13" s="38">
-        <f t="shared" si="9"/>
+      <c r="I13" s="38">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="I13" s="38">
-        <f t="shared" si="9"/>
+      <c r="J13" s="38">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="J13" s="38">
-        <f t="shared" ref="J13" si="10">(J11+J12)/2</f>
+      <c r="K13" s="38">
+        <f t="shared" ref="K13" si="14">(K11+K12)/2</f>
         <v>20</v>
       </c>
-      <c r="K13" s="38">
-        <f t="shared" si="9"/>
+      <c r="L13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="L13" s="38">
-        <f t="shared" si="9"/>
+      <c r="M13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="M13" s="38">
-        <f t="shared" si="9"/>
+      <c r="N13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="N13" s="38">
-        <f t="shared" si="9"/>
+      <c r="O13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="O13" s="38">
-        <f t="shared" si="9"/>
+      <c r="P13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="P13" s="38">
-        <f t="shared" si="9"/>
+      <c r="Q13" s="38">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="Q13" s="38">
-        <f t="shared" si="9"/>
+      <c r="R13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="R13" s="38">
-        <f t="shared" si="9"/>
+      <c r="S13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="S13" s="38">
-        <f t="shared" si="9"/>
+      <c r="T13" s="38">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="T13" s="38">
-        <f t="shared" si="9"/>
+      <c r="U13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="U13" s="38">
-        <f t="shared" si="9"/>
+      <c r="V13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="V13" s="38">
-        <f t="shared" si="9"/>
+      <c r="W13" s="38">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="W13" s="38">
-        <f t="shared" si="9"/>
+      <c r="X13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="X13" s="38">
-        <f t="shared" si="9"/>
+      <c r="Y13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="Y13" s="38">
-        <f t="shared" si="9"/>
+      <c r="Z13" s="38">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="Z13" s="39">
-        <f t="shared" si="9"/>
+      <c r="AA13" s="39">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="AA13" s="39">
-        <f t="shared" ref="AA13" si="11">(AA11+AA12)/2</f>
+      <c r="AB13" s="39">
+        <f t="shared" ref="AB13" si="15">(AB11+AB12)/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
@@ -32318,7 +32365,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" s="24">
         <v>40</v>
@@ -32327,7 +32374,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I14" s="24">
         <v>25</v>
@@ -32336,7 +32383,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="L14" s="24">
         <v>50</v>
@@ -32351,10 +32398,10 @@
         <v>50</v>
       </c>
       <c r="P14" s="24">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="24">
         <v>55</v>
-      </c>
-      <c r="Q14" s="24">
-        <v>40</v>
       </c>
       <c r="R14" s="24">
         <v>40</v>
@@ -32363,7 +32410,7 @@
         <v>40</v>
       </c>
       <c r="T14" s="24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="U14" s="24">
         <v>45</v>
@@ -32372,7 +32419,7 @@
         <v>45</v>
       </c>
       <c r="W14" s="24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X14" s="24">
         <v>35</v>
@@ -32386,8 +32433,11 @@
       <c r="AA14" s="24">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
@@ -32401,7 +32451,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F15" s="31">
         <v>30</v>
@@ -32410,7 +32460,7 @@
         <v>30</v>
       </c>
       <c r="H15" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I15" s="31">
         <v>15</v>
@@ -32419,7 +32469,7 @@
         <v>15</v>
       </c>
       <c r="K15" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L15" s="31">
         <v>40</v>
@@ -32434,10 +32484,10 @@
         <v>40</v>
       </c>
       <c r="P15" s="31">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="31">
         <v>45</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>30</v>
       </c>
       <c r="R15" s="31">
         <v>30</v>
@@ -32446,7 +32496,7 @@
         <v>30</v>
       </c>
       <c r="T15" s="31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="U15" s="31">
         <v>35</v>
@@ -32455,7 +32505,7 @@
         <v>35</v>
       </c>
       <c r="W15" s="31">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="X15" s="31">
         <v>25</v>
@@ -32469,117 +32519,124 @@
       <c r="AA15" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" ref="B16:Z16" si="12">(B14+B15)/2</f>
+        <f t="shared" ref="B16:AA16" si="16">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="D16" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="E16" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E16" si="17">(E14+E15)/2</f>
+        <v>30</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="F16" s="38">
-        <f t="shared" si="12"/>
+      <c r="G16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="G16" s="38">
-        <f t="shared" si="12"/>
+      <c r="H16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="H16" s="38">
-        <f t="shared" si="12"/>
+      <c r="I16" s="38">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="I16" s="38">
-        <f t="shared" si="12"/>
+      <c r="J16" s="38">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="J16" s="38">
-        <f t="shared" ref="J16" si="13">(J14+J15)/2</f>
+      <c r="K16" s="38">
+        <f t="shared" ref="K16" si="18">(K14+K15)/2</f>
         <v>20</v>
       </c>
-      <c r="K16" s="38">
-        <f t="shared" si="12"/>
+      <c r="L16" s="38">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="L16" s="38">
-        <f t="shared" si="12"/>
+      <c r="M16" s="38">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="M16" s="38">
-        <f t="shared" si="12"/>
+      <c r="N16" s="38">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="N16" s="38">
-        <f t="shared" si="12"/>
+      <c r="O16" s="38">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="O16" s="38">
-        <f t="shared" si="12"/>
+      <c r="P16" s="38">
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
-      <c r="P16" s="38">
-        <f t="shared" si="12"/>
+      <c r="Q16" s="38">
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="Q16" s="38">
-        <f t="shared" si="12"/>
+      <c r="R16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="R16" s="38">
-        <f t="shared" si="12"/>
+      <c r="S16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="S16" s="38">
-        <f t="shared" si="12"/>
+      <c r="T16" s="38">
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
-      <c r="T16" s="38">
-        <f t="shared" si="12"/>
+      <c r="U16" s="38">
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="U16" s="38">
-        <f t="shared" si="12"/>
+      <c r="V16" s="38">
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="V16" s="38">
-        <f t="shared" si="12"/>
+      <c r="W16" s="38">
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
-      <c r="W16" s="38">
-        <f t="shared" si="12"/>
+      <c r="X16" s="38">
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="X16" s="38">
-        <f t="shared" si="12"/>
+      <c r="Y16" s="38">
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="Y16" s="38">
-        <f t="shared" si="12"/>
+      <c r="Z16" s="38">
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="Z16" s="39">
-        <f t="shared" si="12"/>
+      <c r="AA16" s="39">
+        <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="AA16" s="39">
-        <f t="shared" ref="AA16" si="14">(AA14+AA15)/2</f>
+      <c r="AB16" s="39">
+        <f t="shared" ref="AB16" si="19">(AB14+AB15)/2</f>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>48</v>
       </c>
@@ -32593,7 +32650,7 @@
         <v>45</v>
       </c>
       <c r="E17" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F17" s="24">
         <v>30</v>
@@ -32602,7 +32659,7 @@
         <v>30</v>
       </c>
       <c r="H17" s="24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I17" s="24">
         <v>50</v>
@@ -32611,7 +32668,7 @@
         <v>50</v>
       </c>
       <c r="K17" s="24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L17" s="24">
         <v>30</v>
@@ -32626,7 +32683,7 @@
         <v>30</v>
       </c>
       <c r="P17" s="24">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="24">
         <v>45</v>
@@ -32638,16 +32695,16 @@
         <v>45</v>
       </c>
       <c r="T17" s="24">
+        <v>45</v>
+      </c>
+      <c r="U17" s="24">
         <v>35</v>
       </c>
-      <c r="U17" s="24">
+      <c r="V17" s="24">
         <v>45</v>
       </c>
-      <c r="V17" s="24">
+      <c r="W17" s="24">
         <v>35</v>
-      </c>
-      <c r="W17" s="24">
-        <v>30</v>
       </c>
       <c r="X17" s="24">
         <v>30</v>
@@ -32661,8 +32718,11 @@
       <c r="AA17" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
@@ -32676,7 +32736,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F18" s="31">
         <v>20</v>
@@ -32685,7 +32745,7 @@
         <v>20</v>
       </c>
       <c r="H18" s="31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I18" s="31">
         <v>40</v>
@@ -32694,7 +32754,7 @@
         <v>40</v>
       </c>
       <c r="K18" s="31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L18" s="31">
         <v>20</v>
@@ -32709,7 +32769,7 @@
         <v>20</v>
       </c>
       <c r="P18" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="31">
         <v>35</v>
@@ -32721,16 +32781,16 @@
         <v>35</v>
       </c>
       <c r="T18" s="31">
+        <v>35</v>
+      </c>
+      <c r="U18" s="31">
         <v>25</v>
       </c>
-      <c r="U18" s="31">
+      <c r="V18" s="31">
         <v>35</v>
       </c>
-      <c r="V18" s="31">
+      <c r="W18" s="31">
         <v>25</v>
-      </c>
-      <c r="W18" s="31">
-        <v>20</v>
       </c>
       <c r="X18" s="31">
         <v>20</v>
@@ -32744,117 +32804,124 @@
       <c r="AA18" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" ref="B19:Z19" si="15">(B17+B18)/2</f>
+        <f t="shared" ref="B19:AA19" si="20">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="E19" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E19" si="21">(E17+E18)/2</f>
+        <v>15</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="F19" s="38">
-        <f t="shared" si="15"/>
+      <c r="G19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="G19" s="38">
-        <f t="shared" si="15"/>
+      <c r="H19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="H19" s="38">
-        <f t="shared" si="15"/>
+      <c r="I19" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="I19" s="38">
-        <f t="shared" si="15"/>
+      <c r="J19" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="J19" s="38">
-        <f t="shared" ref="J19" si="16">(J17+J18)/2</f>
+      <c r="K19" s="38">
+        <f t="shared" ref="K19" si="22">(K17+K18)/2</f>
         <v>45</v>
       </c>
-      <c r="K19" s="38">
-        <f t="shared" si="15"/>
+      <c r="L19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="L19" s="38">
-        <f t="shared" si="15"/>
+      <c r="M19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="M19" s="38">
-        <f t="shared" si="15"/>
+      <c r="N19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="N19" s="38">
-        <f t="shared" si="15"/>
+      <c r="O19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="O19" s="38">
-        <f t="shared" si="15"/>
+      <c r="P19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="P19" s="38">
-        <f t="shared" si="15"/>
+      <c r="Q19" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="Q19" s="38">
-        <f t="shared" si="15"/>
+      <c r="R19" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="R19" s="38">
-        <f t="shared" si="15"/>
+      <c r="S19" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="S19" s="38">
-        <f t="shared" si="15"/>
+      <c r="T19" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="T19" s="38">
-        <f t="shared" si="15"/>
+      <c r="U19" s="38">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="U19" s="38">
-        <f t="shared" si="15"/>
+      <c r="V19" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="V19" s="38">
-        <f t="shared" si="15"/>
+      <c r="W19" s="38">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="W19" s="38">
-        <f t="shared" si="15"/>
+      <c r="X19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="X19" s="38">
-        <f t="shared" si="15"/>
+      <c r="Y19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="Y19" s="38">
-        <f t="shared" si="15"/>
+      <c r="Z19" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="Z19" s="39">
-        <f t="shared" si="15"/>
+      <c r="AA19" s="39">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="AA19" s="39">
-        <f t="shared" ref="AA19" si="17">(AA17+AA18)/2</f>
+      <c r="AB19" s="39">
+        <f t="shared" ref="AB19" si="23">(AB17+AB18)/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
@@ -32868,7 +32935,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F20" s="24">
         <v>30</v>
@@ -32886,7 +32953,7 @@
         <v>30</v>
       </c>
       <c r="K20" s="24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L20" s="24">
         <v>35</v>
@@ -32901,10 +32968,10 @@
         <v>35</v>
       </c>
       <c r="P20" s="24">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="24">
         <v>30</v>
-      </c>
-      <c r="Q20" s="24">
-        <v>35</v>
       </c>
       <c r="R20" s="24">
         <v>35</v>
@@ -32913,7 +32980,7 @@
         <v>35</v>
       </c>
       <c r="T20" s="24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="U20" s="24">
         <v>30</v>
@@ -32931,13 +32998,16 @@
         <v>30</v>
       </c>
       <c r="Z20" s="24">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AA20" s="24">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>51</v>
       </c>
@@ -32951,7 +33021,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F21" s="31">
         <v>20</v>
@@ -32969,7 +33039,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L21" s="31">
         <v>25</v>
@@ -32984,10 +33054,10 @@
         <v>25</v>
       </c>
       <c r="P21" s="31">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="31">
         <v>20</v>
-      </c>
-      <c r="Q21" s="31">
-        <v>25</v>
       </c>
       <c r="R21" s="31">
         <v>25</v>
@@ -32996,7 +33066,7 @@
         <v>25</v>
       </c>
       <c r="T21" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="U21" s="31">
         <v>20</v>
@@ -33014,122 +33084,129 @@
         <v>20</v>
       </c>
       <c r="Z21" s="31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="31">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="38">
-        <f t="shared" ref="B22:Z22" si="18">(B20+B21)/2</f>
+        <f t="shared" ref="B22:AA22" si="24">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="D22" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="E22" s="38">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="E22" si="25">(E20+E21)/2</f>
+        <v>35</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="F22" s="38">
-        <f t="shared" si="18"/>
+      <c r="G22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="G22" s="38">
-        <f t="shared" si="18"/>
+      <c r="H22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="H22" s="38">
-        <f t="shared" si="18"/>
+      <c r="I22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="I22" s="38">
-        <f t="shared" si="18"/>
+      <c r="J22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="J22" s="38">
-        <f t="shared" ref="J22" si="19">(J20+J21)/2</f>
+      <c r="K22" s="38">
+        <f t="shared" ref="K22" si="26">(K20+K21)/2</f>
         <v>25</v>
       </c>
-      <c r="K22" s="38">
-        <f t="shared" si="18"/>
+      <c r="L22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="L22" s="38">
-        <f t="shared" si="18"/>
+      <c r="M22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="M22" s="38">
-        <f t="shared" si="18"/>
+      <c r="N22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="N22" s="38">
-        <f t="shared" si="18"/>
+      <c r="O22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="O22" s="38">
-        <f t="shared" si="18"/>
+      <c r="P22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="P22" s="38">
-        <f t="shared" si="18"/>
+      <c r="Q22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="Q22" s="38">
-        <f t="shared" si="18"/>
+      <c r="R22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="R22" s="38">
-        <f t="shared" si="18"/>
+      <c r="S22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="S22" s="38">
-        <f t="shared" si="18"/>
+      <c r="T22" s="38">
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
-      <c r="T22" s="38">
-        <f t="shared" si="18"/>
+      <c r="U22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="U22" s="38">
-        <f t="shared" si="18"/>
+      <c r="V22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="V22" s="38">
-        <f t="shared" si="18"/>
+      <c r="W22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="W22" s="38">
-        <f t="shared" si="18"/>
+      <c r="X22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="X22" s="38">
-        <f t="shared" si="18"/>
+      <c r="Y22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="Y22" s="38">
-        <f t="shared" si="18"/>
+      <c r="Z22" s="38">
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="Z22" s="39">
-        <f t="shared" si="18"/>
+      <c r="AA22" s="39">
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="AA22" s="39">
-        <f t="shared" ref="AA22" si="20">(AA20+AA21)/2</f>
+      <c r="AB22" s="39">
+        <f t="shared" ref="AB22" si="27">(AB20+AB21)/2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -33153,226 +33230,235 @@
       <c r="U23" s="41"/>
       <c r="V23" s="41"/>
       <c r="W23" s="41"/>
-      <c r="X23" s="42"/>
+      <c r="X23" s="41"/>
       <c r="Y23" s="42"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
-    </row>
-    <row r="24" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="42"/>
+    </row>
+    <row r="24" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:Z24" si="21">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:AA24" si="28">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>200</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>200</v>
       </c>
       <c r="E24" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="E24" si="29">E4+E7+E10+E13+E16+E19+E22</f>
+        <v>200</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" si="28"/>
         <v>216</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" si="21"/>
+      <c r="G24" s="28">
+        <f t="shared" si="28"/>
         <v>216</v>
       </c>
-      <c r="G24" s="28">
-        <f t="shared" si="21"/>
+      <c r="H24" s="28">
+        <f t="shared" si="28"/>
         <v>216</v>
       </c>
-      <c r="H24" s="28">
-        <f t="shared" si="21"/>
+      <c r="I24" s="28">
+        <f t="shared" si="28"/>
         <v>170</v>
       </c>
-      <c r="I24" s="28">
-        <f t="shared" ref="I24:J24" si="22">I4+I7+I10+I13+I16+I19+I22</f>
+      <c r="J24" s="28">
+        <f t="shared" ref="J24:K24" si="30">J4+J7+J10+J13+J16+J19+J22</f>
         <v>170</v>
       </c>
-      <c r="J24" s="28">
-        <f t="shared" si="22"/>
+      <c r="K24" s="28">
+        <f t="shared" si="30"/>
         <v>170</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" si="21"/>
+      <c r="L24" s="28">
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
-      <c r="L24" s="28">
-        <f t="shared" si="21"/>
+      <c r="M24" s="28">
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
-      <c r="M24" s="28">
-        <f t="shared" si="21"/>
+      <c r="N24" s="28">
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
-      <c r="N24" s="28">
-        <f t="shared" si="21"/>
+      <c r="O24" s="28">
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
-      <c r="O24" s="28">
-        <f t="shared" si="21"/>
+      <c r="P24" s="28">
+        <f t="shared" si="28"/>
         <v>256</v>
       </c>
-      <c r="P24" s="28">
-        <f t="shared" si="21"/>
+      <c r="Q24" s="28">
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
-      <c r="Q24" s="28">
-        <f t="shared" si="21"/>
+      <c r="R24" s="28">
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
-      <c r="R24" s="28">
-        <f t="shared" si="21"/>
+      <c r="S24" s="28">
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
-      <c r="S24" s="28">
-        <f t="shared" si="21"/>
+      <c r="T24" s="28">
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
-      <c r="T24" s="28">
-        <f t="shared" si="21"/>
+      <c r="U24" s="28">
+        <f t="shared" si="28"/>
         <v>220</v>
       </c>
-      <c r="U24" s="28">
-        <f t="shared" si="21"/>
+      <c r="V24" s="28">
+        <f t="shared" si="28"/>
         <v>220</v>
       </c>
-      <c r="V24" s="28">
-        <f t="shared" si="21"/>
+      <c r="W24" s="28">
+        <f t="shared" si="28"/>
         <v>220</v>
       </c>
-      <c r="W24" s="28">
-        <f t="shared" si="21"/>
+      <c r="X24" s="28">
+        <f t="shared" si="28"/>
         <v>235</v>
       </c>
-      <c r="X24" s="28">
-        <f t="shared" si="21"/>
+      <c r="Y24" s="28">
+        <f t="shared" si="28"/>
         <v>235</v>
       </c>
-      <c r="Y24" s="28">
-        <f t="shared" si="21"/>
+      <c r="Z24" s="28">
+        <f t="shared" si="28"/>
         <v>235</v>
       </c>
-      <c r="Z24" s="28">
-        <f t="shared" si="21"/>
+      <c r="AA24" s="28">
+        <f t="shared" si="28"/>
         <v>235</v>
       </c>
-      <c r="AA24" s="28">
-        <f t="shared" ref="AA24" si="23">AA4+AA7+AA10+AA13+AA16+AA19+AA22</f>
+      <c r="AB24" s="28">
+        <f t="shared" ref="AB24" si="31">AB4+AB7+AB10+AB13+AB16+AB19+AB22</f>
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:Z25" si="24">B24/7</f>
+        <f t="shared" ref="B25:AA25" si="32">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>28.571428571428573</v>
       </c>
       <c r="D25" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>28.571428571428573</v>
       </c>
       <c r="E25" s="45">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="E25" si="33">E24/7</f>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="F25" s="45">
+        <f t="shared" si="32"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="F25" s="45">
-        <f t="shared" si="24"/>
+      <c r="G25" s="45">
+        <f t="shared" si="32"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="G25" s="45">
-        <f t="shared" si="24"/>
+      <c r="H25" s="45">
+        <f t="shared" si="32"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="H25" s="45">
-        <f t="shared" si="24"/>
+      <c r="I25" s="45">
+        <f t="shared" si="32"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="I25" s="45">
-        <f t="shared" si="24"/>
+      <c r="J25" s="45">
+        <f t="shared" si="32"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="J25" s="45">
-        <f t="shared" ref="J25" si="25">J24/7</f>
+      <c r="K25" s="45">
+        <f t="shared" ref="K25" si="34">K24/7</f>
         <v>24.285714285714285</v>
       </c>
-      <c r="K25" s="45">
-        <f t="shared" si="24"/>
+      <c r="L25" s="45">
+        <f t="shared" si="32"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="L25" s="45">
-        <f t="shared" si="24"/>
+      <c r="M25" s="45">
+        <f t="shared" si="32"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="M25" s="45">
-        <f t="shared" si="24"/>
+      <c r="N25" s="45">
+        <f t="shared" si="32"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="N25" s="45">
-        <f t="shared" si="24"/>
+      <c r="O25" s="45">
+        <f t="shared" si="32"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="O25" s="45">
-        <f t="shared" si="24"/>
+      <c r="P25" s="45">
+        <f t="shared" si="32"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="P25" s="45">
-        <f t="shared" si="24"/>
+      <c r="Q25" s="45">
+        <f t="shared" si="32"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="Q25" s="45">
-        <f t="shared" si="24"/>
+      <c r="R25" s="45">
+        <f t="shared" si="32"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="R25" s="45">
-        <f t="shared" si="24"/>
+      <c r="S25" s="45">
+        <f t="shared" si="32"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="S25" s="45">
-        <f t="shared" si="24"/>
+      <c r="T25" s="45">
+        <f t="shared" si="32"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="T25" s="45">
-        <f t="shared" si="24"/>
+      <c r="U25" s="45">
+        <f t="shared" si="32"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="U25" s="45">
-        <f t="shared" si="24"/>
+      <c r="V25" s="45">
+        <f t="shared" si="32"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="V25" s="45">
-        <f t="shared" si="24"/>
+      <c r="W25" s="45">
+        <f t="shared" si="32"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="W25" s="45">
-        <f t="shared" si="24"/>
+      <c r="X25" s="45">
+        <f t="shared" si="32"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="X25" s="45">
-        <f t="shared" si="24"/>
+      <c r="Y25" s="45">
+        <f t="shared" si="32"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="Y25" s="45">
-        <f t="shared" si="24"/>
+      <c r="Z25" s="45">
+        <f t="shared" si="32"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="Z25" s="45">
-        <f t="shared" si="24"/>
+      <c r="AA25" s="45">
+        <f t="shared" si="32"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AA25" s="45">
-        <f t="shared" ref="AA25" si="26">AA24/7</f>
+      <c r="AB25" s="45">
+        <f t="shared" ref="AB25" si="35">AB24/7</f>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E33C371-02C0-4965-8AA8-E5A45BB9D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3DE64-AAD1-401C-8CEE-F0DE1D195632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14625" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Warrior</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Warrior_Water_Elemental</t>
+  </si>
+  <si>
+    <t>Warrior_Defence</t>
   </si>
 </sst>
 </file>
@@ -3110,47 +3113,47 @@
         <v>25</v>
       </c>
       <c r="C2" s="10">
-        <f>'Resistance List'!F4</f>
+        <f>'Resistance List'!G4</f>
         <v>32</v>
       </c>
       <c r="D2" s="10">
-        <f>'Resistance List'!I4</f>
+        <f>'Resistance List'!J4</f>
         <v>20</v>
       </c>
       <c r="E2" s="10">
-        <f>'Resistance List'!K4</f>
+        <f>'Resistance List'!L4</f>
         <v>20</v>
       </c>
       <c r="F2" s="10">
-        <f>'Resistance List'!L4</f>
+        <f>'Resistance List'!M4</f>
         <v>37</v>
       </c>
       <c r="G2" s="10">
-        <f>'Resistance List'!Q4</f>
+        <f>'Resistance List'!R4</f>
         <v>30</v>
       </c>
       <c r="H2" s="10">
-        <f>'Resistance List'!R4</f>
+        <f>'Resistance List'!S4</f>
         <v>45</v>
       </c>
       <c r="I2" s="10">
-        <f>'Resistance List'!U4</f>
+        <f>'Resistance List'!V4</f>
         <v>25</v>
       </c>
       <c r="J2" s="10">
-        <f>'Resistance List'!X4</f>
+        <f>'Resistance List'!Y4</f>
         <v>35</v>
       </c>
       <c r="K2" s="10">
-        <f>'Resistance List'!Y4</f>
+        <f>'Resistance List'!Z4</f>
         <v>50</v>
       </c>
       <c r="L2" s="10">
-        <f>'Resistance List'!Z4</f>
+        <f>'Resistance List'!AA4</f>
         <v>35</v>
       </c>
       <c r="M2" s="10">
-        <f>'Resistance List'!AA4</f>
+        <f>'Resistance List'!AB4</f>
         <v>35</v>
       </c>
       <c r="N2" s="11"/>
@@ -3176,47 +3179,47 @@
         <v>25</v>
       </c>
       <c r="C3" s="10">
-        <f>'Resistance List'!F7</f>
+        <f>'Resistance List'!G7</f>
         <v>32</v>
       </c>
       <c r="D3" s="10">
-        <f>'Resistance List'!I7</f>
+        <f>'Resistance List'!J7</f>
         <v>20</v>
       </c>
       <c r="E3" s="10">
-        <f>'Resistance List'!K7</f>
+        <f>'Resistance List'!L7</f>
         <v>20</v>
       </c>
       <c r="F3" s="10">
-        <f>'Resistance List'!L7</f>
+        <f>'Resistance List'!M7</f>
         <v>37</v>
       </c>
       <c r="G3" s="10">
-        <f>'Resistance List'!Q7</f>
+        <f>'Resistance List'!R7</f>
         <v>30</v>
       </c>
       <c r="H3" s="10">
-        <f>'Resistance List'!R7</f>
+        <f>'Resistance List'!S7</f>
         <v>20</v>
       </c>
       <c r="I3" s="10">
-        <f>'Resistance List'!U7</f>
+        <f>'Resistance List'!V7</f>
         <v>40</v>
       </c>
       <c r="J3" s="10">
-        <f>'Resistance List'!X7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="10">
         <f>'Resistance List'!Y7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="10">
+        <f>'Resistance List'!Z7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="10">
-        <f>'Resistance List'!Z7</f>
+        <f>'Resistance List'!AA7</f>
         <v>50</v>
       </c>
       <c r="M3" s="10">
-        <f>'Resistance List'!AA7</f>
+        <f>'Resistance List'!AB7</f>
         <v>35</v>
       </c>
       <c r="N3" s="11"/>
@@ -3242,47 +3245,47 @@
         <v>25</v>
       </c>
       <c r="C4" s="10">
-        <f>'Resistance List'!F10</f>
+        <f>'Resistance List'!G10</f>
         <v>32</v>
       </c>
       <c r="D4" s="10">
-        <f>'Resistance List'!I10</f>
+        <f>'Resistance List'!J10</f>
         <v>20</v>
       </c>
       <c r="E4" s="10">
-        <f>'Resistance List'!K10</f>
+        <f>'Resistance List'!L10</f>
         <v>20</v>
       </c>
       <c r="F4" s="10">
-        <f>'Resistance List'!L10</f>
+        <f>'Resistance List'!M10</f>
         <v>37</v>
       </c>
       <c r="G4" s="10">
-        <f>'Resistance List'!Q10</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="10">
         <f>'Resistance List'!R10</f>
         <v>25</v>
       </c>
+      <c r="H4" s="10">
+        <f>'Resistance List'!S10</f>
+        <v>25</v>
+      </c>
       <c r="I4" s="10">
-        <f>'Resistance List'!U10</f>
+        <f>'Resistance List'!V10</f>
         <v>25</v>
       </c>
       <c r="J4" s="10">
-        <f>'Resistance List'!X10</f>
+        <f>'Resistance List'!Y10</f>
         <v>50</v>
       </c>
       <c r="K4" s="10">
-        <f>'Resistance List'!Y10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="10">
         <f>'Resistance List'!Z10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="10">
+        <f>'Resistance List'!AA10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="10">
-        <f>'Resistance List'!AA10</f>
+        <f>'Resistance List'!AB10</f>
         <v>25</v>
       </c>
       <c r="N4" s="11"/>
@@ -3308,47 +3311,47 @@
         <v>25</v>
       </c>
       <c r="C5" s="10">
-        <f>'Resistance List'!F13</f>
+        <f>'Resistance List'!G13</f>
         <v>35</v>
       </c>
       <c r="D5" s="10">
-        <f>'Resistance List'!I13</f>
+        <f>'Resistance List'!J13</f>
         <v>20</v>
       </c>
       <c r="E5" s="10">
-        <f>'Resistance List'!K13</f>
+        <f>'Resistance List'!L13</f>
         <v>20</v>
       </c>
       <c r="F5" s="10">
-        <f>'Resistance List'!L13</f>
+        <f>'Resistance List'!M13</f>
         <v>45</v>
       </c>
       <c r="G5" s="10">
-        <f>'Resistance List'!Q13</f>
+        <f>'Resistance List'!R13</f>
         <v>40</v>
       </c>
       <c r="H5" s="10">
-        <f>'Resistance List'!R13</f>
+        <f>'Resistance List'!S13</f>
         <v>45</v>
       </c>
       <c r="I5" s="10">
-        <f>'Resistance List'!U13</f>
+        <f>'Resistance List'!V13</f>
         <v>35</v>
       </c>
       <c r="J5" s="10">
-        <f>'Resistance List'!X13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="10">
         <f>'Resistance List'!Y13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="10">
         <f>'Resistance List'!Z13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="10">
+        <f>'Resistance List'!AA13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="10">
-        <f>'Resistance List'!AA13</f>
+        <f>'Resistance List'!AB13</f>
         <v>35</v>
       </c>
       <c r="N5" s="11"/>
@@ -3374,47 +3377,47 @@
         <v>25</v>
       </c>
       <c r="C6" s="10">
-        <f>'Resistance List'!F16</f>
+        <f>'Resistance List'!G16</f>
         <v>35</v>
       </c>
       <c r="D6" s="10">
-        <f>'Resistance List'!I16</f>
+        <f>'Resistance List'!J16</f>
         <v>20</v>
       </c>
       <c r="E6" s="10">
-        <f>'Resistance List'!K16</f>
+        <f>'Resistance List'!L16</f>
         <v>20</v>
       </c>
       <c r="F6" s="10">
-        <f>'Resistance List'!L16</f>
+        <f>'Resistance List'!M16</f>
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <f>'Resistance List'!Q16</f>
+        <f>'Resistance List'!R16</f>
         <v>50</v>
       </c>
       <c r="H6" s="10">
-        <f>'Resistance List'!R16</f>
+        <f>'Resistance List'!S16</f>
         <v>35</v>
       </c>
       <c r="I6" s="10">
-        <f>'Resistance List'!U16</f>
+        <f>'Resistance List'!V16</f>
         <v>40</v>
       </c>
       <c r="J6" s="10">
-        <f>'Resistance List'!X16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="10">
         <f>'Resistance List'!Y16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="10">
         <f>'Resistance List'!Z16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="10">
+        <f>'Resistance List'!AA16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="10">
-        <f>'Resistance List'!AA16</f>
+        <f>'Resistance List'!AB16</f>
         <v>30</v>
       </c>
       <c r="N6" s="11"/>
@@ -3440,47 +3443,47 @@
         <v>25</v>
       </c>
       <c r="C7" s="10">
-        <f>'Resistance List'!F19</f>
+        <f>'Resistance List'!G19</f>
         <v>25</v>
       </c>
       <c r="D7" s="10">
-        <f>'Resistance List'!I19</f>
+        <f>'Resistance List'!J19</f>
         <v>45</v>
       </c>
       <c r="E7" s="10">
-        <f>'Resistance List'!K19</f>
+        <f>'Resistance List'!L19</f>
         <v>45</v>
       </c>
       <c r="F7" s="10">
-        <f>'Resistance List'!L19</f>
+        <f>'Resistance List'!M19</f>
         <v>25</v>
       </c>
       <c r="G7" s="10">
-        <f>'Resistance List'!Q19</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="10">
         <f>'Resistance List'!R19</f>
         <v>40</v>
       </c>
+      <c r="H7" s="10">
+        <f>'Resistance List'!S19</f>
+        <v>40</v>
+      </c>
       <c r="I7" s="10">
-        <f>'Resistance List'!U19</f>
+        <f>'Resistance List'!V19</f>
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <f>'Resistance List'!X19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="10">
         <f>'Resistance List'!Y19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
         <f>'Resistance List'!Z19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="10">
+        <f>'Resistance List'!AA19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="10">
-        <f>'Resistance List'!AA19</f>
+        <f>'Resistance List'!AB19</f>
         <v>25</v>
       </c>
       <c r="N7" s="11"/>
@@ -3506,47 +3509,47 @@
         <v>25</v>
       </c>
       <c r="C8" s="10">
-        <f>'Resistance List'!F22</f>
+        <f>'Resistance List'!G22</f>
         <v>25</v>
       </c>
       <c r="D8" s="10">
-        <f>'Resistance List'!I22</f>
+        <f>'Resistance List'!J22</f>
         <v>25</v>
       </c>
       <c r="E8" s="10">
-        <f>'Resistance List'!K22</f>
+        <f>'Resistance List'!L22</f>
         <v>25</v>
       </c>
       <c r="F8" s="10">
-        <f>'Resistance List'!L22</f>
+        <f>'Resistance List'!M22</f>
         <v>30</v>
       </c>
       <c r="G8" s="10">
-        <f>'Resistance List'!Q22</f>
+        <f>'Resistance List'!R22</f>
         <v>25</v>
       </c>
       <c r="H8" s="10">
-        <f>'Resistance List'!R22</f>
+        <f>'Resistance List'!S22</f>
         <v>30</v>
       </c>
       <c r="I8" s="10">
-        <f>'Resistance List'!U22</f>
+        <f>'Resistance List'!V22</f>
         <v>25</v>
       </c>
       <c r="J8" s="10">
-        <f>'Resistance List'!X22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="10">
         <f>'Resistance List'!Y22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
         <f>'Resistance List'!Z22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="10">
+        <f>'Resistance List'!AA22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="10">
-        <f>'Resistance List'!AA22</f>
+        <f>'Resistance List'!AB22</f>
         <v>50</v>
       </c>
       <c r="N8" s="11"/>
@@ -31099,145 +31102,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="25.21875" style="1" customWidth="1"/>
-    <col min="9" max="11" width="30.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.33203125" style="1" customWidth="1"/>
-    <col min="13" max="17" width="32.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17" style="1" customWidth="1"/>
-    <col min="20" max="21" width="30.21875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="19.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.21875" style="1" customWidth="1"/>
-    <col min="25" max="27" width="12.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="12.6640625" style="1"/>
+    <col min="2" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.21875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="30.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" style="1" customWidth="1"/>
+    <col min="14" max="18" width="32.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="1" customWidth="1"/>
+    <col min="21" max="22" width="30.21875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="19.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.21875" style="1" customWidth="1"/>
+    <col min="26" max="28" width="12.6640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="23">
         <v>30</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
+        <v>30</v>
+      </c>
+      <c r="D2" s="24">
         <v>25</v>
       </c>
-      <c r="D2" s="24">
+      <c r="E2" s="24">
         <v>45</v>
       </c>
-      <c r="E2" s="24">
+      <c r="F2" s="24">
         <v>50</v>
-      </c>
-      <c r="F2" s="24">
-        <v>35</v>
       </c>
       <c r="G2" s="24">
         <v>35</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>35</v>
       </c>
-      <c r="I2" s="10">
-        <v>25</v>
+      <c r="I2" s="25">
+        <v>35</v>
       </c>
       <c r="J2" s="10">
         <v>25</v>
@@ -31245,8 +31251,8 @@
       <c r="K2" s="10">
         <v>25</v>
       </c>
-      <c r="L2" s="26">
-        <v>40</v>
+      <c r="L2" s="10">
+        <v>25</v>
       </c>
       <c r="M2" s="26">
         <v>40</v>
@@ -31260,11 +31266,11 @@
       <c r="P2" s="26">
         <v>40</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="26">
+        <v>40</v>
+      </c>
+      <c r="R2" s="27">
         <v>35</v>
-      </c>
-      <c r="R2" s="28">
-        <v>50</v>
       </c>
       <c r="S2" s="28">
         <v>50</v>
@@ -31273,22 +31279,22 @@
         <v>50</v>
       </c>
       <c r="U2" s="28">
+        <v>50</v>
+      </c>
+      <c r="V2" s="28">
         <v>30</v>
       </c>
-      <c r="V2" s="28">
+      <c r="W2" s="28">
         <v>35</v>
       </c>
-      <c r="W2" s="28">
+      <c r="X2" s="28">
         <v>30</v>
       </c>
-      <c r="X2" s="28">
+      <c r="Y2" s="28">
         <v>40</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Z2" s="28">
         <v>55</v>
-      </c>
-      <c r="Z2" s="28">
-        <v>40</v>
       </c>
       <c r="AA2" s="28">
         <v>40</v>
@@ -31296,34 +31302,37 @@
       <c r="AB2" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC2" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="30">
         <v>20</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
+        <v>20</v>
+      </c>
+      <c r="D3" s="31">
         <v>15</v>
       </c>
-      <c r="D3" s="31">
+      <c r="E3" s="31">
         <v>35</v>
       </c>
-      <c r="E3" s="31">
+      <c r="F3" s="31">
         <v>40</v>
-      </c>
-      <c r="F3" s="31">
-        <v>29</v>
       </c>
       <c r="G3" s="31">
         <v>29</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <v>29</v>
       </c>
-      <c r="I3" s="10">
-        <v>15</v>
+      <c r="I3" s="32">
+        <v>29</v>
       </c>
       <c r="J3" s="10">
         <v>15</v>
@@ -31331,8 +31340,8 @@
       <c r="K3" s="10">
         <v>15</v>
       </c>
-      <c r="L3" s="26">
-        <v>34</v>
+      <c r="L3" s="10">
+        <v>15</v>
       </c>
       <c r="M3" s="26">
         <v>34</v>
@@ -31346,11 +31355,11 @@
       <c r="P3" s="26">
         <v>34</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="26">
+        <v>34</v>
+      </c>
+      <c r="R3" s="30">
         <v>25</v>
-      </c>
-      <c r="R3" s="31">
-        <v>40</v>
       </c>
       <c r="S3" s="31">
         <v>40</v>
@@ -31359,22 +31368,22 @@
         <v>40</v>
       </c>
       <c r="U3" s="31">
+        <v>40</v>
+      </c>
+      <c r="V3" s="31">
         <v>20</v>
       </c>
-      <c r="V3" s="31">
+      <c r="W3" s="31">
         <v>25</v>
       </c>
-      <c r="W3" s="31">
+      <c r="X3" s="31">
         <v>20</v>
       </c>
-      <c r="X3" s="31">
+      <c r="Y3" s="31">
         <v>30</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Z3" s="31">
         <v>45</v>
-      </c>
-      <c r="Z3" s="31">
-        <v>30</v>
       </c>
       <c r="AA3" s="31">
         <v>30</v>
@@ -31382,30 +31391,33 @@
       <c r="AB3" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="33">
-        <f t="shared" ref="B4:AA4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:AB4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="33">
+        <f t="shared" ref="C4" si="1">(C2+C3)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D4" s="33">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E4" s="33">
-        <f t="shared" ref="E4" si="1">(E2+E3)/2</f>
+      <c r="F4" s="33">
+        <f t="shared" ref="F4" si="2">(F2+F3)/2</f>
         <v>45</v>
-      </c>
-      <c r="F4" s="33">
-        <f t="shared" si="0"/>
-        <v>32</v>
       </c>
       <c r="G4" s="33">
         <f t="shared" si="0"/>
@@ -31417,19 +31429,19 @@
       </c>
       <c r="I4" s="33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="J4" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K4" s="33">
-        <f t="shared" ref="K4" si="2">(K2+K3)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" ref="L4" si="3">(L2+L3)/2</f>
+        <v>20</v>
       </c>
       <c r="M4" s="33">
         <f t="shared" si="0"/>
@@ -31449,11 +31461,11 @@
       </c>
       <c r="Q4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R4" s="33">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" si="0"/>
@@ -31465,64 +31477,68 @@
       </c>
       <c r="U4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="V4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="W4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="X4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y4" s="33">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="AA4" s="34">
+        <v>50</v>
+      </c>
+      <c r="AA4" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AB4" s="34">
-        <f t="shared" ref="AB4" si="3">(AB2+AB3)/2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="34">
+        <f t="shared" ref="AC4" si="4">(AC2+AC3)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
       </c>
-      <c r="C5" s="24">
-        <v>25</v>
+      <c r="C5" s="23">
+        <v>30</v>
       </c>
       <c r="D5" s="24">
         <v>25</v>
       </c>
       <c r="E5" s="24">
+        <v>25</v>
+      </c>
+      <c r="F5" s="24">
         <v>20</v>
-      </c>
-      <c r="F5" s="24">
-        <v>35</v>
       </c>
       <c r="G5" s="24">
         <v>35</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="24">
         <v>35</v>
       </c>
-      <c r="I5" s="10">
-        <v>25</v>
+      <c r="I5" s="25">
+        <v>35</v>
       </c>
       <c r="J5" s="10">
         <v>25</v>
@@ -31530,8 +31546,8 @@
       <c r="K5" s="10">
         <v>25</v>
       </c>
-      <c r="L5" s="26">
-        <v>40</v>
+      <c r="L5" s="10">
+        <v>25</v>
       </c>
       <c r="M5" s="26">
         <v>40</v>
@@ -31545,11 +31561,11 @@
       <c r="P5" s="26">
         <v>40</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="26">
+        <v>40</v>
+      </c>
+      <c r="R5" s="23">
         <v>35</v>
-      </c>
-      <c r="R5" s="24">
-        <v>25</v>
       </c>
       <c r="S5" s="24">
         <v>25</v>
@@ -31558,31 +31574,34 @@
         <v>25</v>
       </c>
       <c r="U5" s="24">
+        <v>25</v>
+      </c>
+      <c r="V5" s="24">
         <v>45</v>
-      </c>
-      <c r="V5" s="24">
-        <v>35</v>
       </c>
       <c r="W5" s="24">
         <v>35</v>
       </c>
       <c r="X5" s="24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="24">
         <v>40</v>
       </c>
       <c r="Z5" s="24">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="24">
         <v>55</v>
-      </c>
-      <c r="AA5" s="24">
-        <v>40</v>
       </c>
       <c r="AB5" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>41</v>
       </c>
@@ -31590,16 +31609,16 @@
         <v>20</v>
       </c>
       <c r="C6" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="31">
         <v>15</v>
       </c>
       <c r="E6" s="31">
+        <v>15</v>
+      </c>
+      <c r="F6" s="31">
         <v>10</v>
-      </c>
-      <c r="F6" s="31">
-        <v>29</v>
       </c>
       <c r="G6" s="31">
         <v>29</v>
@@ -31607,8 +31626,8 @@
       <c r="H6" s="31">
         <v>29</v>
       </c>
-      <c r="I6" s="36">
-        <v>15</v>
+      <c r="I6" s="31">
+        <v>29</v>
       </c>
       <c r="J6" s="36">
         <v>15</v>
@@ -31616,8 +31635,8 @@
       <c r="K6" s="36">
         <v>15</v>
       </c>
-      <c r="L6" s="26">
-        <v>34</v>
+      <c r="L6" s="36">
+        <v>15</v>
       </c>
       <c r="M6" s="26">
         <v>34</v>
@@ -31631,11 +31650,11 @@
       <c r="P6" s="26">
         <v>34</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="26">
+        <v>34</v>
+      </c>
+      <c r="R6" s="30">
         <v>25</v>
-      </c>
-      <c r="R6" s="31">
-        <v>15</v>
       </c>
       <c r="S6" s="31">
         <v>15</v>
@@ -31644,158 +31663,165 @@
         <v>15</v>
       </c>
       <c r="U6" s="31">
+        <v>15</v>
+      </c>
+      <c r="V6" s="31">
         <v>35</v>
-      </c>
-      <c r="V6" s="31">
-        <v>25</v>
       </c>
       <c r="W6" s="31">
         <v>25</v>
       </c>
       <c r="X6" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y6" s="31">
         <v>30</v>
       </c>
       <c r="Z6" s="31">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="31">
         <v>45</v>
-      </c>
-      <c r="AA6" s="31">
-        <v>30</v>
       </c>
       <c r="AB6" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="38">
-        <f t="shared" ref="B7:AA7" si="4">(B5+B6)/2</f>
+        <f t="shared" ref="B7:AB7" si="5">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C7" si="6">(C5+C6)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D7" s="38">
-        <f t="shared" si="4"/>
+      <c r="E7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="E7" s="38">
-        <f t="shared" ref="E7" si="5">(E5+E6)/2</f>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="7">(F5+F6)/2</f>
         <v>15</v>
       </c>
-      <c r="F7" s="38">
-        <f t="shared" si="4"/>
+      <c r="G7" s="38">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="G7" s="38">
-        <f t="shared" si="4"/>
+      <c r="H7" s="38">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="H7" s="38">
-        <f t="shared" si="4"/>
+      <c r="I7" s="38">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="I7" s="38">
-        <f t="shared" si="4"/>
+      <c r="J7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J7" s="38">
-        <f t="shared" si="4"/>
+      <c r="K7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="K7" s="38">
-        <f t="shared" ref="K7" si="6">(K5+K6)/2</f>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="8">(L5+L6)/2</f>
         <v>20</v>
       </c>
-      <c r="L7" s="38">
-        <f t="shared" si="4"/>
+      <c r="M7" s="38">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="M7" s="38">
-        <f t="shared" si="4"/>
+      <c r="N7" s="38">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="N7" s="38">
-        <f t="shared" si="4"/>
+      <c r="O7" s="38">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="O7" s="38">
-        <f t="shared" si="4"/>
+      <c r="P7" s="38">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="P7" s="38">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="38">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="Q7" s="38">
-        <f t="shared" si="4"/>
+      <c r="R7" s="38">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="R7" s="38">
-        <f t="shared" si="4"/>
+      <c r="S7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="S7" s="38">
-        <f t="shared" si="4"/>
+      <c r="T7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="T7" s="38">
-        <f t="shared" si="4"/>
+      <c r="U7" s="38">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="U7" s="38">
-        <f t="shared" si="4"/>
+      <c r="V7" s="38">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="V7" s="38">
-        <f t="shared" si="4"/>
+      <c r="W7" s="38">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="W7" s="38">
-        <f t="shared" si="4"/>
+      <c r="X7" s="38">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="X7" s="38">
-        <f t="shared" si="4"/>
+      <c r="Y7" s="38">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="Y7" s="38">
-        <f t="shared" si="4"/>
+      <c r="Z7" s="38">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="Z7" s="38">
-        <f t="shared" si="4"/>
+      <c r="AA7" s="38">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="AA7" s="39">
-        <f t="shared" si="4"/>
+      <c r="AB7" s="39">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AB7" s="39">
-        <f t="shared" ref="AB7" si="7">(AB5+AB6)/2</f>
+      <c r="AC7" s="39">
+        <f t="shared" ref="AC7" si="9">(AC5+AC6)/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="23">
         <v>30</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
+        <v>30</v>
+      </c>
+      <c r="D8" s="24">
         <v>25</v>
       </c>
-      <c r="D8" s="24">
+      <c r="E8" s="24">
         <v>20</v>
-      </c>
-      <c r="E8" s="24">
-        <v>35</v>
       </c>
       <c r="F8" s="24">
         <v>35</v>
@@ -31807,7 +31833,7 @@
         <v>35</v>
       </c>
       <c r="I8" s="24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J8" s="24">
         <v>25</v>
@@ -31815,8 +31841,8 @@
       <c r="K8" s="24">
         <v>25</v>
       </c>
-      <c r="L8" s="26">
-        <v>40</v>
+      <c r="L8" s="24">
+        <v>25</v>
       </c>
       <c r="M8" s="26">
         <v>40</v>
@@ -31830,10 +31856,10 @@
       <c r="P8" s="26">
         <v>40</v>
       </c>
-      <c r="Q8" s="23">
-        <v>30</v>
-      </c>
-      <c r="R8" s="24">
+      <c r="Q8" s="26">
+        <v>40</v>
+      </c>
+      <c r="R8" s="23">
         <v>30</v>
       </c>
       <c r="S8" s="24">
@@ -31846,45 +31872,48 @@
         <v>30</v>
       </c>
       <c r="V8" s="24">
+        <v>30</v>
+      </c>
+      <c r="W8" s="24">
         <v>25</v>
       </c>
-      <c r="W8" s="24">
+      <c r="X8" s="24">
         <v>35</v>
       </c>
-      <c r="X8" s="24">
+      <c r="Y8" s="24">
         <v>55</v>
-      </c>
-      <c r="Y8" s="24">
-        <v>40</v>
       </c>
       <c r="Z8" s="24">
         <v>40</v>
       </c>
       <c r="AA8" s="24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB8" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="30">
         <v>20</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31">
         <v>15</v>
       </c>
-      <c r="D9" s="31">
+      <c r="E9" s="31">
         <v>10</v>
       </c>
-      <c r="E9" s="31">
+      <c r="F9" s="31">
         <v>25</v>
-      </c>
-      <c r="F9" s="31">
-        <v>29</v>
       </c>
       <c r="G9" s="31">
         <v>29</v>
@@ -31893,7 +31922,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="31">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J9" s="31">
         <v>15</v>
@@ -31901,8 +31930,8 @@
       <c r="K9" s="31">
         <v>15</v>
       </c>
-      <c r="L9" s="26">
-        <v>34</v>
+      <c r="L9" s="31">
+        <v>15</v>
       </c>
       <c r="M9" s="26">
         <v>34</v>
@@ -31916,10 +31945,10 @@
       <c r="P9" s="26">
         <v>34</v>
       </c>
-      <c r="Q9" s="30">
-        <v>20</v>
-      </c>
-      <c r="R9" s="31">
+      <c r="Q9" s="26">
+        <v>34</v>
+      </c>
+      <c r="R9" s="30">
         <v>20</v>
       </c>
       <c r="S9" s="31">
@@ -31932,158 +31961,165 @@
         <v>20</v>
       </c>
       <c r="V9" s="31">
+        <v>20</v>
+      </c>
+      <c r="W9" s="31">
         <v>15</v>
       </c>
-      <c r="W9" s="31">
+      <c r="X9" s="31">
         <v>25</v>
       </c>
-      <c r="X9" s="31">
+      <c r="Y9" s="31">
         <v>45</v>
-      </c>
-      <c r="Y9" s="31">
-        <v>30</v>
       </c>
       <c r="Z9" s="31">
         <v>30</v>
       </c>
       <c r="AA9" s="31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB9" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="38">
-        <f t="shared" ref="B10:AA10" si="8">(B8+B9)/2</f>
+        <f t="shared" ref="B10:AB10" si="10">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C10" si="11">(C8+C9)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="D10" s="38">
-        <f t="shared" si="8"/>
+      <c r="E10" s="38">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="E10" s="38">
-        <f t="shared" ref="E10" si="9">(E8+E9)/2</f>
+      <c r="F10" s="38">
+        <f t="shared" ref="F10" si="12">(F8+F9)/2</f>
         <v>30</v>
       </c>
-      <c r="F10" s="38">
-        <f t="shared" si="8"/>
+      <c r="G10" s="38">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="G10" s="38">
-        <f t="shared" si="8"/>
+      <c r="H10" s="38">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="H10" s="38">
-        <f t="shared" si="8"/>
+      <c r="I10" s="38">
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
-      <c r="I10" s="38">
-        <f t="shared" si="8"/>
+      <c r="J10" s="38">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="J10" s="38">
-        <f t="shared" si="8"/>
+      <c r="K10" s="38">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="K10" s="38">
-        <f t="shared" ref="K10" si="10">(K8+K9)/2</f>
+      <c r="L10" s="38">
+        <f t="shared" ref="L10" si="13">(L8+L9)/2</f>
         <v>20</v>
       </c>
-      <c r="L10" s="38">
-        <f t="shared" si="8"/>
+      <c r="M10" s="38">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="M10" s="38">
-        <f t="shared" si="8"/>
+      <c r="N10" s="38">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="N10" s="38">
-        <f t="shared" si="8"/>
+      <c r="O10" s="38">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="O10" s="38">
-        <f t="shared" si="8"/>
+      <c r="P10" s="38">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="P10" s="38">
-        <f t="shared" si="8"/>
+      <c r="Q10" s="38">
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
-      <c r="Q10" s="38">
-        <f t="shared" si="8"/>
+      <c r="R10" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="R10" s="38">
-        <f t="shared" si="8"/>
+      <c r="S10" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="S10" s="38">
-        <f t="shared" si="8"/>
+      <c r="T10" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="T10" s="38">
-        <f t="shared" si="8"/>
+      <c r="U10" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="U10" s="38">
-        <f t="shared" si="8"/>
+      <c r="V10" s="38">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="V10" s="38">
-        <f t="shared" si="8"/>
+      <c r="W10" s="38">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="W10" s="38">
-        <f t="shared" si="8"/>
+      <c r="X10" s="38">
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="X10" s="38">
-        <f t="shared" si="8"/>
+      <c r="Y10" s="38">
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="Y10" s="38">
-        <f t="shared" si="8"/>
+      <c r="Z10" s="38">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="Z10" s="38">
-        <f t="shared" si="8"/>
+      <c r="AA10" s="38">
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AA10" s="39">
-        <f t="shared" si="8"/>
+      <c r="AB10" s="39">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="AB10" s="39">
-        <f t="shared" ref="AB10" si="11">(AB8+AB9)/2</f>
+      <c r="AC10" s="39">
+        <f t="shared" ref="AC10" si="14">(AC8+AC9)/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="23">
         <v>30</v>
       </c>
-      <c r="C11" s="24">
-        <v>45</v>
+      <c r="C11" s="23">
+        <v>30</v>
       </c>
       <c r="D11" s="24">
         <v>45</v>
       </c>
       <c r="E11" s="24">
+        <v>45</v>
+      </c>
+      <c r="F11" s="24">
         <v>35</v>
-      </c>
-      <c r="F11" s="24">
-        <v>40</v>
       </c>
       <c r="G11" s="24">
         <v>40</v>
@@ -32092,7 +32128,7 @@
         <v>40</v>
       </c>
       <c r="I11" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J11" s="24">
         <v>25</v>
@@ -32101,7 +32137,7 @@
         <v>25</v>
       </c>
       <c r="L11" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M11" s="24">
         <v>50</v>
@@ -32116,10 +32152,10 @@
         <v>50</v>
       </c>
       <c r="Q11" s="24">
+        <v>50</v>
+      </c>
+      <c r="R11" s="24">
         <v>45</v>
-      </c>
-      <c r="R11" s="24">
-        <v>50</v>
       </c>
       <c r="S11" s="24">
         <v>50</v>
@@ -32128,16 +32164,16 @@
         <v>50</v>
       </c>
       <c r="U11" s="24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V11" s="24">
         <v>40</v>
       </c>
       <c r="W11" s="24">
+        <v>40</v>
+      </c>
+      <c r="X11" s="24">
         <v>45</v>
-      </c>
-      <c r="X11" s="24">
-        <v>40</v>
       </c>
       <c r="Y11" s="24">
         <v>40</v>
@@ -32151,8 +32187,11 @@
       <c r="AB11" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>45</v>
       </c>
@@ -32160,16 +32199,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D12" s="31">
         <v>35</v>
       </c>
       <c r="E12" s="31">
+        <v>35</v>
+      </c>
+      <c r="F12" s="31">
         <v>25</v>
-      </c>
-      <c r="F12" s="31">
-        <v>30</v>
       </c>
       <c r="G12" s="31">
         <v>30</v>
@@ -32178,7 +32217,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J12" s="31">
         <v>15</v>
@@ -32187,7 +32226,7 @@
         <v>15</v>
       </c>
       <c r="L12" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M12" s="31">
         <v>40</v>
@@ -32202,10 +32241,10 @@
         <v>40</v>
       </c>
       <c r="Q12" s="31">
+        <v>40</v>
+      </c>
+      <c r="R12" s="31">
         <v>35</v>
-      </c>
-      <c r="R12" s="31">
-        <v>40</v>
       </c>
       <c r="S12" s="31">
         <v>40</v>
@@ -32214,16 +32253,16 @@
         <v>40</v>
       </c>
       <c r="U12" s="31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="V12" s="31">
         <v>30</v>
       </c>
       <c r="W12" s="31">
+        <v>30</v>
+      </c>
+      <c r="X12" s="31">
         <v>35</v>
-      </c>
-      <c r="X12" s="31">
-        <v>30</v>
       </c>
       <c r="Y12" s="31">
         <v>30</v>
@@ -32237,138 +32276,145 @@
       <c r="AB12" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="38">
-        <f t="shared" ref="B13:AA13" si="12">(B11+B12)/2</f>
+        <f t="shared" ref="B13:AB13" si="15">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="C13" si="16">(C11+C12)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="D13" s="38">
-        <f t="shared" si="12"/>
+      <c r="E13" s="38">
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="E13" s="38">
-        <f t="shared" ref="E13" si="13">(E11+E12)/2</f>
+      <c r="F13" s="38">
+        <f t="shared" ref="F13" si="17">(F11+F12)/2</f>
         <v>30</v>
       </c>
-      <c r="F13" s="38">
-        <f t="shared" si="12"/>
+      <c r="G13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="G13" s="38">
-        <f t="shared" si="12"/>
+      <c r="H13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="H13" s="38">
-        <f t="shared" si="12"/>
+      <c r="I13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="I13" s="38">
-        <f t="shared" si="12"/>
+      <c r="J13" s="38">
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="J13" s="38">
-        <f t="shared" si="12"/>
+      <c r="K13" s="38">
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="K13" s="38">
-        <f t="shared" ref="K13" si="14">(K11+K12)/2</f>
+      <c r="L13" s="38">
+        <f t="shared" ref="L13" si="18">(L11+L12)/2</f>
         <v>20</v>
       </c>
-      <c r="L13" s="38">
-        <f t="shared" si="12"/>
+      <c r="M13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="M13" s="38">
-        <f t="shared" si="12"/>
+      <c r="N13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="N13" s="38">
-        <f t="shared" si="12"/>
+      <c r="O13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="O13" s="38">
-        <f t="shared" si="12"/>
+      <c r="P13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="P13" s="38">
-        <f t="shared" si="12"/>
+      <c r="Q13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="Q13" s="38">
-        <f t="shared" si="12"/>
+      <c r="R13" s="38">
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="R13" s="38">
-        <f t="shared" si="12"/>
+      <c r="S13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="S13" s="38">
-        <f t="shared" si="12"/>
+      <c r="T13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="T13" s="38">
-        <f t="shared" si="12"/>
+      <c r="U13" s="38">
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
-      <c r="U13" s="38">
-        <f t="shared" si="12"/>
+      <c r="V13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="V13" s="38">
-        <f t="shared" si="12"/>
+      <c r="W13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="W13" s="38">
-        <f t="shared" si="12"/>
+      <c r="X13" s="38">
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="X13" s="38">
-        <f t="shared" si="12"/>
+      <c r="Y13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="Y13" s="38">
-        <f t="shared" si="12"/>
+      <c r="Z13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="Z13" s="38">
-        <f t="shared" si="12"/>
+      <c r="AA13" s="38">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="AA13" s="39">
-        <f t="shared" si="12"/>
+      <c r="AB13" s="39">
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="AB13" s="39">
-        <f t="shared" ref="AB13" si="15">(AB11+AB12)/2</f>
+      <c r="AC13" s="39">
+        <f t="shared" ref="AC13" si="19">(AC11+AC12)/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="23">
         <v>30</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="23">
+        <v>30</v>
+      </c>
+      <c r="D14" s="24">
         <v>45</v>
       </c>
-      <c r="D14" s="24">
+      <c r="E14" s="24">
         <v>30</v>
       </c>
-      <c r="E14" s="24">
+      <c r="F14" s="24">
         <v>35</v>
-      </c>
-      <c r="F14" s="24">
-        <v>40</v>
       </c>
       <c r="G14" s="24">
         <v>40</v>
@@ -32377,7 +32423,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J14" s="24">
         <v>25</v>
@@ -32386,7 +32432,7 @@
         <v>25</v>
       </c>
       <c r="L14" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M14" s="24">
         <v>50</v>
@@ -32401,10 +32447,10 @@
         <v>50</v>
       </c>
       <c r="Q14" s="24">
+        <v>50</v>
+      </c>
+      <c r="R14" s="24">
         <v>55</v>
-      </c>
-      <c r="R14" s="24">
-        <v>40</v>
       </c>
       <c r="S14" s="24">
         <v>40</v>
@@ -32413,7 +32459,7 @@
         <v>40</v>
       </c>
       <c r="U14" s="24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V14" s="24">
         <v>45</v>
@@ -32422,7 +32468,7 @@
         <v>45</v>
       </c>
       <c r="X14" s="24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y14" s="24">
         <v>35</v>
@@ -32436,25 +32482,28 @@
       <c r="AB14" s="24">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="30">
         <v>20</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
+        <v>20</v>
+      </c>
+      <c r="D15" s="31">
         <v>35</v>
       </c>
-      <c r="D15" s="31">
+      <c r="E15" s="31">
         <v>20</v>
       </c>
-      <c r="E15" s="31">
+      <c r="F15" s="31">
         <v>25</v>
-      </c>
-      <c r="F15" s="31">
-        <v>30</v>
       </c>
       <c r="G15" s="31">
         <v>30</v>
@@ -32463,7 +32512,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J15" s="31">
         <v>15</v>
@@ -32472,7 +32521,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M15" s="31">
         <v>40</v>
@@ -32487,10 +32536,10 @@
         <v>40</v>
       </c>
       <c r="Q15" s="31">
+        <v>40</v>
+      </c>
+      <c r="R15" s="31">
         <v>45</v>
-      </c>
-      <c r="R15" s="31">
-        <v>30</v>
       </c>
       <c r="S15" s="31">
         <v>30</v>
@@ -32499,7 +32548,7 @@
         <v>30</v>
       </c>
       <c r="U15" s="31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V15" s="31">
         <v>35</v>
@@ -32508,7 +32557,7 @@
         <v>35</v>
       </c>
       <c r="X15" s="31">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y15" s="31">
         <v>25</v>
@@ -32522,138 +32571,145 @@
       <c r="AB15" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" ref="B16:AA16" si="16">(B14+B15)/2</f>
+        <f t="shared" ref="B16:AB16" si="20">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C16" si="21">(C14+C15)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D16" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="D16" s="38">
-        <f t="shared" si="16"/>
+      <c r="E16" s="38">
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="E16" s="38">
-        <f t="shared" ref="E16" si="17">(E14+E15)/2</f>
+      <c r="F16" s="38">
+        <f t="shared" ref="F16" si="22">(F14+F15)/2</f>
         <v>30</v>
       </c>
-      <c r="F16" s="38">
-        <f t="shared" si="16"/>
+      <c r="G16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="G16" s="38">
-        <f t="shared" si="16"/>
+      <c r="H16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="H16" s="38">
-        <f t="shared" si="16"/>
+      <c r="I16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="I16" s="38">
-        <f t="shared" si="16"/>
+      <c r="J16" s="38">
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="J16" s="38">
-        <f t="shared" si="16"/>
+      <c r="K16" s="38">
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
-      <c r="K16" s="38">
-        <f t="shared" ref="K16" si="18">(K14+K15)/2</f>
+      <c r="L16" s="38">
+        <f t="shared" ref="L16" si="23">(L14+L15)/2</f>
         <v>20</v>
       </c>
-      <c r="L16" s="38">
-        <f t="shared" si="16"/>
+      <c r="M16" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="M16" s="38">
-        <f t="shared" si="16"/>
+      <c r="N16" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="N16" s="38">
-        <f t="shared" si="16"/>
+      <c r="O16" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="O16" s="38">
-        <f t="shared" si="16"/>
+      <c r="P16" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="P16" s="38">
-        <f t="shared" si="16"/>
+      <c r="Q16" s="38">
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
-      <c r="Q16" s="38">
-        <f t="shared" si="16"/>
+      <c r="R16" s="38">
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="R16" s="38">
-        <f t="shared" si="16"/>
+      <c r="S16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="S16" s="38">
-        <f t="shared" si="16"/>
+      <c r="T16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="T16" s="38">
-        <f t="shared" si="16"/>
+      <c r="U16" s="38">
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
-      <c r="U16" s="38">
-        <f t="shared" si="16"/>
+      <c r="V16" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="V16" s="38">
-        <f t="shared" si="16"/>
+      <c r="W16" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="W16" s="38">
-        <f t="shared" si="16"/>
+      <c r="X16" s="38">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
-      <c r="X16" s="38">
-        <f t="shared" si="16"/>
+      <c r="Y16" s="38">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="Y16" s="38">
-        <f t="shared" si="16"/>
+      <c r="Z16" s="38">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="Z16" s="38">
-        <f t="shared" si="16"/>
+      <c r="AA16" s="38">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="AA16" s="39">
-        <f t="shared" si="16"/>
+      <c r="AB16" s="39">
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="AB16" s="39">
-        <f t="shared" ref="AB16" si="19">(AB14+AB15)/2</f>
+      <c r="AC16" s="39">
+        <f t="shared" ref="AC16" si="24">(AC14+AC15)/2</f>
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="23">
         <v>30</v>
       </c>
-      <c r="C17" s="24">
-        <v>45</v>
+      <c r="C17" s="23">
+        <v>30</v>
       </c>
       <c r="D17" s="24">
         <v>45</v>
       </c>
       <c r="E17" s="24">
+        <v>45</v>
+      </c>
+      <c r="F17" s="24">
         <v>20</v>
-      </c>
-      <c r="F17" s="24">
-        <v>30</v>
       </c>
       <c r="G17" s="24">
         <v>30</v>
@@ -32662,7 +32718,7 @@
         <v>30</v>
       </c>
       <c r="I17" s="24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J17" s="24">
         <v>50</v>
@@ -32671,7 +32727,7 @@
         <v>50</v>
       </c>
       <c r="L17" s="24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M17" s="24">
         <v>30</v>
@@ -32686,7 +32742,7 @@
         <v>30</v>
       </c>
       <c r="Q17" s="24">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="R17" s="24">
         <v>45</v>
@@ -32698,16 +32754,16 @@
         <v>45</v>
       </c>
       <c r="U17" s="24">
+        <v>45</v>
+      </c>
+      <c r="V17" s="24">
         <v>35</v>
       </c>
-      <c r="V17" s="24">
+      <c r="W17" s="24">
         <v>45</v>
       </c>
-      <c r="W17" s="24">
+      <c r="X17" s="24">
         <v>35</v>
-      </c>
-      <c r="X17" s="24">
-        <v>30</v>
       </c>
       <c r="Y17" s="24">
         <v>30</v>
@@ -32721,25 +32777,28 @@
       <c r="AB17" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="30">
         <v>20</v>
       </c>
-      <c r="C18" s="31">
-        <v>35</v>
+      <c r="C18" s="30">
+        <v>20</v>
       </c>
       <c r="D18" s="31">
         <v>35</v>
       </c>
       <c r="E18" s="31">
+        <v>35</v>
+      </c>
+      <c r="F18" s="31">
         <v>10</v>
-      </c>
-      <c r="F18" s="31">
-        <v>20</v>
       </c>
       <c r="G18" s="31">
         <v>20</v>
@@ -32748,7 +32807,7 @@
         <v>20</v>
       </c>
       <c r="I18" s="31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J18" s="31">
         <v>40</v>
@@ -32757,7 +32816,7 @@
         <v>40</v>
       </c>
       <c r="L18" s="31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M18" s="31">
         <v>20</v>
@@ -32772,7 +32831,7 @@
         <v>20</v>
       </c>
       <c r="Q18" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R18" s="31">
         <v>35</v>
@@ -32784,16 +32843,16 @@
         <v>35</v>
       </c>
       <c r="U18" s="31">
+        <v>35</v>
+      </c>
+      <c r="V18" s="31">
         <v>25</v>
       </c>
-      <c r="V18" s="31">
+      <c r="W18" s="31">
         <v>35</v>
       </c>
-      <c r="W18" s="31">
+      <c r="X18" s="31">
         <v>25</v>
-      </c>
-      <c r="X18" s="31">
-        <v>20</v>
       </c>
       <c r="Y18" s="31">
         <v>20</v>
@@ -32807,138 +32866,145 @@
       <c r="AB18" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" ref="B19:AA19" si="20">(B17+B18)/2</f>
+        <f t="shared" ref="B19:AB19" si="25">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="C19" si="26">(C17+C18)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="D19" s="38">
-        <f t="shared" si="20"/>
+      <c r="E19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="E19" s="38">
-        <f t="shared" ref="E19" si="21">(E17+E18)/2</f>
+      <c r="F19" s="38">
+        <f t="shared" ref="F19" si="27">(F17+F18)/2</f>
         <v>15</v>
       </c>
-      <c r="F19" s="38">
-        <f t="shared" si="20"/>
+      <c r="G19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="G19" s="38">
-        <f t="shared" si="20"/>
+      <c r="H19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="H19" s="38">
-        <f t="shared" si="20"/>
+      <c r="I19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="I19" s="38">
-        <f t="shared" si="20"/>
+      <c r="J19" s="38">
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
-      <c r="J19" s="38">
-        <f t="shared" si="20"/>
+      <c r="K19" s="38">
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
-      <c r="K19" s="38">
-        <f t="shared" ref="K19" si="22">(K17+K18)/2</f>
+      <c r="L19" s="38">
+        <f t="shared" ref="L19" si="28">(L17+L18)/2</f>
         <v>45</v>
       </c>
-      <c r="L19" s="38">
-        <f t="shared" si="20"/>
+      <c r="M19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="M19" s="38">
-        <f t="shared" si="20"/>
+      <c r="N19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="N19" s="38">
-        <f t="shared" si="20"/>
+      <c r="O19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="O19" s="38">
-        <f t="shared" si="20"/>
+      <c r="P19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="P19" s="38">
-        <f t="shared" si="20"/>
+      <c r="Q19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="Q19" s="38">
-        <f t="shared" si="20"/>
+      <c r="R19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="R19" s="38">
-        <f t="shared" si="20"/>
+      <c r="S19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="S19" s="38">
-        <f t="shared" si="20"/>
+      <c r="T19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="T19" s="38">
-        <f t="shared" si="20"/>
+      <c r="U19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="U19" s="38">
-        <f t="shared" si="20"/>
+      <c r="V19" s="38">
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
-      <c r="V19" s="38">
-        <f t="shared" si="20"/>
+      <c r="W19" s="38">
+        <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="W19" s="38">
-        <f t="shared" si="20"/>
+      <c r="X19" s="38">
+        <f t="shared" si="25"/>
         <v>30</v>
       </c>
-      <c r="X19" s="38">
-        <f t="shared" si="20"/>
+      <c r="Y19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="Y19" s="38">
-        <f t="shared" si="20"/>
+      <c r="Z19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="Z19" s="38">
-        <f t="shared" si="20"/>
+      <c r="AA19" s="38">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="AA19" s="39">
-        <f t="shared" si="20"/>
+      <c r="AB19" s="39">
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="AB19" s="39">
-        <f t="shared" ref="AB19" si="23">(AB17+AB18)/2</f>
+      <c r="AC19" s="39">
+        <f t="shared" ref="AC19" si="29">(AC17+AC18)/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="23">
         <v>30</v>
       </c>
-      <c r="C20" s="24">
-        <v>25</v>
+      <c r="C20" s="23">
+        <v>30</v>
       </c>
       <c r="D20" s="24">
         <v>25</v>
       </c>
       <c r="E20" s="24">
+        <v>25</v>
+      </c>
+      <c r="F20" s="24">
         <v>40</v>
-      </c>
-      <c r="F20" s="24">
-        <v>30</v>
       </c>
       <c r="G20" s="24">
         <v>30</v>
@@ -32956,7 +33022,7 @@
         <v>30</v>
       </c>
       <c r="L20" s="24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M20" s="24">
         <v>35</v>
@@ -32971,10 +33037,10 @@
         <v>35</v>
       </c>
       <c r="Q20" s="24">
+        <v>35</v>
+      </c>
+      <c r="R20" s="24">
         <v>30</v>
-      </c>
-      <c r="R20" s="24">
-        <v>35</v>
       </c>
       <c r="S20" s="24">
         <v>35</v>
@@ -32983,7 +33049,7 @@
         <v>35</v>
       </c>
       <c r="U20" s="24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V20" s="24">
         <v>30</v>
@@ -33001,13 +33067,16 @@
         <v>30</v>
       </c>
       <c r="AA20" s="24">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="24">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>51</v>
       </c>
@@ -33015,16 +33084,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21" s="31">
         <v>15</v>
       </c>
       <c r="E21" s="31">
+        <v>15</v>
+      </c>
+      <c r="F21" s="31">
         <v>30</v>
-      </c>
-      <c r="F21" s="31">
-        <v>20</v>
       </c>
       <c r="G21" s="31">
         <v>20</v>
@@ -33042,7 +33111,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M21" s="31">
         <v>25</v>
@@ -33057,10 +33126,10 @@
         <v>25</v>
       </c>
       <c r="Q21" s="31">
+        <v>25</v>
+      </c>
+      <c r="R21" s="31">
         <v>20</v>
-      </c>
-      <c r="R21" s="31">
-        <v>25</v>
       </c>
       <c r="S21" s="31">
         <v>25</v>
@@ -33069,7 +33138,7 @@
         <v>25</v>
       </c>
       <c r="U21" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V21" s="31">
         <v>20</v>
@@ -33087,126 +33156,133 @@
         <v>20</v>
       </c>
       <c r="AA21" s="31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="31">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="38">
-        <f t="shared" ref="B22:AA22" si="24">(B20+B21)/2</f>
+        <f t="shared" ref="B22:AB22" si="30">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="C22" si="31">(C20+C21)/2</f>
+        <v>25</v>
+      </c>
+      <c r="D22" s="38">
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
-      <c r="D22" s="38">
-        <f t="shared" si="24"/>
+      <c r="E22" s="38">
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
-      <c r="E22" s="38">
-        <f t="shared" ref="E22" si="25">(E20+E21)/2</f>
+      <c r="F22" s="38">
+        <f t="shared" ref="F22" si="32">(F20+F21)/2</f>
         <v>35</v>
       </c>
-      <c r="F22" s="38">
-        <f t="shared" si="24"/>
+      <c r="G22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="G22" s="38">
-        <f t="shared" si="24"/>
+      <c r="H22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="H22" s="38">
-        <f t="shared" si="24"/>
+      <c r="I22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="I22" s="38">
-        <f t="shared" si="24"/>
+      <c r="J22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="J22" s="38">
-        <f t="shared" si="24"/>
+      <c r="K22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="K22" s="38">
-        <f t="shared" ref="K22" si="26">(K20+K21)/2</f>
+      <c r="L22" s="38">
+        <f t="shared" ref="L22" si="33">(L20+L21)/2</f>
         <v>25</v>
       </c>
-      <c r="L22" s="38">
-        <f t="shared" si="24"/>
+      <c r="M22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="M22" s="38">
-        <f t="shared" si="24"/>
+      <c r="N22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="N22" s="38">
-        <f t="shared" si="24"/>
+      <c r="O22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="O22" s="38">
-        <f t="shared" si="24"/>
+      <c r="P22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="P22" s="38">
-        <f t="shared" si="24"/>
+      <c r="Q22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="Q22" s="38">
-        <f t="shared" si="24"/>
+      <c r="R22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="R22" s="38">
-        <f t="shared" si="24"/>
+      <c r="S22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="S22" s="38">
-        <f t="shared" si="24"/>
+      <c r="T22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="T22" s="38">
-        <f t="shared" si="24"/>
+      <c r="U22" s="38">
+        <f t="shared" si="30"/>
         <v>30</v>
       </c>
-      <c r="U22" s="38">
-        <f t="shared" si="24"/>
+      <c r="V22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="V22" s="38">
-        <f t="shared" si="24"/>
+      <c r="W22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="W22" s="38">
-        <f t="shared" si="24"/>
+      <c r="X22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="X22" s="38">
-        <f t="shared" si="24"/>
+      <c r="Y22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="Y22" s="38">
-        <f t="shared" si="24"/>
+      <c r="Z22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="Z22" s="38">
-        <f t="shared" si="24"/>
+      <c r="AA22" s="38">
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="AA22" s="39">
-        <f t="shared" si="24"/>
+      <c r="AB22" s="39">
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
-      <c r="AB22" s="39">
-        <f t="shared" ref="AB22" si="27">(AB20+AB21)/2</f>
+      <c r="AC22" s="39">
+        <f t="shared" ref="AC22" si="34">(AC20+AC21)/2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -33231,234 +33307,243 @@
       <c r="V23" s="41"/>
       <c r="W23" s="41"/>
       <c r="X23" s="41"/>
-      <c r="Y23" s="42"/>
+      <c r="Y23" s="41"/>
       <c r="Z23" s="42"/>
       <c r="AA23" s="42"/>
       <c r="AB23" s="42"/>
-    </row>
-    <row r="24" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC23" s="42"/>
+    </row>
+    <row r="24" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:AA24" si="28">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:AB24" si="35">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="C24" si="36">C4+C7+C10+C13+C16+C19+C22</f>
+        <v>175</v>
+      </c>
+      <c r="D24" s="28">
+        <f t="shared" si="35"/>
         <v>200</v>
       </c>
-      <c r="D24" s="28">
-        <f t="shared" si="28"/>
+      <c r="E24" s="28">
+        <f t="shared" si="35"/>
         <v>200</v>
       </c>
-      <c r="E24" s="28">
-        <f t="shared" ref="E24" si="29">E4+E7+E10+E13+E16+E19+E22</f>
+      <c r="F24" s="28">
+        <f t="shared" ref="F24" si="37">F4+F7+F10+F13+F16+F19+F22</f>
         <v>200</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" si="28"/>
+      <c r="G24" s="28">
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
-      <c r="G24" s="28">
-        <f t="shared" si="28"/>
+      <c r="H24" s="28">
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
-      <c r="H24" s="28">
-        <f t="shared" si="28"/>
+      <c r="I24" s="28">
+        <f t="shared" si="35"/>
         <v>216</v>
       </c>
-      <c r="I24" s="28">
-        <f t="shared" si="28"/>
+      <c r="J24" s="28">
+        <f t="shared" si="35"/>
         <v>170</v>
       </c>
-      <c r="J24" s="28">
-        <f t="shared" ref="J24:K24" si="30">J4+J7+J10+J13+J16+J19+J22</f>
+      <c r="K24" s="28">
+        <f t="shared" ref="K24:L24" si="38">K4+K7+K10+K13+K16+K19+K22</f>
         <v>170</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" si="30"/>
+      <c r="L24" s="28">
+        <f t="shared" si="38"/>
         <v>170</v>
       </c>
-      <c r="L24" s="28">
-        <f t="shared" si="28"/>
+      <c r="M24" s="28">
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
-      <c r="M24" s="28">
-        <f t="shared" si="28"/>
+      <c r="N24" s="28">
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
-      <c r="N24" s="28">
-        <f t="shared" si="28"/>
+      <c r="O24" s="28">
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
-      <c r="O24" s="28">
-        <f t="shared" si="28"/>
+      <c r="P24" s="28">
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
-      <c r="P24" s="28">
-        <f t="shared" si="28"/>
+      <c r="Q24" s="28">
+        <f t="shared" si="35"/>
         <v>256</v>
       </c>
-      <c r="Q24" s="28">
-        <f t="shared" si="28"/>
+      <c r="R24" s="28">
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
-      <c r="R24" s="28">
-        <f t="shared" si="28"/>
+      <c r="S24" s="28">
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
-      <c r="S24" s="28">
-        <f t="shared" si="28"/>
+      <c r="T24" s="28">
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
-      <c r="T24" s="28">
-        <f t="shared" si="28"/>
+      <c r="U24" s="28">
+        <f t="shared" si="35"/>
         <v>240</v>
       </c>
-      <c r="U24" s="28">
-        <f t="shared" si="28"/>
+      <c r="V24" s="28">
+        <f t="shared" si="35"/>
         <v>220</v>
       </c>
-      <c r="V24" s="28">
-        <f t="shared" si="28"/>
+      <c r="W24" s="28">
+        <f t="shared" si="35"/>
         <v>220</v>
       </c>
-      <c r="W24" s="28">
-        <f t="shared" si="28"/>
+      <c r="X24" s="28">
+        <f t="shared" si="35"/>
         <v>220</v>
       </c>
-      <c r="X24" s="28">
-        <f t="shared" si="28"/>
+      <c r="Y24" s="28">
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
-      <c r="Y24" s="28">
-        <f t="shared" si="28"/>
+      <c r="Z24" s="28">
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
-      <c r="Z24" s="28">
-        <f t="shared" si="28"/>
+      <c r="AA24" s="28">
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
-      <c r="AA24" s="28">
-        <f t="shared" si="28"/>
+      <c r="AB24" s="28">
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
-      <c r="AB24" s="28">
-        <f t="shared" ref="AB24" si="31">AB4+AB7+AB10+AB13+AB16+AB19+AB22</f>
+      <c r="AC24" s="28">
+        <f t="shared" ref="AC24" si="39">AC4+AC7+AC10+AC13+AC16+AC19+AC22</f>
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:AA25" si="32">B24/7</f>
+        <f t="shared" ref="B25:AB25" si="40">B24/7</f>
         <v>25</v>
       </c>
-      <c r="C25" s="45">
-        <f t="shared" si="32"/>
+      <c r="C25" s="28">
+        <f t="shared" ref="C25" si="41">C24/7</f>
+        <v>25</v>
+      </c>
+      <c r="D25" s="45">
+        <f t="shared" si="40"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="D25" s="45">
-        <f t="shared" si="32"/>
+      <c r="E25" s="45">
+        <f t="shared" si="40"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="E25" s="45">
-        <f t="shared" ref="E25" si="33">E24/7</f>
+      <c r="F25" s="45">
+        <f t="shared" ref="F25" si="42">F24/7</f>
         <v>28.571428571428573</v>
       </c>
-      <c r="F25" s="45">
-        <f t="shared" si="32"/>
+      <c r="G25" s="45">
+        <f t="shared" si="40"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="G25" s="45">
-        <f t="shared" si="32"/>
+      <c r="H25" s="45">
+        <f t="shared" si="40"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="H25" s="45">
-        <f t="shared" si="32"/>
+      <c r="I25" s="45">
+        <f t="shared" si="40"/>
         <v>30.857142857142858</v>
       </c>
-      <c r="I25" s="45">
-        <f t="shared" si="32"/>
+      <c r="J25" s="45">
+        <f t="shared" si="40"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="J25" s="45">
-        <f t="shared" si="32"/>
+      <c r="K25" s="45">
+        <f t="shared" si="40"/>
         <v>24.285714285714285</v>
       </c>
-      <c r="K25" s="45">
-        <f t="shared" ref="K25" si="34">K24/7</f>
+      <c r="L25" s="45">
+        <f t="shared" ref="L25" si="43">L24/7</f>
         <v>24.285714285714285</v>
       </c>
-      <c r="L25" s="45">
-        <f t="shared" si="32"/>
+      <c r="M25" s="45">
+        <f t="shared" si="40"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="M25" s="45">
-        <f t="shared" si="32"/>
+      <c r="N25" s="45">
+        <f t="shared" si="40"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="N25" s="45">
-        <f t="shared" si="32"/>
+      <c r="O25" s="45">
+        <f t="shared" si="40"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="O25" s="45">
-        <f t="shared" si="32"/>
+      <c r="P25" s="45">
+        <f t="shared" si="40"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="P25" s="45">
-        <f t="shared" si="32"/>
+      <c r="Q25" s="45">
+        <f t="shared" si="40"/>
         <v>36.571428571428569</v>
       </c>
-      <c r="Q25" s="45">
-        <f t="shared" si="32"/>
+      <c r="R25" s="45">
+        <f t="shared" si="40"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="R25" s="45">
-        <f t="shared" si="32"/>
+      <c r="S25" s="45">
+        <f t="shared" si="40"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="S25" s="45">
-        <f t="shared" si="32"/>
+      <c r="T25" s="45">
+        <f t="shared" si="40"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="T25" s="45">
-        <f t="shared" si="32"/>
+      <c r="U25" s="45">
+        <f t="shared" si="40"/>
         <v>34.285714285714285</v>
       </c>
-      <c r="U25" s="45">
-        <f t="shared" si="32"/>
+      <c r="V25" s="45">
+        <f t="shared" si="40"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="V25" s="45">
-        <f t="shared" si="32"/>
+      <c r="W25" s="45">
+        <f t="shared" si="40"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="W25" s="45">
-        <f t="shared" si="32"/>
+      <c r="X25" s="45">
+        <f t="shared" si="40"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="X25" s="45">
-        <f t="shared" si="32"/>
+      <c r="Y25" s="45">
+        <f t="shared" si="40"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="Y25" s="45">
-        <f t="shared" si="32"/>
+      <c r="Z25" s="45">
+        <f t="shared" si="40"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="Z25" s="45">
-        <f t="shared" si="32"/>
+      <c r="AA25" s="45">
+        <f t="shared" si="40"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AA25" s="45">
-        <f t="shared" si="32"/>
+      <c r="AB25" s="45">
+        <f t="shared" si="40"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AB25" s="45">
-        <f t="shared" ref="AB25" si="35">AB24/7</f>
+      <c r="AC25" s="45">
+        <f t="shared" ref="AC25" si="44">AC24/7</f>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B3DE64-AAD1-401C-8CEE-F0DE1D195632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859691C4-BA28-403B-BD2D-5C1C371D9DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14175" yWindow="-16440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bar" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Warrior_Comprehensiveness</t>
-  </si>
-  <si>
-    <t>Warrior_Skeleton</t>
   </si>
   <si>
     <t>Warrior_Void_Rambler</t>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Warrior_Defence</t>
+  </si>
+  <si>
+    <t>Warrior_Weapon_Master</t>
   </si>
 </sst>
 </file>
@@ -31105,14 +31105,13 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="27" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
@@ -31136,70 +31135,70 @@
         <v>19</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>36</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="Y1" s="21" t="s">
         <v>8</v>
@@ -31214,12 +31213,12 @@
         <v>11</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="23">
         <v>30</v>
@@ -31227,8 +31226,8 @@
       <c r="C2" s="23">
         <v>30</v>
       </c>
-      <c r="D2" s="24">
-        <v>25</v>
+      <c r="D2" s="23">
+        <v>30</v>
       </c>
       <c r="E2" s="24">
         <v>45</v>
@@ -31308,7 +31307,7 @@
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="30">
         <v>20</v>
@@ -31316,8 +31315,8 @@
       <c r="C3" s="30">
         <v>20</v>
       </c>
-      <c r="D3" s="31">
-        <v>15</v>
+      <c r="D3" s="30">
+        <v>20</v>
       </c>
       <c r="E3" s="31">
         <v>35</v>
@@ -31404,12 +31403,12 @@
         <v>25</v>
       </c>
       <c r="C4" s="33">
-        <f t="shared" ref="C4" si="1">(C2+C3)/2</f>
+        <f t="shared" ref="C4:D4" si="1">(C2+C3)/2</f>
         <v>25</v>
       </c>
       <c r="D4" s="33">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="E4" s="33">
         <f t="shared" si="0"/>
@@ -31514,7 +31513,7 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="23">
         <v>30</v>
@@ -31522,8 +31521,8 @@
       <c r="C5" s="23">
         <v>30</v>
       </c>
-      <c r="D5" s="24">
-        <v>25</v>
+      <c r="D5" s="23">
+        <v>30</v>
       </c>
       <c r="E5" s="24">
         <v>25</v>
@@ -31603,7 +31602,7 @@
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="31">
         <v>20</v>
@@ -31612,7 +31611,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" s="31">
         <v>15</v>
@@ -31699,12 +31698,12 @@
         <v>25</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" ref="C7" si="6">(C5+C6)/2</f>
+        <f t="shared" ref="C7:D7" si="6">(C5+C6)/2</f>
         <v>25</v>
       </c>
       <c r="D7" s="38">
-        <f t="shared" si="5"/>
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>25</v>
       </c>
       <c r="E7" s="38">
         <f t="shared" si="5"/>
@@ -31809,7 +31808,7 @@
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="23">
         <v>30</v>
@@ -31817,8 +31816,8 @@
       <c r="C8" s="23">
         <v>30</v>
       </c>
-      <c r="D8" s="24">
-        <v>25</v>
+      <c r="D8" s="23">
+        <v>30</v>
       </c>
       <c r="E8" s="24">
         <v>20</v>
@@ -31898,7 +31897,7 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="30">
         <v>20</v>
@@ -31906,8 +31905,8 @@
       <c r="C9" s="30">
         <v>20</v>
       </c>
-      <c r="D9" s="31">
-        <v>15</v>
+      <c r="D9" s="30">
+        <v>20</v>
       </c>
       <c r="E9" s="31">
         <v>10</v>
@@ -31994,12 +31993,12 @@
         <v>25</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" ref="C10" si="11">(C8+C9)/2</f>
+        <f t="shared" ref="C10:D10" si="11">(C8+C9)/2</f>
         <v>25</v>
       </c>
       <c r="D10" s="38">
-        <f t="shared" si="10"/>
-        <v>20</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="E10" s="38">
         <f t="shared" si="10"/>
@@ -32104,7 +32103,7 @@
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="23">
         <v>30</v>
@@ -32112,8 +32111,8 @@
       <c r="C11" s="23">
         <v>30</v>
       </c>
-      <c r="D11" s="24">
-        <v>45</v>
+      <c r="D11" s="23">
+        <v>30</v>
       </c>
       <c r="E11" s="24">
         <v>45</v>
@@ -32193,7 +32192,7 @@
     </row>
     <row r="12" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="31">
         <v>20</v>
@@ -32202,7 +32201,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E12" s="31">
         <v>35</v>
@@ -32289,12 +32288,12 @@
         <v>25</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" ref="C13" si="16">(C11+C12)/2</f>
+        <f t="shared" ref="C13:D13" si="16">(C11+C12)/2</f>
         <v>25</v>
       </c>
       <c r="D13" s="38">
-        <f t="shared" si="15"/>
-        <v>40</v>
+        <f t="shared" si="16"/>
+        <v>25</v>
       </c>
       <c r="E13" s="38">
         <f t="shared" si="15"/>
@@ -32399,7 +32398,7 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="23">
         <v>30</v>
@@ -32407,8 +32406,8 @@
       <c r="C14" s="23">
         <v>30</v>
       </c>
-      <c r="D14" s="24">
-        <v>45</v>
+      <c r="D14" s="23">
+        <v>30</v>
       </c>
       <c r="E14" s="24">
         <v>30</v>
@@ -32488,7 +32487,7 @@
     </row>
     <row r="15" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="30">
         <v>20</v>
@@ -32496,8 +32495,8 @@
       <c r="C15" s="30">
         <v>20</v>
       </c>
-      <c r="D15" s="31">
-        <v>35</v>
+      <c r="D15" s="30">
+        <v>20</v>
       </c>
       <c r="E15" s="31">
         <v>20</v>
@@ -32584,12 +32583,12 @@
         <v>25</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" ref="C16" si="21">(C14+C15)/2</f>
+        <f t="shared" ref="C16:D16" si="21">(C14+C15)/2</f>
         <v>25</v>
       </c>
       <c r="D16" s="38">
-        <f t="shared" si="20"/>
-        <v>40</v>
+        <f t="shared" si="21"/>
+        <v>25</v>
       </c>
       <c r="E16" s="38">
         <f t="shared" si="20"/>
@@ -32694,7 +32693,7 @@
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="23">
         <v>30</v>
@@ -32702,8 +32701,8 @@
       <c r="C17" s="23">
         <v>30</v>
       </c>
-      <c r="D17" s="24">
-        <v>45</v>
+      <c r="D17" s="23">
+        <v>30</v>
       </c>
       <c r="E17" s="24">
         <v>45</v>
@@ -32783,7 +32782,7 @@
     </row>
     <row r="18" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="30">
         <v>20</v>
@@ -32791,8 +32790,8 @@
       <c r="C18" s="30">
         <v>20</v>
       </c>
-      <c r="D18" s="31">
-        <v>35</v>
+      <c r="D18" s="30">
+        <v>20</v>
       </c>
       <c r="E18" s="31">
         <v>35</v>
@@ -32879,12 +32878,12 @@
         <v>25</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" ref="C19" si="26">(C17+C18)/2</f>
+        <f t="shared" ref="C19:D19" si="26">(C17+C18)/2</f>
         <v>25</v>
       </c>
       <c r="D19" s="38">
-        <f t="shared" si="25"/>
-        <v>40</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="E19" s="38">
         <f t="shared" si="25"/>
@@ -32989,7 +32988,7 @@
     </row>
     <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="23">
         <v>30</v>
@@ -32997,8 +32996,8 @@
       <c r="C20" s="23">
         <v>30</v>
       </c>
-      <c r="D20" s="24">
-        <v>25</v>
+      <c r="D20" s="23">
+        <v>30</v>
       </c>
       <c r="E20" s="24">
         <v>25</v>
@@ -33078,7 +33077,7 @@
     </row>
     <row r="21" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="31">
         <v>20</v>
@@ -33087,7 +33086,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="31">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E21" s="31">
         <v>15</v>
@@ -33174,12 +33173,12 @@
         <v>25</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" ref="C22" si="31">(C20+C21)/2</f>
+        <f t="shared" ref="C22:D22" si="31">(C20+C21)/2</f>
         <v>25</v>
       </c>
       <c r="D22" s="38">
-        <f t="shared" si="30"/>
-        <v>20</v>
+        <f t="shared" si="31"/>
+        <v>25</v>
       </c>
       <c r="E22" s="38">
         <f t="shared" si="30"/>
@@ -33315,19 +33314,19 @@
     </row>
     <row r="24" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="28">
         <f t="shared" ref="B24:AB24" si="35">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" ref="C24" si="36">C4+C7+C10+C13+C16+C19+C22</f>
+        <f t="shared" ref="C24:D24" si="36">C4+C7+C10+C13+C16+C19+C22</f>
         <v>175</v>
       </c>
       <c r="D24" s="28">
-        <f t="shared" si="35"/>
-        <v>200</v>
+        <f t="shared" si="36"/>
+        <v>175</v>
       </c>
       <c r="E24" s="28">
         <f t="shared" si="35"/>
@@ -33432,19 +33431,19 @@
     </row>
     <row r="25" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="28">
         <f t="shared" ref="B25:AB25" si="40">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" ref="C25" si="41">C24/7</f>
+        <f t="shared" ref="C25:D25" si="41">C24/7</f>
         <v>25</v>
       </c>
-      <c r="D25" s="45">
-        <f t="shared" si="40"/>
-        <v>28.571428571428573</v>
+      <c r="D25" s="28">
+        <f t="shared" si="41"/>
+        <v>25</v>
       </c>
       <c r="E25" s="45">
         <f t="shared" si="40"/>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859691C4-BA28-403B-BD2D-5C1C371D9DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD429BAC-5CA4-4D14-B9C6-36572EEE884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14175" yWindow="-16440" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>Warrior</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Warrior_Weapon_Master</t>
+  </si>
+  <si>
+    <t>Warrior_Skeleton</t>
   </si>
 </sst>
 </file>
@@ -3113,47 +3116,47 @@
         <v>25</v>
       </c>
       <c r="C2" s="10">
-        <f>'Resistance List'!G4</f>
+        <f>'Resistance List'!H4</f>
         <v>32</v>
       </c>
       <c r="D2" s="10">
-        <f>'Resistance List'!J4</f>
+        <f>'Resistance List'!K4</f>
         <v>20</v>
       </c>
       <c r="E2" s="10">
-        <f>'Resistance List'!L4</f>
+        <f>'Resistance List'!M4</f>
         <v>20</v>
       </c>
       <c r="F2" s="10">
-        <f>'Resistance List'!M4</f>
+        <f>'Resistance List'!N4</f>
         <v>37</v>
       </c>
       <c r="G2" s="10">
-        <f>'Resistance List'!R4</f>
+        <f>'Resistance List'!S4</f>
         <v>30</v>
       </c>
       <c r="H2" s="10">
-        <f>'Resistance List'!S4</f>
+        <f>'Resistance List'!T4</f>
         <v>45</v>
       </c>
       <c r="I2" s="10">
-        <f>'Resistance List'!V4</f>
+        <f>'Resistance List'!W4</f>
         <v>25</v>
       </c>
       <c r="J2" s="10">
-        <f>'Resistance List'!Y4</f>
+        <f>'Resistance List'!Z4</f>
         <v>35</v>
       </c>
       <c r="K2" s="10">
-        <f>'Resistance List'!Z4</f>
+        <f>'Resistance List'!AA4</f>
         <v>50</v>
       </c>
       <c r="L2" s="10">
-        <f>'Resistance List'!AA4</f>
+        <f>'Resistance List'!AB4</f>
         <v>35</v>
       </c>
       <c r="M2" s="10">
-        <f>'Resistance List'!AB4</f>
+        <f>'Resistance List'!AC4</f>
         <v>35</v>
       </c>
       <c r="N2" s="11"/>
@@ -3179,47 +3182,47 @@
         <v>25</v>
       </c>
       <c r="C3" s="10">
-        <f>'Resistance List'!G7</f>
+        <f>'Resistance List'!H7</f>
         <v>32</v>
       </c>
       <c r="D3" s="10">
-        <f>'Resistance List'!J7</f>
+        <f>'Resistance List'!K7</f>
         <v>20</v>
       </c>
       <c r="E3" s="10">
-        <f>'Resistance List'!L7</f>
+        <f>'Resistance List'!M7</f>
         <v>20</v>
       </c>
       <c r="F3" s="10">
-        <f>'Resistance List'!M7</f>
+        <f>'Resistance List'!N7</f>
         <v>37</v>
       </c>
       <c r="G3" s="10">
-        <f>'Resistance List'!R7</f>
+        <f>'Resistance List'!S7</f>
         <v>30</v>
       </c>
       <c r="H3" s="10">
-        <f>'Resistance List'!S7</f>
+        <f>'Resistance List'!T7</f>
         <v>20</v>
       </c>
       <c r="I3" s="10">
-        <f>'Resistance List'!V7</f>
+        <f>'Resistance List'!W7</f>
         <v>40</v>
       </c>
       <c r="J3" s="10">
-        <f>'Resistance List'!Y7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="10">
         <f>'Resistance List'!Z7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="10">
+        <f>'Resistance List'!AA7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="10">
-        <f>'Resistance List'!AA7</f>
+        <f>'Resistance List'!AB7</f>
         <v>50</v>
       </c>
       <c r="M3" s="10">
-        <f>'Resistance List'!AB7</f>
+        <f>'Resistance List'!AC7</f>
         <v>35</v>
       </c>
       <c r="N3" s="11"/>
@@ -3245,47 +3248,47 @@
         <v>25</v>
       </c>
       <c r="C4" s="10">
-        <f>'Resistance List'!G10</f>
+        <f>'Resistance List'!H10</f>
         <v>32</v>
       </c>
       <c r="D4" s="10">
-        <f>'Resistance List'!J10</f>
+        <f>'Resistance List'!K10</f>
         <v>20</v>
       </c>
       <c r="E4" s="10">
-        <f>'Resistance List'!L10</f>
+        <f>'Resistance List'!M10</f>
         <v>20</v>
       </c>
       <c r="F4" s="10">
-        <f>'Resistance List'!M10</f>
+        <f>'Resistance List'!N10</f>
         <v>37</v>
       </c>
       <c r="G4" s="10">
-        <f>'Resistance List'!R10</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="10">
         <f>'Resistance List'!S10</f>
         <v>25</v>
       </c>
+      <c r="H4" s="10">
+        <f>'Resistance List'!T10</f>
+        <v>25</v>
+      </c>
       <c r="I4" s="10">
-        <f>'Resistance List'!V10</f>
+        <f>'Resistance List'!W10</f>
         <v>25</v>
       </c>
       <c r="J4" s="10">
-        <f>'Resistance List'!Y10</f>
+        <f>'Resistance List'!Z10</f>
         <v>50</v>
       </c>
       <c r="K4" s="10">
-        <f>'Resistance List'!Z10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="10">
         <f>'Resistance List'!AA10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="10">
+        <f>'Resistance List'!AB10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="10">
-        <f>'Resistance List'!AB10</f>
+        <f>'Resistance List'!AC10</f>
         <v>25</v>
       </c>
       <c r="N4" s="11"/>
@@ -3311,47 +3314,47 @@
         <v>25</v>
       </c>
       <c r="C5" s="10">
-        <f>'Resistance List'!G13</f>
+        <f>'Resistance List'!H13</f>
         <v>35</v>
       </c>
       <c r="D5" s="10">
-        <f>'Resistance List'!J13</f>
+        <f>'Resistance List'!K13</f>
         <v>20</v>
       </c>
       <c r="E5" s="10">
-        <f>'Resistance List'!L13</f>
+        <f>'Resistance List'!M13</f>
         <v>20</v>
       </c>
       <c r="F5" s="10">
-        <f>'Resistance List'!M13</f>
+        <f>'Resistance List'!N13</f>
         <v>45</v>
       </c>
       <c r="G5" s="10">
-        <f>'Resistance List'!R13</f>
+        <f>'Resistance List'!S13</f>
         <v>40</v>
       </c>
       <c r="H5" s="10">
-        <f>'Resistance List'!S13</f>
+        <f>'Resistance List'!T13</f>
         <v>45</v>
       </c>
       <c r="I5" s="10">
-        <f>'Resistance List'!V13</f>
+        <f>'Resistance List'!W13</f>
         <v>35</v>
       </c>
       <c r="J5" s="10">
-        <f>'Resistance List'!Y13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="10">
         <f>'Resistance List'!Z13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="10">
         <f>'Resistance List'!AA13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="10">
+        <f>'Resistance List'!AB13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="10">
-        <f>'Resistance List'!AB13</f>
+        <f>'Resistance List'!AC13</f>
         <v>35</v>
       </c>
       <c r="N5" s="11"/>
@@ -3377,47 +3380,47 @@
         <v>25</v>
       </c>
       <c r="C6" s="10">
-        <f>'Resistance List'!G16</f>
+        <f>'Resistance List'!H16</f>
         <v>35</v>
       </c>
       <c r="D6" s="10">
-        <f>'Resistance List'!J16</f>
+        <f>'Resistance List'!K16</f>
         <v>20</v>
       </c>
       <c r="E6" s="10">
-        <f>'Resistance List'!L16</f>
+        <f>'Resistance List'!M16</f>
         <v>20</v>
       </c>
       <c r="F6" s="10">
-        <f>'Resistance List'!M16</f>
+        <f>'Resistance List'!N16</f>
         <v>45</v>
       </c>
       <c r="G6" s="10">
-        <f>'Resistance List'!R16</f>
+        <f>'Resistance List'!S16</f>
         <v>50</v>
       </c>
       <c r="H6" s="10">
-        <f>'Resistance List'!S16</f>
+        <f>'Resistance List'!T16</f>
         <v>35</v>
       </c>
       <c r="I6" s="10">
-        <f>'Resistance List'!V16</f>
+        <f>'Resistance List'!W16</f>
         <v>40</v>
       </c>
       <c r="J6" s="10">
-        <f>'Resistance List'!Y16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="10">
         <f>'Resistance List'!Z16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="10">
+      <c r="K6" s="10">
         <f>'Resistance List'!AA16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="10">
+        <f>'Resistance List'!AB16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="10">
-        <f>'Resistance List'!AB16</f>
+        <f>'Resistance List'!AC16</f>
         <v>30</v>
       </c>
       <c r="N6" s="11"/>
@@ -3443,47 +3446,47 @@
         <v>25</v>
       </c>
       <c r="C7" s="10">
-        <f>'Resistance List'!G19</f>
+        <f>'Resistance List'!H19</f>
         <v>25</v>
       </c>
       <c r="D7" s="10">
-        <f>'Resistance List'!J19</f>
+        <f>'Resistance List'!K19</f>
         <v>45</v>
       </c>
       <c r="E7" s="10">
-        <f>'Resistance List'!L19</f>
+        <f>'Resistance List'!M19</f>
         <v>45</v>
       </c>
       <c r="F7" s="10">
-        <f>'Resistance List'!M19</f>
+        <f>'Resistance List'!N19</f>
         <v>25</v>
       </c>
       <c r="G7" s="10">
-        <f>'Resistance List'!R19</f>
-        <v>40</v>
-      </c>
-      <c r="H7" s="10">
         <f>'Resistance List'!S19</f>
         <v>40</v>
       </c>
+      <c r="H7" s="10">
+        <f>'Resistance List'!T19</f>
+        <v>40</v>
+      </c>
       <c r="I7" s="10">
-        <f>'Resistance List'!V19</f>
+        <f>'Resistance List'!W19</f>
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <f>'Resistance List'!Y19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="10">
         <f>'Resistance List'!Z19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="10">
+      <c r="K7" s="10">
         <f>'Resistance List'!AA19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="10">
+        <f>'Resistance List'!AB19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="10">
-        <f>'Resistance List'!AB19</f>
+        <f>'Resistance List'!AC19</f>
         <v>25</v>
       </c>
       <c r="N7" s="11"/>
@@ -3509,47 +3512,47 @@
         <v>25</v>
       </c>
       <c r="C8" s="10">
-        <f>'Resistance List'!G22</f>
+        <f>'Resistance List'!H22</f>
         <v>25</v>
       </c>
       <c r="D8" s="10">
-        <f>'Resistance List'!J22</f>
+        <f>'Resistance List'!K22</f>
         <v>25</v>
       </c>
       <c r="E8" s="10">
-        <f>'Resistance List'!L22</f>
+        <f>'Resistance List'!M22</f>
         <v>25</v>
       </c>
       <c r="F8" s="10">
-        <f>'Resistance List'!M22</f>
+        <f>'Resistance List'!N22</f>
         <v>30</v>
       </c>
       <c r="G8" s="10">
-        <f>'Resistance List'!R22</f>
+        <f>'Resistance List'!S22</f>
         <v>25</v>
       </c>
       <c r="H8" s="10">
-        <f>'Resistance List'!S22</f>
+        <f>'Resistance List'!T22</f>
         <v>30</v>
       </c>
       <c r="I8" s="10">
-        <f>'Resistance List'!V22</f>
+        <f>'Resistance List'!W22</f>
         <v>25</v>
       </c>
       <c r="J8" s="10">
-        <f>'Resistance List'!Y22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="10">
         <f>'Resistance List'!Z22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="10">
+      <c r="K8" s="10">
         <f>'Resistance List'!AA22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="10">
+        <f>'Resistance List'!AB22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="10">
-        <f>'Resistance List'!AB22</f>
+        <f>'Resistance List'!AC22</f>
         <v>50</v>
       </c>
       <c r="N8" s="11"/>
@@ -31102,34 +31105,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="27" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.21875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="25.21875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="30.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" style="1" customWidth="1"/>
-    <col min="14" max="18" width="32.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.88671875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="1" customWidth="1"/>
-    <col min="21" max="22" width="30.21875" style="1" customWidth="1"/>
-    <col min="23" max="24" width="19.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" style="1" customWidth="1"/>
-    <col min="26" max="28" width="12.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="12.6640625" style="1"/>
+    <col min="2" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="25.21875" style="1" customWidth="1"/>
+    <col min="11" max="13" width="30.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.33203125" style="1" customWidth="1"/>
+    <col min="15" max="19" width="32.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="1" customWidth="1"/>
+    <col min="22" max="23" width="30.21875" style="1" customWidth="1"/>
+    <col min="24" max="25" width="19.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.21875" style="1" customWidth="1"/>
+    <col min="27" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="19" t="s">
         <v>19</v>
@@ -31141,82 +31144,85 @@
         <v>58</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>37</v>
       </c>
@@ -31229,23 +31235,23 @@
       <c r="D2" s="23">
         <v>30</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
+        <v>25</v>
+      </c>
+      <c r="F2" s="24">
         <v>45</v>
       </c>
-      <c r="F2" s="24">
+      <c r="G2" s="24">
         <v>50</v>
-      </c>
-      <c r="G2" s="24">
-        <v>35</v>
       </c>
       <c r="H2" s="24">
         <v>35</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="24">
         <v>35</v>
       </c>
-      <c r="J2" s="10">
-        <v>25</v>
+      <c r="J2" s="25">
+        <v>35</v>
       </c>
       <c r="K2" s="10">
         <v>25</v>
@@ -31253,8 +31259,8 @@
       <c r="L2" s="10">
         <v>25</v>
       </c>
-      <c r="M2" s="26">
-        <v>40</v>
+      <c r="M2" s="10">
+        <v>25</v>
       </c>
       <c r="N2" s="26">
         <v>40</v>
@@ -31268,11 +31274,11 @@
       <c r="Q2" s="26">
         <v>40</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="26">
+        <v>40</v>
+      </c>
+      <c r="S2" s="27">
         <v>35</v>
-      </c>
-      <c r="S2" s="28">
-        <v>50</v>
       </c>
       <c r="T2" s="28">
         <v>50</v>
@@ -31281,22 +31287,22 @@
         <v>50</v>
       </c>
       <c r="V2" s="28">
+        <v>50</v>
+      </c>
+      <c r="W2" s="28">
         <v>30</v>
       </c>
-      <c r="W2" s="28">
+      <c r="X2" s="28">
         <v>35</v>
       </c>
-      <c r="X2" s="28">
+      <c r="Y2" s="28">
         <v>30</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Z2" s="28">
         <v>40</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="AA2" s="28">
         <v>55</v>
-      </c>
-      <c r="AA2" s="28">
-        <v>40</v>
       </c>
       <c r="AB2" s="28">
         <v>40</v>
@@ -31304,8 +31310,11 @@
       <c r="AC2" s="28">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
@@ -31318,23 +31327,23 @@
       <c r="D3" s="30">
         <v>20</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
+        <v>15</v>
+      </c>
+      <c r="F3" s="31">
         <v>35</v>
       </c>
-      <c r="F3" s="31">
+      <c r="G3" s="31">
         <v>40</v>
-      </c>
-      <c r="G3" s="31">
-        <v>29</v>
       </c>
       <c r="H3" s="31">
         <v>29</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>29</v>
       </c>
-      <c r="J3" s="10">
-        <v>15</v>
+      <c r="J3" s="32">
+        <v>29</v>
       </c>
       <c r="K3" s="10">
         <v>15</v>
@@ -31342,8 +31351,8 @@
       <c r="L3" s="10">
         <v>15</v>
       </c>
-      <c r="M3" s="26">
-        <v>34</v>
+      <c r="M3" s="10">
+        <v>15</v>
       </c>
       <c r="N3" s="26">
         <v>34</v>
@@ -31357,11 +31366,11 @@
       <c r="Q3" s="26">
         <v>34</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="26">
+        <v>34</v>
+      </c>
+      <c r="S3" s="30">
         <v>25</v>
-      </c>
-      <c r="S3" s="31">
-        <v>40</v>
       </c>
       <c r="T3" s="31">
         <v>40</v>
@@ -31370,22 +31379,22 @@
         <v>40</v>
       </c>
       <c r="V3" s="31">
+        <v>40</v>
+      </c>
+      <c r="W3" s="31">
         <v>20</v>
       </c>
-      <c r="W3" s="31">
+      <c r="X3" s="31">
         <v>25</v>
       </c>
-      <c r="X3" s="31">
+      <c r="Y3" s="31">
         <v>20</v>
       </c>
-      <c r="Y3" s="31">
+      <c r="Z3" s="31">
         <v>30</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="AA3" s="31">
         <v>45</v>
-      </c>
-      <c r="AA3" s="31">
-        <v>30</v>
       </c>
       <c r="AB3" s="31">
         <v>30</v>
@@ -31393,17 +31402,20 @@
       <c r="AC3" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="33">
-        <f t="shared" ref="B4:AB4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:AC4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="33">
-        <f t="shared" ref="C4:D4" si="1">(C2+C3)/2</f>
+        <f t="shared" ref="C4:E4" si="1">(C2+C3)/2</f>
         <v>25</v>
       </c>
       <c r="D4" s="33">
@@ -31411,16 +31423,16 @@
         <v>25</v>
       </c>
       <c r="E4" s="33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="33">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F4" s="33">
-        <f t="shared" ref="F4" si="2">(F2+F3)/2</f>
+      <c r="G4" s="33">
+        <f t="shared" ref="G4" si="2">(G2+G3)/2</f>
         <v>45</v>
-      </c>
-      <c r="G4" s="33">
-        <f t="shared" si="0"/>
-        <v>32</v>
       </c>
       <c r="H4" s="33">
         <f t="shared" si="0"/>
@@ -31432,19 +31444,19 @@
       </c>
       <c r="J4" s="33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K4" s="33">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L4" s="33">
-        <f t="shared" ref="L4" si="3">(L2+L3)/2</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M4" s="33">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" ref="M4" si="3">(M2+M3)/2</f>
+        <v>20</v>
       </c>
       <c r="N4" s="33">
         <f t="shared" si="0"/>
@@ -31464,11 +31476,11 @@
       </c>
       <c r="R4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S4" s="33">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="T4" s="33">
         <f t="shared" si="0"/>
@@ -31480,38 +31492,42 @@
       </c>
       <c r="V4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="W4" s="33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="X4" s="33">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Z4" s="33">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AA4" s="33">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="AB4" s="34">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="33">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="AC4" s="34">
-        <f t="shared" ref="AC4" si="4">(AC2+AC3)/2</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD4" s="34">
+        <f t="shared" ref="AD4" si="4">(AD2+AD3)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -31524,23 +31540,23 @@
       <c r="D5" s="23">
         <v>30</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>25</v>
       </c>
       <c r="F5" s="24">
+        <v>25</v>
+      </c>
+      <c r="G5" s="24">
         <v>20</v>
-      </c>
-      <c r="G5" s="24">
-        <v>35</v>
       </c>
       <c r="H5" s="24">
         <v>35</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>35</v>
       </c>
-      <c r="J5" s="10">
-        <v>25</v>
+      <c r="J5" s="25">
+        <v>35</v>
       </c>
       <c r="K5" s="10">
         <v>25</v>
@@ -31548,8 +31564,8 @@
       <c r="L5" s="10">
         <v>25</v>
       </c>
-      <c r="M5" s="26">
-        <v>40</v>
+      <c r="M5" s="10">
+        <v>25</v>
       </c>
       <c r="N5" s="26">
         <v>40</v>
@@ -31563,11 +31579,11 @@
       <c r="Q5" s="26">
         <v>40</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="26">
+        <v>40</v>
+      </c>
+      <c r="S5" s="23">
         <v>35</v>
-      </c>
-      <c r="S5" s="24">
-        <v>25</v>
       </c>
       <c r="T5" s="24">
         <v>25</v>
@@ -31576,31 +31592,34 @@
         <v>25</v>
       </c>
       <c r="V5" s="24">
+        <v>25</v>
+      </c>
+      <c r="W5" s="24">
         <v>45</v>
-      </c>
-      <c r="W5" s="24">
-        <v>35</v>
       </c>
       <c r="X5" s="24">
         <v>35</v>
       </c>
       <c r="Y5" s="24">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z5" s="24">
         <v>40</v>
       </c>
       <c r="AA5" s="24">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="24">
         <v>55</v>
-      </c>
-      <c r="AB5" s="24">
-        <v>40</v>
       </c>
       <c r="AC5" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>40</v>
       </c>
@@ -31617,10 +31636,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="31">
+        <v>15</v>
+      </c>
+      <c r="G6" s="31">
         <v>10</v>
-      </c>
-      <c r="G6" s="31">
-        <v>29</v>
       </c>
       <c r="H6" s="31">
         <v>29</v>
@@ -31628,8 +31647,8 @@
       <c r="I6" s="31">
         <v>29</v>
       </c>
-      <c r="J6" s="36">
-        <v>15</v>
+      <c r="J6" s="31">
+        <v>29</v>
       </c>
       <c r="K6" s="36">
         <v>15</v>
@@ -31637,8 +31656,8 @@
       <c r="L6" s="36">
         <v>15</v>
       </c>
-      <c r="M6" s="26">
-        <v>34</v>
+      <c r="M6" s="36">
+        <v>15</v>
       </c>
       <c r="N6" s="26">
         <v>34</v>
@@ -31652,11 +31671,11 @@
       <c r="Q6" s="26">
         <v>34</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="26">
+        <v>34</v>
+      </c>
+      <c r="S6" s="30">
         <v>25</v>
-      </c>
-      <c r="S6" s="31">
-        <v>15</v>
       </c>
       <c r="T6" s="31">
         <v>15</v>
@@ -31665,40 +31684,43 @@
         <v>15</v>
       </c>
       <c r="V6" s="31">
+        <v>15</v>
+      </c>
+      <c r="W6" s="31">
         <v>35</v>
-      </c>
-      <c r="W6" s="31">
-        <v>25</v>
       </c>
       <c r="X6" s="31">
         <v>25</v>
       </c>
       <c r="Y6" s="31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="31">
         <v>30</v>
       </c>
       <c r="AA6" s="31">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="31">
         <v>45</v>
-      </c>
-      <c r="AB6" s="31">
-        <v>30</v>
       </c>
       <c r="AC6" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD6" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="38">
-        <f t="shared" ref="B7:AB7" si="5">(B5+B6)/2</f>
+        <f t="shared" ref="B7:AC7" si="5">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="38">
-        <f t="shared" ref="C7:D7" si="6">(C5+C6)/2</f>
+        <f t="shared" ref="C7:E7" si="6">(C5+C6)/2</f>
         <v>25</v>
       </c>
       <c r="D7" s="38">
@@ -31706,16 +31728,16 @@
         <v>25</v>
       </c>
       <c r="E7" s="38">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="38">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="F7" s="38">
-        <f t="shared" ref="F7" si="7">(F5+F6)/2</f>
+      <c r="G7" s="38">
+        <f t="shared" ref="G7" si="7">(G5+G6)/2</f>
         <v>15</v>
-      </c>
-      <c r="G7" s="38">
-        <f t="shared" si="5"/>
-        <v>32</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" si="5"/>
@@ -31727,19 +31749,19 @@
       </c>
       <c r="J7" s="38">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L7" s="38">
-        <f t="shared" ref="L7" si="8">(L5+L6)/2</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="M7" s="38">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" ref="M7" si="8">(M5+M6)/2</f>
+        <v>20</v>
       </c>
       <c r="N7" s="38">
         <f t="shared" si="5"/>
@@ -31759,11 +31781,11 @@
       </c>
       <c r="R7" s="38">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="S7" s="38">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="T7" s="38">
         <f t="shared" si="5"/>
@@ -31775,11 +31797,11 @@
       </c>
       <c r="V7" s="38">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="W7" s="38">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X7" s="38">
         <f t="shared" si="5"/>
@@ -31787,7 +31809,7 @@
       </c>
       <c r="Y7" s="38">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z7" s="38">
         <f t="shared" si="5"/>
@@ -31795,18 +31817,22 @@
       </c>
       <c r="AA7" s="38">
         <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AB7" s="38">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="AB7" s="39">
+      <c r="AC7" s="39">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="AC7" s="39">
-        <f t="shared" ref="AC7" si="9">(AC5+AC6)/2</f>
+      <c r="AD7" s="39">
+        <f t="shared" ref="AD7" si="9">(AD5+AD6)/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>41</v>
       </c>
@@ -31819,11 +31845,11 @@
       <c r="D8" s="23">
         <v>30</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
+        <v>25</v>
+      </c>
+      <c r="F8" s="24">
         <v>20</v>
-      </c>
-      <c r="F8" s="24">
-        <v>35</v>
       </c>
       <c r="G8" s="24">
         <v>35</v>
@@ -31835,7 +31861,7 @@
         <v>35</v>
       </c>
       <c r="J8" s="24">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K8" s="24">
         <v>25</v>
@@ -31843,8 +31869,8 @@
       <c r="L8" s="24">
         <v>25</v>
       </c>
-      <c r="M8" s="26">
-        <v>40</v>
+      <c r="M8" s="24">
+        <v>25</v>
       </c>
       <c r="N8" s="26">
         <v>40</v>
@@ -31858,10 +31884,10 @@
       <c r="Q8" s="26">
         <v>40</v>
       </c>
-      <c r="R8" s="23">
-        <v>30</v>
-      </c>
-      <c r="S8" s="24">
+      <c r="R8" s="26">
+        <v>40</v>
+      </c>
+      <c r="S8" s="23">
         <v>30</v>
       </c>
       <c r="T8" s="24">
@@ -31874,28 +31900,31 @@
         <v>30</v>
       </c>
       <c r="W8" s="24">
+        <v>30</v>
+      </c>
+      <c r="X8" s="24">
         <v>25</v>
       </c>
-      <c r="X8" s="24">
+      <c r="Y8" s="24">
         <v>35</v>
       </c>
-      <c r="Y8" s="24">
+      <c r="Z8" s="24">
         <v>55</v>
-      </c>
-      <c r="Z8" s="24">
-        <v>40</v>
       </c>
       <c r="AA8" s="24">
         <v>40</v>
       </c>
       <c r="AB8" s="24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD8" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>42</v>
       </c>
@@ -31908,14 +31937,14 @@
       <c r="D9" s="30">
         <v>20</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
+        <v>15</v>
+      </c>
+      <c r="F9" s="31">
         <v>10</v>
       </c>
-      <c r="F9" s="31">
+      <c r="G9" s="31">
         <v>25</v>
-      </c>
-      <c r="G9" s="31">
-        <v>29</v>
       </c>
       <c r="H9" s="31">
         <v>29</v>
@@ -31924,7 +31953,7 @@
         <v>29</v>
       </c>
       <c r="J9" s="31">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="K9" s="31">
         <v>15</v>
@@ -31932,8 +31961,8 @@
       <c r="L9" s="31">
         <v>15</v>
       </c>
-      <c r="M9" s="26">
-        <v>34</v>
+      <c r="M9" s="31">
+        <v>15</v>
       </c>
       <c r="N9" s="26">
         <v>34</v>
@@ -31947,10 +31976,10 @@
       <c r="Q9" s="26">
         <v>34</v>
       </c>
-      <c r="R9" s="30">
-        <v>20</v>
-      </c>
-      <c r="S9" s="31">
+      <c r="R9" s="26">
+        <v>34</v>
+      </c>
+      <c r="S9" s="30">
         <v>20</v>
       </c>
       <c r="T9" s="31">
@@ -31963,37 +31992,40 @@
         <v>20</v>
       </c>
       <c r="W9" s="31">
+        <v>20</v>
+      </c>
+      <c r="X9" s="31">
         <v>15</v>
       </c>
-      <c r="X9" s="31">
+      <c r="Y9" s="31">
         <v>25</v>
       </c>
-      <c r="Y9" s="31">
+      <c r="Z9" s="31">
         <v>45</v>
-      </c>
-      <c r="Z9" s="31">
-        <v>30</v>
       </c>
       <c r="AA9" s="31">
         <v>30</v>
       </c>
       <c r="AB9" s="31">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="38">
-        <f t="shared" ref="B10:AB10" si="10">(B8+B9)/2</f>
+        <f t="shared" ref="B10:AC10" si="10">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="38">
-        <f t="shared" ref="C10:D10" si="11">(C8+C9)/2</f>
+        <f t="shared" ref="C10:E10" si="11">(C8+C9)/2</f>
         <v>25</v>
       </c>
       <c r="D10" s="38">
@@ -32001,16 +32033,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="38">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="F10" s="38">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="F10" s="38">
-        <f t="shared" ref="F10" si="12">(F8+F9)/2</f>
+      <c r="G10" s="38">
+        <f t="shared" ref="G10" si="12">(G8+G9)/2</f>
         <v>30</v>
-      </c>
-      <c r="G10" s="38">
-        <f t="shared" si="10"/>
-        <v>32</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" si="10"/>
@@ -32022,19 +32054,19 @@
       </c>
       <c r="J10" s="38">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="L10" s="38">
-        <f t="shared" ref="L10" si="13">(L8+L9)/2</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="M10" s="38">
-        <f t="shared" si="10"/>
-        <v>37</v>
+        <f t="shared" ref="M10" si="13">(M8+M9)/2</f>
+        <v>20</v>
       </c>
       <c r="N10" s="38">
         <f t="shared" si="10"/>
@@ -32054,7 +32086,7 @@
       </c>
       <c r="R10" s="38">
         <f t="shared" si="10"/>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="S10" s="38">
         <f t="shared" si="10"/>
@@ -32074,34 +32106,38 @@
       </c>
       <c r="W10" s="38">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X10" s="38">
         <f t="shared" si="10"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y10" s="38">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z10" s="38">
         <f t="shared" si="10"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AA10" s="38">
         <f t="shared" si="10"/>
         <v>35</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="38">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="AC10" s="39">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="AC10" s="39">
-        <f t="shared" ref="AC10" si="14">(AC8+AC9)/2</f>
+      <c r="AD10" s="39">
+        <f t="shared" ref="AD10" si="14">(AD8+AD9)/2</f>
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>43</v>
       </c>
@@ -32114,14 +32150,14 @@
       <c r="D11" s="23">
         <v>30</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>45</v>
       </c>
       <c r="F11" s="24">
+        <v>45</v>
+      </c>
+      <c r="G11" s="24">
         <v>35</v>
-      </c>
-      <c r="G11" s="24">
-        <v>40</v>
       </c>
       <c r="H11" s="24">
         <v>40</v>
@@ -32130,7 +32166,7 @@
         <v>40</v>
       </c>
       <c r="J11" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K11" s="24">
         <v>25</v>
@@ -32139,7 +32175,7 @@
         <v>25</v>
       </c>
       <c r="M11" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N11" s="24">
         <v>50</v>
@@ -32154,10 +32190,10 @@
         <v>50</v>
       </c>
       <c r="R11" s="24">
+        <v>50</v>
+      </c>
+      <c r="S11" s="24">
         <v>45</v>
-      </c>
-      <c r="S11" s="24">
-        <v>50</v>
       </c>
       <c r="T11" s="24">
         <v>50</v>
@@ -32166,16 +32202,16 @@
         <v>50</v>
       </c>
       <c r="V11" s="24">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W11" s="24">
         <v>40</v>
       </c>
       <c r="X11" s="24">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="24">
         <v>45</v>
-      </c>
-      <c r="Y11" s="24">
-        <v>40</v>
       </c>
       <c r="Z11" s="24">
         <v>40</v>
@@ -32189,8 +32225,11 @@
       <c r="AC11" s="24">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>44</v>
       </c>
@@ -32207,10 +32246,10 @@
         <v>35</v>
       </c>
       <c r="F12" s="31">
+        <v>35</v>
+      </c>
+      <c r="G12" s="31">
         <v>25</v>
-      </c>
-      <c r="G12" s="31">
-        <v>30</v>
       </c>
       <c r="H12" s="31">
         <v>30</v>
@@ -32219,7 +32258,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K12" s="31">
         <v>15</v>
@@ -32228,7 +32267,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N12" s="31">
         <v>40</v>
@@ -32243,10 +32282,10 @@
         <v>40</v>
       </c>
       <c r="R12" s="31">
+        <v>40</v>
+      </c>
+      <c r="S12" s="31">
         <v>35</v>
-      </c>
-      <c r="S12" s="31">
-        <v>40</v>
       </c>
       <c r="T12" s="31">
         <v>40</v>
@@ -32255,16 +32294,16 @@
         <v>40</v>
       </c>
       <c r="V12" s="31">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W12" s="31">
         <v>30</v>
       </c>
       <c r="X12" s="31">
+        <v>30</v>
+      </c>
+      <c r="Y12" s="31">
         <v>35</v>
-      </c>
-      <c r="Y12" s="31">
-        <v>30</v>
       </c>
       <c r="Z12" s="31">
         <v>30</v>
@@ -32278,17 +32317,20 @@
       <c r="AC12" s="31">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD12" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="38">
-        <f t="shared" ref="B13:AB13" si="15">(B11+B12)/2</f>
+        <f t="shared" ref="B13:AC13" si="15">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="38">
-        <f t="shared" ref="C13:D13" si="16">(C11+C12)/2</f>
+        <f t="shared" ref="C13:E13" si="16">(C11+C12)/2</f>
         <v>25</v>
       </c>
       <c r="D13" s="38">
@@ -32296,16 +32338,16 @@
         <v>25</v>
       </c>
       <c r="E13" s="38">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="38">
         <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="F13" s="38">
-        <f t="shared" ref="F13" si="17">(F11+F12)/2</f>
+      <c r="G13" s="38">
+        <f t="shared" ref="G13" si="17">(G11+G12)/2</f>
         <v>30</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" si="15"/>
-        <v>35</v>
       </c>
       <c r="H13" s="38">
         <f t="shared" si="15"/>
@@ -32317,19 +32359,19 @@
       </c>
       <c r="J13" s="38">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="L13" s="38">
-        <f t="shared" ref="L13" si="18">(L11+L12)/2</f>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="M13" s="38">
-        <f t="shared" si="15"/>
-        <v>45</v>
+        <f t="shared" ref="M13" si="18">(M11+M12)/2</f>
+        <v>20</v>
       </c>
       <c r="N13" s="38">
         <f t="shared" si="15"/>
@@ -32349,11 +32391,11 @@
       </c>
       <c r="R13" s="38">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="S13" s="38">
         <f t="shared" si="15"/>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="T13" s="38">
         <f t="shared" si="15"/>
@@ -32365,7 +32407,7 @@
       </c>
       <c r="V13" s="38">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="W13" s="38">
         <f t="shared" si="15"/>
@@ -32373,11 +32415,11 @@
       </c>
       <c r="X13" s="38">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="38">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z13" s="38">
         <f t="shared" si="15"/>
@@ -32387,16 +32429,20 @@
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
-      <c r="AB13" s="39">
+      <c r="AB13" s="38">
         <f t="shared" si="15"/>
         <v>35</v>
       </c>
       <c r="AC13" s="39">
-        <f t="shared" ref="AC13" si="19">(AC11+AC12)/2</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="39">
+        <f t="shared" ref="AD13" si="19">(AD11+AD12)/2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>45</v>
       </c>
@@ -32409,14 +32455,14 @@
       <c r="D14" s="23">
         <v>30</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
+        <v>45</v>
+      </c>
+      <c r="F14" s="24">
         <v>30</v>
       </c>
-      <c r="F14" s="24">
+      <c r="G14" s="24">
         <v>35</v>
-      </c>
-      <c r="G14" s="24">
-        <v>40</v>
       </c>
       <c r="H14" s="24">
         <v>40</v>
@@ -32425,7 +32471,7 @@
         <v>40</v>
       </c>
       <c r="J14" s="24">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K14" s="24">
         <v>25</v>
@@ -32434,7 +32480,7 @@
         <v>25</v>
       </c>
       <c r="M14" s="24">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="N14" s="24">
         <v>50</v>
@@ -32449,10 +32495,10 @@
         <v>50</v>
       </c>
       <c r="R14" s="24">
+        <v>50</v>
+      </c>
+      <c r="S14" s="24">
         <v>55</v>
-      </c>
-      <c r="S14" s="24">
-        <v>40</v>
       </c>
       <c r="T14" s="24">
         <v>40</v>
@@ -32461,7 +32507,7 @@
         <v>40</v>
       </c>
       <c r="V14" s="24">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W14" s="24">
         <v>45</v>
@@ -32470,7 +32516,7 @@
         <v>45</v>
       </c>
       <c r="Y14" s="24">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z14" s="24">
         <v>35</v>
@@ -32484,8 +32530,11 @@
       <c r="AC14" s="24">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD14" s="24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>46</v>
       </c>
@@ -32498,14 +32547,14 @@
       <c r="D15" s="30">
         <v>20</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
+        <v>35</v>
+      </c>
+      <c r="F15" s="31">
         <v>20</v>
       </c>
-      <c r="F15" s="31">
+      <c r="G15" s="31">
         <v>25</v>
-      </c>
-      <c r="G15" s="31">
-        <v>30</v>
       </c>
       <c r="H15" s="31">
         <v>30</v>
@@ -32514,7 +32563,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K15" s="31">
         <v>15</v>
@@ -32523,7 +32572,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="31">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N15" s="31">
         <v>40</v>
@@ -32538,10 +32587,10 @@
         <v>40</v>
       </c>
       <c r="R15" s="31">
+        <v>40</v>
+      </c>
+      <c r="S15" s="31">
         <v>45</v>
-      </c>
-      <c r="S15" s="31">
-        <v>30</v>
       </c>
       <c r="T15" s="31">
         <v>30</v>
@@ -32550,7 +32599,7 @@
         <v>30</v>
       </c>
       <c r="V15" s="31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="W15" s="31">
         <v>35</v>
@@ -32559,7 +32608,7 @@
         <v>35</v>
       </c>
       <c r="Y15" s="31">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Z15" s="31">
         <v>25</v>
@@ -32573,17 +32622,20 @@
       <c r="AC15" s="31">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD15" s="31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" ref="B16:AB16" si="20">(B14+B15)/2</f>
+        <f t="shared" ref="B16:AC16" si="20">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="38">
-        <f t="shared" ref="C16:D16" si="21">(C14+C15)/2</f>
+        <f t="shared" ref="C16:E16" si="21">(C14+C15)/2</f>
         <v>25</v>
       </c>
       <c r="D16" s="38">
@@ -32591,16 +32643,16 @@
         <v>25</v>
       </c>
       <c r="E16" s="38">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="38">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="F16" s="38">
-        <f t="shared" ref="F16" si="22">(F14+F15)/2</f>
+      <c r="G16" s="38">
+        <f t="shared" ref="G16" si="22">(G14+G15)/2</f>
         <v>30</v>
-      </c>
-      <c r="G16" s="38">
-        <f t="shared" si="20"/>
-        <v>35</v>
       </c>
       <c r="H16" s="38">
         <f t="shared" si="20"/>
@@ -32612,19 +32664,19 @@
       </c>
       <c r="J16" s="38">
         <f t="shared" si="20"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K16" s="38">
         <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="L16" s="38">
-        <f t="shared" ref="L16" si="23">(L14+L15)/2</f>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="M16" s="38">
-        <f t="shared" si="20"/>
-        <v>45</v>
+        <f t="shared" ref="M16" si="23">(M14+M15)/2</f>
+        <v>20</v>
       </c>
       <c r="N16" s="38">
         <f t="shared" si="20"/>
@@ -32644,11 +32696,11 @@
       </c>
       <c r="R16" s="38">
         <f t="shared" si="20"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S16" s="38">
         <f t="shared" si="20"/>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="T16" s="38">
         <f t="shared" si="20"/>
@@ -32660,7 +32712,7 @@
       </c>
       <c r="V16" s="38">
         <f t="shared" si="20"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W16" s="38">
         <f t="shared" si="20"/>
@@ -32672,7 +32724,7 @@
       </c>
       <c r="Y16" s="38">
         <f t="shared" si="20"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Z16" s="38">
         <f t="shared" si="20"/>
@@ -32682,16 +32734,20 @@
         <f t="shared" si="20"/>
         <v>30</v>
       </c>
-      <c r="AB16" s="39">
+      <c r="AB16" s="38">
         <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="AC16" s="39">
-        <f t="shared" ref="AC16" si="24">(AC14+AC15)/2</f>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="39">
+        <f t="shared" ref="AD16" si="24">(AD14+AD15)/2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
@@ -32704,14 +32760,14 @@
       <c r="D17" s="23">
         <v>30</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>45</v>
       </c>
       <c r="F17" s="24">
+        <v>45</v>
+      </c>
+      <c r="G17" s="24">
         <v>20</v>
-      </c>
-      <c r="G17" s="24">
-        <v>30</v>
       </c>
       <c r="H17" s="24">
         <v>30</v>
@@ -32720,7 +32776,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="24">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K17" s="24">
         <v>50</v>
@@ -32729,7 +32785,7 @@
         <v>50</v>
       </c>
       <c r="M17" s="24">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N17" s="24">
         <v>30</v>
@@ -32744,7 +32800,7 @@
         <v>30</v>
       </c>
       <c r="R17" s="24">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="S17" s="24">
         <v>45</v>
@@ -32756,16 +32812,16 @@
         <v>45</v>
       </c>
       <c r="V17" s="24">
+        <v>45</v>
+      </c>
+      <c r="W17" s="24">
         <v>35</v>
       </c>
-      <c r="W17" s="24">
+      <c r="X17" s="24">
         <v>45</v>
       </c>
-      <c r="X17" s="24">
+      <c r="Y17" s="24">
         <v>35</v>
-      </c>
-      <c r="Y17" s="24">
-        <v>30</v>
       </c>
       <c r="Z17" s="24">
         <v>30</v>
@@ -32779,8 +32835,11 @@
       <c r="AC17" s="24">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>48</v>
       </c>
@@ -32793,14 +32852,14 @@
       <c r="D18" s="30">
         <v>20</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>35</v>
       </c>
       <c r="F18" s="31">
+        <v>35</v>
+      </c>
+      <c r="G18" s="31">
         <v>10</v>
-      </c>
-      <c r="G18" s="31">
-        <v>20</v>
       </c>
       <c r="H18" s="31">
         <v>20</v>
@@ -32809,7 +32868,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K18" s="31">
         <v>40</v>
@@ -32818,7 +32877,7 @@
         <v>40</v>
       </c>
       <c r="M18" s="31">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N18" s="31">
         <v>20</v>
@@ -32833,7 +32892,7 @@
         <v>20</v>
       </c>
       <c r="R18" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S18" s="31">
         <v>35</v>
@@ -32845,16 +32904,16 @@
         <v>35</v>
       </c>
       <c r="V18" s="31">
+        <v>35</v>
+      </c>
+      <c r="W18" s="31">
         <v>25</v>
       </c>
-      <c r="W18" s="31">
+      <c r="X18" s="31">
         <v>35</v>
       </c>
-      <c r="X18" s="31">
+      <c r="Y18" s="31">
         <v>25</v>
-      </c>
-      <c r="Y18" s="31">
-        <v>20</v>
       </c>
       <c r="Z18" s="31">
         <v>20</v>
@@ -32868,17 +32927,20 @@
       <c r="AC18" s="31">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" ref="B19:AB19" si="25">(B17+B18)/2</f>
+        <f t="shared" ref="B19:AC19" si="25">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="38">
-        <f t="shared" ref="C19:D19" si="26">(C17+C18)/2</f>
+        <f t="shared" ref="C19:E19" si="26">(C17+C18)/2</f>
         <v>25</v>
       </c>
       <c r="D19" s="38">
@@ -32886,16 +32948,16 @@
         <v>25</v>
       </c>
       <c r="E19" s="38">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="F19" s="38">
         <f t="shared" si="25"/>
         <v>40</v>
       </c>
-      <c r="F19" s="38">
-        <f t="shared" ref="F19" si="27">(F17+F18)/2</f>
+      <c r="G19" s="38">
+        <f t="shared" ref="G19" si="27">(G17+G18)/2</f>
         <v>15</v>
-      </c>
-      <c r="G19" s="38">
-        <f t="shared" si="25"/>
-        <v>25</v>
       </c>
       <c r="H19" s="38">
         <f t="shared" si="25"/>
@@ -32907,19 +32969,19 @@
       </c>
       <c r="J19" s="38">
         <f t="shared" si="25"/>
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K19" s="38">
         <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="L19" s="38">
-        <f t="shared" ref="L19" si="28">(L17+L18)/2</f>
+        <f t="shared" si="25"/>
         <v>45</v>
       </c>
       <c r="M19" s="38">
-        <f t="shared" si="25"/>
-        <v>25</v>
+        <f t="shared" ref="M19" si="28">(M17+M18)/2</f>
+        <v>45</v>
       </c>
       <c r="N19" s="38">
         <f t="shared" si="25"/>
@@ -32939,7 +33001,7 @@
       </c>
       <c r="R19" s="38">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="S19" s="38">
         <f t="shared" si="25"/>
@@ -32955,19 +33017,19 @@
       </c>
       <c r="V19" s="38">
         <f t="shared" si="25"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W19" s="38">
         <f t="shared" si="25"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X19" s="38">
         <f t="shared" si="25"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y19" s="38">
         <f t="shared" si="25"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z19" s="38">
         <f t="shared" si="25"/>
@@ -32977,16 +33039,20 @@
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
-      <c r="AB19" s="39">
+      <c r="AB19" s="38">
         <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="AC19" s="39">
-        <f t="shared" ref="AC19" si="29">(AC17+AC18)/2</f>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD19" s="39">
+        <f t="shared" ref="AD19" si="29">(AD17+AD18)/2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -32999,14 +33065,14 @@
       <c r="D20" s="23">
         <v>30</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>25</v>
       </c>
       <c r="F20" s="24">
+        <v>25</v>
+      </c>
+      <c r="G20" s="24">
         <v>40</v>
-      </c>
-      <c r="G20" s="24">
-        <v>30</v>
       </c>
       <c r="H20" s="24">
         <v>30</v>
@@ -33024,7 +33090,7 @@
         <v>30</v>
       </c>
       <c r="M20" s="24">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N20" s="24">
         <v>35</v>
@@ -33039,10 +33105,10 @@
         <v>35</v>
       </c>
       <c r="R20" s="24">
+        <v>35</v>
+      </c>
+      <c r="S20" s="24">
         <v>30</v>
-      </c>
-      <c r="S20" s="24">
-        <v>35</v>
       </c>
       <c r="T20" s="24">
         <v>35</v>
@@ -33051,7 +33117,7 @@
         <v>35</v>
       </c>
       <c r="V20" s="24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="W20" s="24">
         <v>30</v>
@@ -33069,13 +33135,16 @@
         <v>30</v>
       </c>
       <c r="AB20" s="24">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AC20" s="24">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>50</v>
       </c>
@@ -33092,10 +33161,10 @@
         <v>15</v>
       </c>
       <c r="F21" s="31">
+        <v>15</v>
+      </c>
+      <c r="G21" s="31">
         <v>30</v>
-      </c>
-      <c r="G21" s="31">
-        <v>20</v>
       </c>
       <c r="H21" s="31">
         <v>20</v>
@@ -33113,7 +33182,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N21" s="31">
         <v>25</v>
@@ -33128,10 +33197,10 @@
         <v>25</v>
       </c>
       <c r="R21" s="31">
+        <v>25</v>
+      </c>
+      <c r="S21" s="31">
         <v>20</v>
-      </c>
-      <c r="S21" s="31">
-        <v>25</v>
       </c>
       <c r="T21" s="31">
         <v>25</v>
@@ -33140,7 +33209,7 @@
         <v>25</v>
       </c>
       <c r="V21" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W21" s="31">
         <v>20</v>
@@ -33158,22 +33227,25 @@
         <v>20</v>
       </c>
       <c r="AB21" s="31">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AC21" s="31">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD21" s="31">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="38">
-        <f t="shared" ref="B22:AB22" si="30">(B20+B21)/2</f>
+        <f t="shared" ref="B22:AC22" si="30">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="38">
-        <f t="shared" ref="C22:D22" si="31">(C20+C21)/2</f>
+        <f t="shared" ref="C22:E22" si="31">(C20+C21)/2</f>
         <v>25</v>
       </c>
       <c r="D22" s="38">
@@ -33181,16 +33253,16 @@
         <v>25</v>
       </c>
       <c r="E22" s="38">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="38">
         <f t="shared" si="30"/>
         <v>20</v>
       </c>
-      <c r="F22" s="38">
-        <f t="shared" ref="F22" si="32">(F20+F21)/2</f>
+      <c r="G22" s="38">
+        <f t="shared" ref="G22" si="32">(G20+G21)/2</f>
         <v>35</v>
-      </c>
-      <c r="G22" s="38">
-        <f t="shared" si="30"/>
-        <v>25</v>
       </c>
       <c r="H22" s="38">
         <f t="shared" si="30"/>
@@ -33209,12 +33281,12 @@
         <v>25</v>
       </c>
       <c r="L22" s="38">
-        <f t="shared" ref="L22" si="33">(L20+L21)/2</f>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="M22" s="38">
-        <f t="shared" si="30"/>
-        <v>30</v>
+        <f t="shared" ref="M22" si="33">(M20+M21)/2</f>
+        <v>25</v>
       </c>
       <c r="N22" s="38">
         <f t="shared" si="30"/>
@@ -33234,11 +33306,11 @@
       </c>
       <c r="R22" s="38">
         <f t="shared" si="30"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="S22" s="38">
         <f t="shared" si="30"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="T22" s="38">
         <f t="shared" si="30"/>
@@ -33250,7 +33322,7 @@
       </c>
       <c r="V22" s="38">
         <f t="shared" si="30"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W22" s="38">
         <f t="shared" si="30"/>
@@ -33272,16 +33344,20 @@
         <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="AB22" s="39">
+      <c r="AB22" s="38">
+        <f t="shared" si="30"/>
+        <v>25</v>
+      </c>
+      <c r="AC22" s="39">
         <f t="shared" si="30"/>
         <v>50</v>
       </c>
-      <c r="AC22" s="39">
-        <f t="shared" ref="AC22" si="34">(AC20+AC21)/2</f>
+      <c r="AD22" s="39">
+        <f t="shared" ref="AD22" si="34">(AD20+AD21)/2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -33307,21 +33383,22 @@
       <c r="W23" s="41"/>
       <c r="X23" s="41"/>
       <c r="Y23" s="41"/>
-      <c r="Z23" s="42"/>
+      <c r="Z23" s="41"/>
       <c r="AA23" s="42"/>
       <c r="AB23" s="42"/>
       <c r="AC23" s="42"/>
-    </row>
-    <row r="24" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD23" s="42"/>
+    </row>
+    <row r="24" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="28">
-        <f t="shared" ref="B24:AB24" si="35">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:AC24" si="35">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="28">
-        <f t="shared" ref="C24:D24" si="36">C4+C7+C10+C13+C16+C19+C22</f>
+        <f t="shared" ref="C24:E24" si="36">C4+C7+C10+C13+C16+C19+C22</f>
         <v>175</v>
       </c>
       <c r="D24" s="28">
@@ -33329,16 +33406,16 @@
         <v>175</v>
       </c>
       <c r="E24" s="28">
+        <f t="shared" si="36"/>
+        <v>200</v>
+      </c>
+      <c r="F24" s="28">
         <f t="shared" si="35"/>
         <v>200</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" ref="F24" si="37">F4+F7+F10+F13+F16+F19+F22</f>
+      <c r="G24" s="28">
+        <f t="shared" ref="G24" si="37">G4+G7+G10+G13+G16+G19+G22</f>
         <v>200</v>
-      </c>
-      <c r="G24" s="28">
-        <f t="shared" si="35"/>
-        <v>216</v>
       </c>
       <c r="H24" s="28">
         <f t="shared" si="35"/>
@@ -33350,19 +33427,19 @@
       </c>
       <c r="J24" s="28">
         <f t="shared" si="35"/>
+        <v>216</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="35"/>
         <v>170</v>
       </c>
-      <c r="K24" s="28">
-        <f t="shared" ref="K24:L24" si="38">K4+K7+K10+K13+K16+K19+K22</f>
+      <c r="L24" s="28">
+        <f t="shared" ref="L24:M24" si="38">L4+L7+L10+L13+L16+L19+L22</f>
         <v>170</v>
       </c>
-      <c r="L24" s="28">
+      <c r="M24" s="28">
         <f t="shared" si="38"/>
         <v>170</v>
-      </c>
-      <c r="M24" s="28">
-        <f t="shared" si="35"/>
-        <v>256</v>
       </c>
       <c r="N24" s="28">
         <f t="shared" si="35"/>
@@ -33382,7 +33459,7 @@
       </c>
       <c r="R24" s="28">
         <f t="shared" si="35"/>
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="S24" s="28">
         <f t="shared" si="35"/>
@@ -33398,7 +33475,7 @@
       </c>
       <c r="V24" s="28">
         <f t="shared" si="35"/>
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="W24" s="28">
         <f t="shared" si="35"/>
@@ -33410,7 +33487,7 @@
       </c>
       <c r="Y24" s="28">
         <f t="shared" si="35"/>
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Z24" s="28">
         <f t="shared" si="35"/>
@@ -33425,20 +33502,24 @@
         <v>235</v>
       </c>
       <c r="AC24" s="28">
-        <f t="shared" ref="AC24" si="39">AC4+AC7+AC10+AC13+AC16+AC19+AC22</f>
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="28">
+        <f t="shared" ref="AD24" si="39">AD4+AD7+AD10+AD13+AD16+AD19+AD22</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="28">
-        <f t="shared" ref="B25:AB25" si="40">B24/7</f>
+        <f t="shared" ref="B25:AC25" si="40">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="28">
-        <f t="shared" ref="C25:D25" si="41">C24/7</f>
+        <f t="shared" ref="C25:E25" si="41">C24/7</f>
         <v>25</v>
       </c>
       <c r="D25" s="28">
@@ -33446,16 +33527,16 @@
         <v>25</v>
       </c>
       <c r="E25" s="45">
+        <f t="shared" si="41"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="F25" s="45">
         <f t="shared" si="40"/>
         <v>28.571428571428573</v>
       </c>
-      <c r="F25" s="45">
-        <f t="shared" ref="F25" si="42">F24/7</f>
+      <c r="G25" s="45">
+        <f t="shared" ref="G25" si="42">G24/7</f>
         <v>28.571428571428573</v>
-      </c>
-      <c r="G25" s="45">
-        <f t="shared" si="40"/>
-        <v>30.857142857142858</v>
       </c>
       <c r="H25" s="45">
         <f t="shared" si="40"/>
@@ -33467,19 +33548,19 @@
       </c>
       <c r="J25" s="45">
         <f t="shared" si="40"/>
-        <v>24.285714285714285</v>
+        <v>30.857142857142858</v>
       </c>
       <c r="K25" s="45">
         <f t="shared" si="40"/>
         <v>24.285714285714285</v>
       </c>
       <c r="L25" s="45">
-        <f t="shared" ref="L25" si="43">L24/7</f>
+        <f t="shared" si="40"/>
         <v>24.285714285714285</v>
       </c>
       <c r="M25" s="45">
-        <f t="shared" si="40"/>
-        <v>36.571428571428569</v>
+        <f t="shared" ref="M25" si="43">M24/7</f>
+        <v>24.285714285714285</v>
       </c>
       <c r="N25" s="45">
         <f t="shared" si="40"/>
@@ -33499,7 +33580,7 @@
       </c>
       <c r="R25" s="45">
         <f t="shared" si="40"/>
-        <v>34.285714285714285</v>
+        <v>36.571428571428569</v>
       </c>
       <c r="S25" s="45">
         <f t="shared" si="40"/>
@@ -33515,7 +33596,7 @@
       </c>
       <c r="V25" s="45">
         <f t="shared" si="40"/>
-        <v>31.428571428571427</v>
+        <v>34.285714285714285</v>
       </c>
       <c r="W25" s="45">
         <f t="shared" si="40"/>
@@ -33527,7 +33608,7 @@
       </c>
       <c r="Y25" s="45">
         <f t="shared" si="40"/>
-        <v>33.571428571428569</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="Z25" s="45">
         <f t="shared" si="40"/>
@@ -33542,7 +33623,11 @@
         <v>33.571428571428569</v>
       </c>
       <c r="AC25" s="45">
-        <f t="shared" ref="AC25" si="44">AC24/7</f>
+        <f t="shared" si="40"/>
+        <v>33.571428571428569</v>
+      </c>
+      <c r="AD25" s="45">
+        <f t="shared" ref="AD25" si="44">AD24/7</f>
         <v>33.571428571428569</v>
       </c>
     </row>

--- a/data/Hero_resistance.xlsx
+++ b/data/Hero_resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Projects\Legends of Champions Tactics_Git\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FD3B9-6A5A-4C09-80CA-16143055FF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9402693-89AD-459E-9F47-F00D56A8EEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Warrior</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Mage_Skeleton</t>
+  </si>
+  <si>
+    <t>Necromancer_Bone_Master</t>
   </si>
 </sst>
 </file>
@@ -2216,27 +2219,27 @@
         <v>30</v>
       </c>
       <c r="H2" s="9">
-        <f>'Resistance List'!U4</f>
+        <f>'Resistance List'!V4</f>
         <v>45</v>
       </c>
       <c r="I2" s="9">
-        <f>'Resistance List'!X4</f>
+        <f>'Resistance List'!Y4</f>
         <v>25</v>
       </c>
       <c r="J2" s="9">
-        <f>'Resistance List'!AA4</f>
+        <f>'Resistance List'!AB4</f>
         <v>35</v>
       </c>
       <c r="K2" s="9">
-        <f>'Resistance List'!AB4</f>
+        <f>'Resistance List'!AC4</f>
         <v>50</v>
       </c>
       <c r="L2" s="9">
-        <f>'Resistance List'!AC4</f>
+        <f>'Resistance List'!AD4</f>
         <v>35</v>
       </c>
       <c r="M2" s="9">
-        <f>'Resistance List'!AD4</f>
+        <f>'Resistance List'!AE4</f>
         <v>35</v>
       </c>
       <c r="N2" s="10"/>
@@ -2282,27 +2285,27 @@
         <v>30</v>
       </c>
       <c r="H3" s="9">
-        <f>'Resistance List'!U7</f>
+        <f>'Resistance List'!V7</f>
         <v>20</v>
       </c>
       <c r="I3" s="9">
-        <f>'Resistance List'!X7</f>
+        <f>'Resistance List'!Y7</f>
         <v>40</v>
       </c>
       <c r="J3" s="9">
-        <f>'Resistance List'!AA7</f>
-        <v>35</v>
-      </c>
-      <c r="K3" s="9">
         <f>'Resistance List'!AB7</f>
         <v>35</v>
       </c>
+      <c r="K3" s="9">
+        <f>'Resistance List'!AC7</f>
+        <v>35</v>
+      </c>
       <c r="L3" s="9">
-        <f>'Resistance List'!AC7</f>
+        <f>'Resistance List'!AD7</f>
         <v>50</v>
       </c>
       <c r="M3" s="9">
-        <f>'Resistance List'!AD7</f>
+        <f>'Resistance List'!AE7</f>
         <v>35</v>
       </c>
       <c r="N3" s="10"/>
@@ -2348,27 +2351,27 @@
         <v>25</v>
       </c>
       <c r="H4" s="9">
-        <f>'Resistance List'!U10</f>
+        <f>'Resistance List'!V10</f>
         <v>25</v>
       </c>
       <c r="I4" s="9">
-        <f>'Resistance List'!X10</f>
+        <f>'Resistance List'!Y10</f>
         <v>25</v>
       </c>
       <c r="J4" s="9">
-        <f>'Resistance List'!AA10</f>
+        <f>'Resistance List'!AB10</f>
         <v>50</v>
       </c>
       <c r="K4" s="9">
-        <f>'Resistance List'!AB10</f>
-        <v>35</v>
-      </c>
-      <c r="L4" s="9">
         <f>'Resistance List'!AC10</f>
         <v>35</v>
       </c>
+      <c r="L4" s="9">
+        <f>'Resistance List'!AD10</f>
+        <v>35</v>
+      </c>
       <c r="M4" s="9">
-        <f>'Resistance List'!AD10</f>
+        <f>'Resistance List'!AE10</f>
         <v>25</v>
       </c>
       <c r="N4" s="10"/>
@@ -2414,27 +2417,27 @@
         <v>40</v>
       </c>
       <c r="H5" s="9">
-        <f>'Resistance List'!U13</f>
+        <f>'Resistance List'!V13</f>
         <v>45</v>
       </c>
       <c r="I5" s="9">
-        <f>'Resistance List'!X13</f>
+        <f>'Resistance List'!Y13</f>
         <v>35</v>
       </c>
       <c r="J5" s="9">
-        <f>'Resistance List'!AA13</f>
-        <v>35</v>
-      </c>
-      <c r="K5" s="9">
         <f>'Resistance List'!AB13</f>
         <v>35</v>
       </c>
-      <c r="L5" s="9">
+      <c r="K5" s="9">
         <f>'Resistance List'!AC13</f>
         <v>35</v>
       </c>
+      <c r="L5" s="9">
+        <f>'Resistance List'!AD13</f>
+        <v>35</v>
+      </c>
       <c r="M5" s="9">
-        <f>'Resistance List'!AD13</f>
+        <f>'Resistance List'!AE13</f>
         <v>35</v>
       </c>
       <c r="N5" s="10"/>
@@ -2480,27 +2483,27 @@
         <v>50</v>
       </c>
       <c r="H6" s="9">
-        <f>'Resistance List'!U16</f>
+        <f>'Resistance List'!V16</f>
         <v>35</v>
       </c>
       <c r="I6" s="9">
-        <f>'Resistance List'!X16</f>
+        <f>'Resistance List'!Y16</f>
         <v>40</v>
       </c>
       <c r="J6" s="9">
-        <f>'Resistance List'!AA16</f>
-        <v>30</v>
-      </c>
-      <c r="K6" s="9">
         <f>'Resistance List'!AB16</f>
         <v>30</v>
       </c>
-      <c r="L6" s="9">
+      <c r="K6" s="9">
         <f>'Resistance List'!AC16</f>
         <v>30</v>
       </c>
+      <c r="L6" s="9">
+        <f>'Resistance List'!AD16</f>
+        <v>30</v>
+      </c>
       <c r="M6" s="9">
-        <f>'Resistance List'!AD16</f>
+        <f>'Resistance List'!AE16</f>
         <v>30</v>
       </c>
       <c r="N6" s="10"/>
@@ -2546,27 +2549,27 @@
         <v>40</v>
       </c>
       <c r="H7" s="9">
-        <f>'Resistance List'!U19</f>
+        <f>'Resistance List'!V19</f>
         <v>40</v>
       </c>
       <c r="I7" s="9">
-        <f>'Resistance List'!X19</f>
+        <f>'Resistance List'!Y19</f>
         <v>30</v>
       </c>
       <c r="J7" s="9">
-        <f>'Resistance List'!AA19</f>
-        <v>25</v>
-      </c>
-      <c r="K7" s="9">
         <f>'Resistance List'!AB19</f>
         <v>25</v>
       </c>
-      <c r="L7" s="9">
+      <c r="K7" s="9">
         <f>'Resistance List'!AC19</f>
         <v>25</v>
       </c>
+      <c r="L7" s="9">
+        <f>'Resistance List'!AD19</f>
+        <v>25</v>
+      </c>
       <c r="M7" s="9">
-        <f>'Resistance List'!AD19</f>
+        <f>'Resistance List'!AE19</f>
         <v>25</v>
       </c>
       <c r="N7" s="10"/>
@@ -2612,27 +2615,27 @@
         <v>25</v>
       </c>
       <c r="H8" s="9">
-        <f>'Resistance List'!U22</f>
+        <f>'Resistance List'!V22</f>
         <v>30</v>
       </c>
       <c r="I8" s="9">
-        <f>'Resistance List'!X22</f>
+        <f>'Resistance List'!Y22</f>
         <v>25</v>
       </c>
       <c r="J8" s="9">
-        <f>'Resistance List'!AA22</f>
-        <v>25</v>
-      </c>
-      <c r="K8" s="9">
         <f>'Resistance List'!AB22</f>
         <v>25</v>
       </c>
-      <c r="L8" s="9">
+      <c r="K8" s="9">
         <f>'Resistance List'!AC22</f>
         <v>25</v>
       </c>
+      <c r="L8" s="9">
+        <f>'Resistance List'!AD22</f>
+        <v>25</v>
+      </c>
       <c r="M8" s="9">
-        <f>'Resistance List'!AD22</f>
+        <f>'Resistance List'!AE22</f>
         <v>50</v>
       </c>
       <c r="N8" s="10"/>
@@ -30437,13 +30440,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF1000"/>
+  <dimension ref="A1:AG1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11:AF13"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30459,7 +30462,7 @@
     <col min="16" max="19" width="32.88671875" customWidth="1"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.88671875" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
+    <col min="22" max="22" width="29.5546875" customWidth="1"/>
     <col min="23" max="24" width="30.21875" customWidth="1"/>
     <col min="25" max="26" width="19.6640625" customWidth="1"/>
     <col min="27" max="27" width="14.21875" customWidth="1"/>
@@ -30468,7 +30471,7 @@
     <col min="32" max="32" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>19</v>
@@ -30527,44 +30530,47 @@
       <c r="T1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AC1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>44</v>
       </c>
@@ -30625,8 +30631,8 @@
       <c r="T2" s="23">
         <v>35</v>
       </c>
-      <c r="U2" s="24">
-        <v>50</v>
+      <c r="U2" s="23">
+        <v>35</v>
       </c>
       <c r="V2" s="24">
         <v>50</v>
@@ -30635,22 +30641,22 @@
         <v>50</v>
       </c>
       <c r="X2" s="24">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="24">
         <v>30</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="Z2" s="24">
         <v>35</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AA2" s="24">
         <v>30</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AB2" s="24">
         <v>40</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AC2" s="24">
         <v>55</v>
-      </c>
-      <c r="AC2" s="24">
-        <v>40</v>
       </c>
       <c r="AD2" s="24">
         <v>40</v>
@@ -30658,11 +30664,14 @@
       <c r="AE2" s="24">
         <v>40</v>
       </c>
-      <c r="AF2" s="19">
+      <c r="AF2" s="24">
+        <v>40</v>
+      </c>
+      <c r="AG2" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
@@ -30723,8 +30732,8 @@
       <c r="T3" s="26">
         <v>25</v>
       </c>
-      <c r="U3" s="27">
-        <v>40</v>
+      <c r="U3" s="26">
+        <v>25</v>
       </c>
       <c r="V3" s="27">
         <v>40</v>
@@ -30733,22 +30742,22 @@
         <v>40</v>
       </c>
       <c r="X3" s="27">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="27">
         <v>20</v>
       </c>
-      <c r="Y3" s="27">
+      <c r="Z3" s="27">
         <v>25</v>
       </c>
-      <c r="Z3" s="27">
+      <c r="AA3" s="27">
         <v>20</v>
       </c>
-      <c r="AA3" s="27">
+      <c r="AB3" s="27">
         <v>30</v>
       </c>
-      <c r="AB3" s="27">
+      <c r="AC3" s="27">
         <v>45</v>
-      </c>
-      <c r="AC3" s="27">
-        <v>30</v>
       </c>
       <c r="AD3" s="27">
         <v>30</v>
@@ -30756,16 +30765,19 @@
       <c r="AE3" s="27">
         <v>30</v>
       </c>
-      <c r="AF3" s="26">
+      <c r="AF3" s="27">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="26">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="29">
-        <f t="shared" ref="B4:AE4" si="0">(B2+B3)/2</f>
+        <f t="shared" ref="B4:AF4" si="0">(B2+B3)/2</f>
         <v>25</v>
       </c>
       <c r="C4" s="29">
@@ -30841,8 +30853,8 @@
         <v>30</v>
       </c>
       <c r="U4" s="29">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" ref="U4" si="1">(U2+U3)/2</f>
+        <v>30</v>
       </c>
       <c r="V4" s="29">
         <f t="shared" si="0"/>
@@ -30854,29 +30866,29 @@
       </c>
       <c r="X4" s="29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="29">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z4" s="29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="29">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="29">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="AC4" s="29">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="AD4" s="30">
+        <v>50</v>
+      </c>
+      <c r="AD4" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -30884,12 +30896,16 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AF4" s="29">
-        <f t="shared" ref="AF4" si="1">(AF2+AF3)/2</f>
+      <c r="AF4" s="30">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AG4" s="29">
+        <f t="shared" ref="AG4" si="2">(AG2+AG3)/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>46</v>
       </c>
@@ -30950,8 +30966,8 @@
       <c r="T5" s="19">
         <v>35</v>
       </c>
-      <c r="U5" s="20">
-        <v>25</v>
+      <c r="U5" s="19">
+        <v>35</v>
       </c>
       <c r="V5" s="20">
         <v>25</v>
@@ -30960,34 +30976,37 @@
         <v>25</v>
       </c>
       <c r="X5" s="20">
+        <v>25</v>
+      </c>
+      <c r="Y5" s="20">
         <v>45</v>
-      </c>
-      <c r="Y5" s="20">
-        <v>35</v>
       </c>
       <c r="Z5" s="20">
         <v>35</v>
       </c>
       <c r="AA5" s="20">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="20">
         <v>40</v>
       </c>
       <c r="AC5" s="20">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="20">
         <v>55</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>40</v>
       </c>
       <c r="AE5" s="20">
         <v>40</v>
       </c>
-      <c r="AF5" s="19">
+      <c r="AF5" s="20">
+        <v>40</v>
+      </c>
+      <c r="AG5" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>47</v>
       </c>
@@ -31048,8 +31067,8 @@
       <c r="T6" s="26">
         <v>25</v>
       </c>
-      <c r="U6" s="27">
-        <v>15</v>
+      <c r="U6" s="26">
+        <v>25</v>
       </c>
       <c r="V6" s="27">
         <v>15</v>
@@ -31058,163 +31077,170 @@
         <v>15</v>
       </c>
       <c r="X6" s="27">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="27">
         <v>35</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>25</v>
       </c>
       <c r="Z6" s="27">
         <v>25</v>
       </c>
       <c r="AA6" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="27">
         <v>30</v>
       </c>
       <c r="AC6" s="27">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="27">
         <v>45</v>
-      </c>
-      <c r="AD6" s="27">
-        <v>30</v>
       </c>
       <c r="AE6" s="27">
         <v>30</v>
       </c>
       <c r="AF6" s="27">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="34">
-        <f t="shared" ref="B7:AE7" si="2">(B5+B6)/2</f>
+        <f t="shared" ref="B7:AF7" si="3">(B5+B6)/2</f>
         <v>25</v>
       </c>
       <c r="C7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="E7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="G7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="H7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="J7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="K7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="L7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="M7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="O7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="P7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="Q7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="R7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="S7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="T7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="U7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U7" si="4">(U5+U6)/2</f>
+        <v>30</v>
+      </c>
+      <c r="V7" s="34">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="V7" s="34">
-        <f t="shared" si="2"/>
+      <c r="W7" s="34">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="W7" s="34">
-        <f t="shared" si="2"/>
+      <c r="X7" s="34">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="X7" s="34">
-        <f t="shared" si="2"/>
+      <c r="Y7" s="34">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Y7" s="34">
-        <f t="shared" si="2"/>
+      <c r="Z7" s="34">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="Z7" s="34">
-        <f t="shared" si="2"/>
+      <c r="AA7" s="34">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="AA7" s="34">
-        <f t="shared" si="2"/>
+      <c r="AB7" s="34">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="AB7" s="34">
-        <f t="shared" si="2"/>
+      <c r="AC7" s="34">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="AC7" s="34">
-        <f t="shared" si="2"/>
+      <c r="AD7" s="34">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="AD7" s="35">
-        <f t="shared" si="2"/>
+      <c r="AE7" s="35">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="AE7" s="35">
-        <f t="shared" si="2"/>
+      <c r="AF7" s="35">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="AF7" s="34">
-        <f t="shared" ref="AF7" si="3">(AF5+AF6)/2</f>
+      <c r="AG7" s="34">
+        <f t="shared" ref="AG7" si="5">(AG5+AG6)/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>48</v>
       </c>
@@ -31275,7 +31301,7 @@
       <c r="T8" s="19">
         <v>30</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="19">
         <v>30</v>
       </c>
       <c r="V8" s="20">
@@ -31288,31 +31314,34 @@
         <v>30</v>
       </c>
       <c r="Y8" s="20">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="20">
         <v>25</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="AA8" s="20">
         <v>35</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AB8" s="20">
         <v>55</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>40</v>
       </c>
       <c r="AC8" s="20">
         <v>40</v>
       </c>
       <c r="AD8" s="20">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE8" s="20">
         <v>30</v>
       </c>
-      <c r="AF8" s="19">
+      <c r="AF8" s="20">
+        <v>30</v>
+      </c>
+      <c r="AG8" s="19">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>49</v>
       </c>
@@ -31373,7 +31402,7 @@
       <c r="T9" s="26">
         <v>20</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="26">
         <v>20</v>
       </c>
       <c r="V9" s="27">
@@ -31386,160 +31415,167 @@
         <v>20</v>
       </c>
       <c r="Y9" s="27">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="27">
         <v>15</v>
       </c>
-      <c r="Z9" s="27">
+      <c r="AA9" s="27">
         <v>25</v>
       </c>
-      <c r="AA9" s="27">
+      <c r="AB9" s="27">
         <v>45</v>
-      </c>
-      <c r="AB9" s="27">
-        <v>30</v>
       </c>
       <c r="AC9" s="27">
         <v>30</v>
       </c>
       <c r="AD9" s="27">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AE9" s="27">
         <v>20</v>
       </c>
-      <c r="AF9" s="26">
+      <c r="AF9" s="27">
+        <v>20</v>
+      </c>
+      <c r="AG9" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="34">
-        <f t="shared" ref="B10:AE10" si="4">(B8+B9)/2</f>
+        <f t="shared" ref="B10:AF10" si="6">(B8+B9)/2</f>
         <v>25</v>
       </c>
       <c r="C10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="E10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="F10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="H10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="I10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="J10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="K10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
       <c r="L10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="M10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="N10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="O10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="P10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="Q10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="R10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="S10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="T10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="U10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="U10" si="7">(U8+U9)/2</f>
         <v>25</v>
       </c>
       <c r="V10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="W10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="X10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="Y10" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Z10" s="34">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="Z10" s="34">
-        <f t="shared" si="4"/>
+      <c r="AA10" s="34">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="AA10" s="34">
-        <f t="shared" si="4"/>
+      <c r="AB10" s="34">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="AB10" s="34">
-        <f t="shared" si="4"/>
+      <c r="AC10" s="34">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AC10" s="34">
-        <f t="shared" si="4"/>
+      <c r="AD10" s="34">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="AD10" s="35">
-        <f t="shared" si="4"/>
+      <c r="AE10" s="35">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="AE10" s="35">
-        <f t="shared" si="4"/>
+      <c r="AF10" s="35">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="AF10" s="34">
-        <f t="shared" ref="AF10" si="5">(AF8+AF9)/2</f>
+      <c r="AG10" s="34">
+        <f t="shared" ref="AG10" si="8">(AG8+AG9)/2</f>
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -31601,7 +31637,7 @@
         <v>45</v>
       </c>
       <c r="U11" s="20">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="V11" s="20">
         <v>50</v>
@@ -31610,16 +31646,16 @@
         <v>50</v>
       </c>
       <c r="X11" s="20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y11" s="20">
         <v>40</v>
       </c>
       <c r="Z11" s="20">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="20">
         <v>45</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>40</v>
       </c>
       <c r="AB11" s="20">
         <v>40</v>
@@ -31633,11 +31669,14 @@
       <c r="AE11" s="20">
         <v>40</v>
       </c>
-      <c r="AF11" s="19">
+      <c r="AF11" s="20">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>51</v>
       </c>
@@ -31699,7 +31738,7 @@
         <v>35</v>
       </c>
       <c r="U12" s="27">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V12" s="27">
         <v>40</v>
@@ -31708,16 +31747,16 @@
         <v>40</v>
       </c>
       <c r="X12" s="27">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="27">
         <v>30</v>
       </c>
       <c r="Z12" s="27">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="27">
         <v>35</v>
-      </c>
-      <c r="AA12" s="27">
-        <v>30</v>
       </c>
       <c r="AB12" s="27">
         <v>30</v>
@@ -31732,139 +31771,146 @@
         <v>30</v>
       </c>
       <c r="AF12" s="27">
+        <v>30</v>
+      </c>
+      <c r="AG12" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="34">
-        <f t="shared" ref="B13:AE13" si="6">(B11+B12)/2</f>
+        <f t="shared" ref="B13:AF13" si="9">(B11+B12)/2</f>
         <v>25</v>
       </c>
       <c r="C13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="D13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="F13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="G13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="H13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="J13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="K13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="L13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="M13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="N13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="O13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="P13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="Q13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="R13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="S13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="T13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="U13" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U13" si="10">(U11+U12)/2</f>
+        <v>40</v>
+      </c>
+      <c r="V13" s="34">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="V13" s="34">
-        <f t="shared" si="6"/>
+      <c r="W13" s="34">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="W13" s="34">
-        <f t="shared" si="6"/>
+      <c r="X13" s="34">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
-      <c r="X13" s="34">
-        <f t="shared" si="6"/>
+      <c r="Y13" s="34">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="Y13" s="34">
-        <f t="shared" si="6"/>
+      <c r="Z13" s="34">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="Z13" s="34">
-        <f t="shared" si="6"/>
+      <c r="AA13" s="34">
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="AA13" s="34">
-        <f t="shared" si="6"/>
+      <c r="AB13" s="34">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AB13" s="34">
-        <f t="shared" si="6"/>
+      <c r="AC13" s="34">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AC13" s="34">
-        <f t="shared" si="6"/>
+      <c r="AD13" s="34">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AD13" s="35">
-        <f t="shared" si="6"/>
+      <c r="AE13" s="35">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AE13" s="35">
-        <f t="shared" si="6"/>
+      <c r="AF13" s="35">
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
-      <c r="AF13" s="34">
-        <f t="shared" ref="AF13" si="7">(AF11+AF12)/2</f>
+      <c r="AG13" s="34">
+        <f t="shared" ref="AG13" si="11">(AG11+AG12)/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>52</v>
       </c>
@@ -31926,7 +31972,7 @@
         <v>55</v>
       </c>
       <c r="U14" s="20">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="V14" s="20">
         <v>40</v>
@@ -31935,7 +31981,7 @@
         <v>40</v>
       </c>
       <c r="X14" s="20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="20">
         <v>45</v>
@@ -31944,7 +31990,7 @@
         <v>45</v>
       </c>
       <c r="AA14" s="20">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AB14" s="20">
         <v>35</v>
@@ -31958,11 +32004,14 @@
       <c r="AE14" s="20">
         <v>35</v>
       </c>
-      <c r="AF14" s="19">
+      <c r="AF14" s="20">
+        <v>35</v>
+      </c>
+      <c r="AG14" s="19">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>53</v>
       </c>
@@ -32024,7 +32073,7 @@
         <v>45</v>
       </c>
       <c r="U15" s="27">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V15" s="27">
         <v>30</v>
@@ -32033,7 +32082,7 @@
         <v>30</v>
       </c>
       <c r="X15" s="27">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="27">
         <v>35</v>
@@ -32042,7 +32091,7 @@
         <v>35</v>
       </c>
       <c r="AA15" s="27">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AB15" s="27">
         <v>25</v>
@@ -32056,140 +32105,147 @@
       <c r="AE15" s="27">
         <v>25</v>
       </c>
-      <c r="AF15" s="26">
+      <c r="AF15" s="27">
+        <v>25</v>
+      </c>
+      <c r="AG15" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="34">
-        <f t="shared" ref="B16:AE16" si="8">(B14+B15)/2</f>
+        <f t="shared" ref="B16:AF16" si="12">(B14+B15)/2</f>
         <v>25</v>
       </c>
       <c r="C16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="D16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="E16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="F16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="H16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="I16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="J16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="L16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="N16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="P16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="Q16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="R16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="S16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="T16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="U16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U16" si="13">(U14+U15)/2</f>
+        <v>50</v>
+      </c>
+      <c r="V16" s="34">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="V16" s="34">
-        <f t="shared" si="8"/>
+      <c r="W16" s="34">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="W16" s="34">
-        <f t="shared" si="8"/>
+      <c r="X16" s="34">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="X16" s="34">
-        <f t="shared" si="8"/>
+      <c r="Y16" s="34">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="Y16" s="34">
-        <f t="shared" si="8"/>
+      <c r="Z16" s="34">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="Z16" s="34">
-        <f t="shared" si="8"/>
+      <c r="AA16" s="34">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="AA16" s="34">
-        <f t="shared" si="8"/>
+      <c r="AB16" s="34">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AB16" s="34">
-        <f t="shared" si="8"/>
+      <c r="AC16" s="34">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AC16" s="34">
-        <f t="shared" si="8"/>
+      <c r="AD16" s="34">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AD16" s="35">
-        <f t="shared" si="8"/>
+      <c r="AE16" s="35">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AE16" s="35">
-        <f t="shared" si="8"/>
+      <c r="AF16" s="35">
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="AF16" s="34">
-        <f t="shared" ref="AF16" si="9">(AF14+AF15)/2</f>
+      <c r="AG16" s="34">
+        <f t="shared" ref="AG16" si="14">(AG14+AG15)/2</f>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>54</v>
       </c>
@@ -32260,16 +32316,16 @@
         <v>45</v>
       </c>
       <c r="X17" s="20">
+        <v>45</v>
+      </c>
+      <c r="Y17" s="20">
         <v>35</v>
       </c>
-      <c r="Y17" s="20">
+      <c r="Z17" s="20">
         <v>45</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="AA17" s="20">
         <v>35</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>30</v>
       </c>
       <c r="AB17" s="20">
         <v>30</v>
@@ -32283,11 +32339,14 @@
       <c r="AE17" s="20">
         <v>30</v>
       </c>
-      <c r="AF17" s="19">
+      <c r="AF17" s="20">
+        <v>30</v>
+      </c>
+      <c r="AG17" s="19">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>55</v>
       </c>
@@ -32358,16 +32417,16 @@
         <v>35</v>
       </c>
       <c r="X18" s="27">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="27">
         <v>25</v>
       </c>
-      <c r="Y18" s="27">
+      <c r="Z18" s="27">
         <v>35</v>
       </c>
-      <c r="Z18" s="27">
+      <c r="AA18" s="27">
         <v>25</v>
-      </c>
-      <c r="AA18" s="27">
-        <v>20</v>
       </c>
       <c r="AB18" s="27">
         <v>20</v>
@@ -32381,140 +32440,147 @@
       <c r="AE18" s="27">
         <v>20</v>
       </c>
-      <c r="AF18" s="26">
+      <c r="AF18" s="27">
+        <v>20</v>
+      </c>
+      <c r="AG18" s="26">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="34">
-        <f t="shared" ref="B19:AE19" si="10">(B17+B18)/2</f>
+        <f t="shared" ref="B19:AF19" si="15">(B17+B18)/2</f>
         <v>25</v>
       </c>
       <c r="C19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="D19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="E19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="F19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="G19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="H19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="I19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="K19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="L19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="N19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="O19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="P19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="Q19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="R19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="S19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="T19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="U19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="U19" si="16">(U17+U18)/2</f>
         <v>40</v>
       </c>
       <c r="V19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="W19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="X19" s="34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="Y19" s="34">
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="Y19" s="34">
-        <f t="shared" si="10"/>
+      <c r="Z19" s="34">
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
-      <c r="Z19" s="34">
-        <f t="shared" si="10"/>
+      <c r="AA19" s="34">
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
-      <c r="AA19" s="34">
-        <f t="shared" si="10"/>
+      <c r="AB19" s="34">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="AB19" s="34">
-        <f t="shared" si="10"/>
+      <c r="AC19" s="34">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="AC19" s="34">
-        <f t="shared" si="10"/>
+      <c r="AD19" s="34">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="AD19" s="35">
-        <f t="shared" si="10"/>
+      <c r="AE19" s="35">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="AE19" s="35">
-        <f t="shared" si="10"/>
+      <c r="AF19" s="35">
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
-      <c r="AF19" s="34">
-        <f t="shared" ref="AF19" si="11">(AF17+AF18)/2</f>
+      <c r="AG19" s="34">
+        <f t="shared" ref="AG19" si="17">(AG17+AG18)/2</f>
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
@@ -32576,7 +32642,7 @@
         <v>30</v>
       </c>
       <c r="U20" s="20">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V20" s="20">
         <v>35</v>
@@ -32585,7 +32651,7 @@
         <v>35</v>
       </c>
       <c r="X20" s="20">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="20">
         <v>30</v>
@@ -32603,16 +32669,19 @@
         <v>30</v>
       </c>
       <c r="AD20" s="20">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AE20" s="20">
         <v>55</v>
       </c>
-      <c r="AF20" s="19">
+      <c r="AF20" s="20">
+        <v>55</v>
+      </c>
+      <c r="AG20" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
         <v>57</v>
       </c>
@@ -32674,7 +32743,7 @@
         <v>20</v>
       </c>
       <c r="U21" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="V21" s="27">
         <v>25</v>
@@ -32683,7 +32752,7 @@
         <v>25</v>
       </c>
       <c r="X21" s="27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Y21" s="27">
         <v>20</v>
@@ -32701,145 +32770,152 @@
         <v>20</v>
       </c>
       <c r="AD21" s="27">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="AE21" s="27">
         <v>45</v>
       </c>
       <c r="AF21" s="27">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="27">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="34">
-        <f t="shared" ref="B22:AE22" si="12">(B20+B21)/2</f>
+        <f t="shared" ref="B22:AF22" si="18">(B20+B21)/2</f>
         <v>25</v>
       </c>
       <c r="C22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="D22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="E22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="F22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="H22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="J22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="L22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="N22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="O22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="P22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="Q22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="R22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="S22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="T22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="U22" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="U22" si="19">(U20+U21)/2</f>
+        <v>25</v>
+      </c>
+      <c r="V22" s="34">
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="V22" s="34">
-        <f t="shared" si="12"/>
+      <c r="W22" s="34">
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="W22" s="34">
-        <f t="shared" si="12"/>
+      <c r="X22" s="34">
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
-      <c r="X22" s="34">
-        <f t="shared" si="12"/>
+      <c r="Y22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="Y22" s="34">
-        <f t="shared" si="12"/>
+      <c r="Z22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="Z22" s="34">
-        <f t="shared" si="12"/>
+      <c r="AA22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AA22" s="34">
-        <f t="shared" si="12"/>
+      <c r="AB22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AB22" s="34">
-        <f t="shared" si="12"/>
+      <c r="AC22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AC22" s="34">
-        <f t="shared" si="12"/>
+      <c r="AD22" s="34">
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
-      <c r="AD22" s="35">
-        <f t="shared" si="12"/>
+      <c r="AE22" s="35">
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="AE22" s="35">
-        <f t="shared" si="12"/>
+      <c r="AF22" s="35">
+        <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="AF22" s="34">
-        <f t="shared" ref="AF22" si="13">(AF20+AF21)/2</f>
+      <c r="AG22" s="34">
+        <f t="shared" ref="AG22" si="20">(AG20+AG21)/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -32867,271 +32943,280 @@
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="37"/>
+      <c r="AB23" s="20"/>
       <c r="AC23" s="37"/>
       <c r="AD23" s="37"/>
       <c r="AE23" s="37"/>
-      <c r="AF23" s="20"/>
-    </row>
-    <row r="24" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="20"/>
+    </row>
+    <row r="24" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="24">
-        <f t="shared" ref="B24:AE24" si="14">B4+B7+B10+B13+B16+B19+B22</f>
+        <f t="shared" ref="B24:AF24" si="21">B4+B7+B10+B13+B16+B19+B22</f>
         <v>175</v>
       </c>
       <c r="C24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="D24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="E24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>175</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
       <c r="I24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="K24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>216</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>170</v>
       </c>
       <c r="O24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="Q24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="S24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>256</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="U24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="U24" si="22">U4+U7+U10+U13+U16+U19+U22</f>
         <v>240</v>
       </c>
       <c r="V24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="W24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>240</v>
       </c>
       <c r="X24" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
+        <v>240</v>
+      </c>
+      <c r="Y24" s="24">
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
-      <c r="Y24" s="24">
-        <f t="shared" si="14"/>
+      <c r="Z24" s="24">
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
-      <c r="Z24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AA24" s="24">
+        <f t="shared" si="21"/>
         <v>220</v>
       </c>
-      <c r="AA24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AB24" s="24">
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-      <c r="AB24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AC24" s="24">
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-      <c r="AC24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AD24" s="24">
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-      <c r="AD24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AE24" s="24">
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-      <c r="AE24" s="24">
-        <f t="shared" si="14"/>
+      <c r="AF24" s="24">
+        <f t="shared" si="21"/>
         <v>235</v>
       </c>
-      <c r="AF24" s="24">
-        <f t="shared" ref="AF24" si="15">AF4+AF7+AF10+AF13+AF16+AF19+AF22</f>
+      <c r="AG24" s="24">
+        <f t="shared" ref="AG24" si="23">AG4+AG7+AG10+AG13+AG16+AG19+AG22</f>
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="24">
-        <f t="shared" ref="B25:AE25" si="16">B24/7</f>
+        <f t="shared" ref="B25:AF25" si="24">B24/7</f>
         <v>25</v>
       </c>
       <c r="C25" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="D25" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="E25" s="24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="F25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28.571428571428573</v>
       </c>
       <c r="G25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28.571428571428573</v>
       </c>
       <c r="H25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>28.571428571428573</v>
       </c>
       <c r="I25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="J25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="K25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>30.857142857142858</v>
       </c>
       <c r="L25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.285714285714285</v>
       </c>
       <c r="M25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.285714285714285</v>
       </c>
       <c r="N25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>24.285714285714285</v>
       </c>
       <c r="O25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="P25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="Q25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="R25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>36.571428571428569</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="U25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="U25" si="25">U24/7</f>
         <v>34.285714285714285</v>
       </c>
       <c r="V25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="W25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>34.285714285714285</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="Y25" s="40">
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="Y25" s="40">
-        <f t="shared" si="16"/>
+      <c r="Z25" s="40">
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="Z25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AA25" s="40">
+        <f t="shared" si="24"/>
         <v>31.428571428571427</v>
       </c>
-      <c r="AA25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AB25" s="40">
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AB25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AC25" s="40">
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AC25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AD25" s="40">
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AD25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AE25" s="40">
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AE25" s="40">
-        <f t="shared" si="16"/>
+      <c r="AF25" s="40">
+        <f t="shared" si="24"/>
         <v>33.571428571428569</v>
       </c>
-      <c r="AF25" s="40">
-        <f t="shared" ref="AF25" si="17">AF24/7</f>
+      <c r="AG25" s="40">
+        <f t="shared" ref="AG25" si="26">AG24/7</f>
         <v>28.571428571428573</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -33165,7 +33250,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -33199,7 +33284,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -33233,7 +33318,7 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -33267,7 +33352,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -33301,7 +33386,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -33335,7 +33420,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
